--- a/data-scrapping/twitter/tweets.xlsx
+++ b/data-scrapping/twitter/tweets.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1058"/>
+  <dimension ref="A1:D1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13722,50 +13722,68 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
+        <v>43577.33947916667</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1.12023802089916e+18</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Hello oghanq Penang. Pa habaq @AidaBakkri ?</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>AaaaamirAhmad</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
         <v>43577.3008912037</v>
       </c>
-      <c r="B696" t="n">
+      <c r="B697" t="n">
         <v>1.120224035575562e+18</v>
       </c>
-      <c r="C696" t="inlineStr">
+      <c r="C697" t="inlineStr">
         <is>
           <t>Udah capek receh habis
 Balek lah syudah hahaha https://t.co/Mxfv0Me5LL</t>
         </is>
       </c>
-      <c r="D696" t="inlineStr">
+      <c r="D697" t="inlineStr">
         <is>
           <t>diinadinott</t>
         </is>
       </c>
     </row>
-    <row r="697">
-      <c r="A697" s="2" t="n">
+    <row r="698">
+      <c r="A698" s="2" t="n">
         <v>43577.26886574074</v>
       </c>
-      <c r="B697" t="n">
+      <c r="B698" t="n">
         <v>1.120212431819743e+18</v>
       </c>
-      <c r="C697" t="inlineStr">
+      <c r="C698" t="inlineStr">
         <is>
           <t>Nah kalian nih yang mau mejeng di bola bumi Universal Studio Singapore bisa naik ini dari Sentosa stasiun Vivo city kayak mall gt.
 Dari Sentosa lanjut ke Waterfront turu disini untuk ke… https://t.co/SGqOG54E4e</t>
         </is>
       </c>
-      <c r="D697" t="inlineStr">
+      <c r="D698" t="inlineStr">
         <is>
           <t>extachima</t>
         </is>
       </c>
     </row>
-    <row r="698">
-      <c r="A698" s="2" t="n">
+    <row r="699">
+      <c r="A699" s="2" t="n">
         <v>43577.255</v>
       </c>
-      <c r="B698" t="n">
+      <c r="B699" t="n">
         <v>1.120207405592138e+18</v>
       </c>
-      <c r="C698" t="inlineStr">
+      <c r="C699" t="inlineStr">
         <is>
           <t>Nonton beginian aja udah seneng, unik ya. 😁
 Jadi inget jaman kecil sambil di suapin di Stasiun Lempuyangan &amp;amp; Stasiun Tugu.
@@ -13773,200 +13791,218 @@
 Warna warni… https://t.co/z3rmVIu42n</t>
         </is>
       </c>
-      <c r="D698" t="inlineStr">
+      <c r="D699" t="inlineStr">
         <is>
           <t>extachima</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" s="2" t="n">
-        <v>43576.44934027778</v>
-      </c>
-      <c r="B699" t="n">
-        <v>1.119915445304173e+18</v>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>Sumpah tak rasa kaki dah ni 😂 https://t.co/F9AoWZGoRj</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>ekinfauzie</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>43576.37412037037</v>
+        <v>43576.44934027778</v>
       </c>
       <c r="B700" t="n">
-        <v>1.119888186602344e+18</v>
+        <v>1.119915445304173e+18</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Hidup Ini Indah Bila Aku Selalu Ada Disisimu Setiap Waktu Hingga Aku Hembuskan Nafas Yang Terakhir &amp;amp; Kita Pun Bertemu 🇸🇬 @ Singapore Cruise Centre https://t.co/IOx7KpNKhM</t>
+          <t>Sumpah tak rasa kaki dah ni 😂 https://t.co/F9AoWZGoRj</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>RulyPramanaPtra</t>
+          <t>ekinfauzie</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>43576.35210648148</v>
+        <v>43576.37412037037</v>
       </c>
       <c r="B701" t="n">
-        <v>1.119880208138539e+18</v>
+        <v>1.119888186602344e+18</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Jinani kaya bocah lucu bgt😍 https://t.co/PIKxOAxCkz</t>
+          <t>Hidup Ini Indah Bila Aku Selalu Ada Disisimu Setiap Waktu Hingga Aku Hembuskan Nafas Yang Terakhir &amp;amp; Kita Pun Bertemu 🇸🇬 @ Singapore Cruise Centre https://t.co/IOx7KpNKhM</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>flytorifly</t>
+          <t>RulyPramanaPtra</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>43576.33039351852</v>
+        <v>43576.35210648148</v>
       </c>
       <c r="B702" t="n">
-        <v>1.119872337476645e+18</v>
+        <v>1.119880208138539e+18</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Pokemon Safari ❤️❤️ @ Palawan Beach Sentosa Island https://t.co/tzs5xOqHXG</t>
+          <t>Jinani kaya bocah lucu bgt😍 https://t.co/PIKxOAxCkz</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>jingyee336</t>
+          <t>flytorifly</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>43576.25271990741</v>
+        <v>43576.33039351852</v>
       </c>
       <c r="B703" t="n">
-        <v>1.119844189435585e+18</v>
+        <v>1.119872337476645e+18</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>di panggang 😭😭 #iKONxSundowninSG https://t.co/J8paiTwqSm</t>
+          <t>Pokemon Safari ❤️❤️ @ Palawan Beach Sentosa Island https://t.co/tzs5xOqHXG</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>mambin_ikon96</t>
+          <t>jingyee336</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>43576.20494212963</v>
+        <v>43576.25271990741</v>
       </c>
       <c r="B704" t="n">
-        <v>1.119826876736737e+18</v>
+        <v>1.119844189435585e+18</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Ga mau keluar panasssss😂😂😂😭😭😭😭 https://t.co/UswbLjsZVF</t>
+          <t>di panggang 😭😭 #iKONxSundowninSG https://t.co/J8paiTwqSm</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>flytorifly</t>
+          <t>mambin_ikon96</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>43576.12476851852</v>
+        <v>43576.23148148148</v>
       </c>
       <c r="B705" t="n">
-        <v>1.119797822478541e+18</v>
+        <v>1.11983649304696e+18</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Kan belom ada pengumuman resmi. Kok udah pada gila sih. #barrackobama #madametussaudssingapore #singapore @ Madame Tussauds Singapore https://t.co/PrcjjCU1Dh</t>
+          <t>@nazamozir Nanti aku tanya. Lusa ada minum petang dgn PM dia. Haha!</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>ronaldwilly9</t>
+          <t>AaaaamirAhmad</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>43576.10347222222</v>
+        <v>43576.20494212963</v>
       </c>
       <c r="B706" t="n">
-        <v>1.119790105559032e+18</v>
+        <v>1.119826876736737e+18</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Antri sembako dulu y https://t.co/vsJfJ48rZq</t>
+          <t>Ga mau keluar panasssss😂😂😂😭😭😭😭 https://t.co/UswbLjsZVF</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>shxxpalski</t>
+          <t>flytorifly</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>43576.05556712963</v>
+        <v>43576.12476851852</v>
       </c>
       <c r="B707" t="n">
-        <v>1.119772745670091e+18</v>
+        <v>1.119797822478541e+18</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Kop khun kha~~ @YUI_iKONICTH 😍😊🤗💕 https://t.co/gQOlQkyFGm</t>
+          <t>Kan belom ada pengumuman resmi. Kok udah pada gila sih. #barrackobama #madametussaudssingapore #singapore @ Madame Tussauds Singapore https://t.co/PrcjjCU1Dh</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>babohanbin</t>
+          <t>ronaldwilly9</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>43576.04700231482</v>
+        <v>43576.10347222222</v>
       </c>
       <c r="B708" t="n">
-        <v>1.119769639586796e+18</v>
+        <v>1.119790105559032e+18</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Udah rame beb https://t.co/6AOYbdrst9</t>
+          <t>Antri sembako dulu y https://t.co/vsJfJ48rZq</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>tkwpcnfqk</t>
+          <t>shxxpalski</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
+        <v>43576.05556712963</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1.119772745670091e+18</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Kop khun kha~~ @YUI_iKONICTH 😍😊🤗💕 https://t.co/gQOlQkyFGm</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>babohanbin</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>43576.04700231482</v>
+      </c>
+      <c r="B710" t="n">
+        <v>1.119769639586796e+18</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Udah rame beb https://t.co/6AOYbdrst9</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>tkwpcnfqk</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
         <v>43576.0344675926</v>
       </c>
-      <c r="B709" t="n">
+      <c r="B711" t="n">
         <v>1.119765100112388e+18</v>
       </c>
-      <c r="C709" t="inlineStr">
+      <c r="C711" t="inlineStr">
         <is>
           <t>#Numpanglewat
 Hidup ini cuma
@@ -13974,58 +14010,22 @@
 dan kumpul bareng keluarga @ Universal Studios Singapore https://t.co/64QIyQSNaD</t>
         </is>
       </c>
-      <c r="D709" t="inlineStr">
+      <c r="D711" t="inlineStr">
         <is>
           <t>saidalzou</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="2" t="n">
-        <v>43575.57319444444</v>
-      </c>
-      <c r="B710" t="n">
-        <v>1.119597940010414e+18</v>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>- BWHAAHAHAHAHHAHA @pwenchesca https://t.co/I6iMg7D12y</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>ndiaoops</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" s="2" t="n">
-        <v>43575.5509837963</v>
-      </c>
-      <c r="B711" t="n">
-        <v>1.119589891682124e+18</v>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>- HEHEHHEHEHEHEGEG3 HALATA NAMAN NA HAPPY AKO DIBA https://t.co/NHCBaSC80s</t>
-        </is>
-      </c>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>ndiaoops</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>43575.55083333333</v>
+        <v>43575.57319444444</v>
       </c>
       <c r="B712" t="n">
-        <v>1.119589837789471e+18</v>
+        <v>1.119597940010414e+18</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>- mahal pre 🤦 napagastos ng di oras https://t.co/sZz5CD6SFh</t>
+          <t>- BWHAAHAHAHAHHAHA @pwenchesca https://t.co/I6iMg7D12y</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -14036,471 +14036,507 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
+        <v>43575.5509837963</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1.119589891682124e+18</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>- HEHEHHEHEHEHEGEG3 HALATA NAMAN NA HAPPY AKO DIBA https://t.co/NHCBaSC80s</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>ndiaoops</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>43575.55083333333</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1.119589837789471e+18</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>- mahal pre 🤦 napagastos ng di oras https://t.co/sZz5CD6SFh</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>ndiaoops</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
         <v>43575.51560185185</v>
       </c>
-      <c r="B713" t="n">
+      <c r="B715" t="n">
         <v>1.119577068520595e+18</v>
       </c>
-      <c r="C713" t="inlineStr">
+      <c r="C715" t="inlineStr">
         <is>
           <t>Unplanned short vacation... once again #universalstudios Singapore 🇸🇬 
 Acah2 pelancong ober sea jap ekkk... cam jauh naw naw datang nya... hahahahaha 
 USS pakej &amp;amp; tiket murah… https://t.co/PIRdC37nma</t>
         </is>
       </c>
-      <c r="D713" t="inlineStr">
+      <c r="D715" t="inlineStr">
         <is>
           <t>jeayjai</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" s="2" t="n">
-        <v>43575.3711574074</v>
-      </c>
-      <c r="B714" t="n">
-        <v>1.119524723853906e+18</v>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Jom jemput biskuit binatang</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr">
-        <is>
-          <t>ieyasu_shogun</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" s="2" t="n">
-        <v>43575.35203703704</v>
-      </c>
-      <c r="B715" t="n">
-        <v>1.119517796398924e+18</v>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>Takde yee 😡😭😭 (@ Onitsuka Tiger in Singapore) https://t.co/aguuch0AX3</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr">
-        <is>
-          <t>areefozil</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>43575.06246527778</v>
+        <v>43575.3711574074</v>
       </c>
       <c r="B716" t="n">
-        <v>1.119412856041169e+18</v>
+        <v>1.119524723853906e+18</v>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Strolling Sentosa🦁🌴#ilovedad #ilovemom #babyajworld #aiyannahjoelle #singaporevacay2019 #sentosasingapore @ Sentosa Merlion Plaza Artisans' Bazaar https://t.co/MweLdtYqn7</t>
+          <t>Jom jemput biskuit binatang</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>itsMeLeojBila</t>
+          <t>ieyasu_shogun</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>43574.36866898148</v>
+        <v>43575.35203703704</v>
       </c>
       <c r="B717" t="n">
-        <v>1.119161435748069e+18</v>
+        <v>1.119517796398924e+18</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/bnPMD2Cxl3</t>
+          <t>Takde yee 😡😭😭 (@ Onitsuka Tiger in Singapore) https://t.co/aguuch0AX3</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>icebits</t>
+          <t>areefozil</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>43574.28950231482</v>
+        <v>43575.06246527778</v>
       </c>
       <c r="B718" t="n">
-        <v>1.119132745442058e+18</v>
+        <v>1.119412856041169e+18</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Korean Bulgogi Stew @ Insadong Korea Town https://t.co/06HjMLd3p1</t>
+          <t>Strolling Sentosa🦁🌴#ilovedad #ilovemom #babyajworld #aiyannahjoelle #singaporevacay2019 #sentosasingapore @ Sentosa Merlion Plaza Artisans' Bazaar https://t.co/MweLdtYqn7</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>hoserene</t>
+          <t>itsMeLeojBila</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>43573.51672453704</v>
+        <v>43574.36866898148</v>
       </c>
       <c r="B719" t="n">
-        <v>1.118852700001776e+18</v>
+        <v>1.119161435748069e+18</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Tropius spawning along #PalawanBeach.
-.
-.
-#keepcalmandcatchpokemons #keepwalking #PokemonGoSG #pokedex #sentosa #SafariZoneSentosa #SafariZone @ Sentosa (Official) https://t.co/UEc0R0sdAs</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/bnPMD2Cxl3</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>MiracleGuruGal</t>
+          <t>icebits</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>43573.24306712963</v>
+        <v>43574.28950231482</v>
       </c>
       <c r="B720" t="n">
-        <v>1.118753528267198e+18</v>
+        <v>1.119132745442058e+18</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>dalagang Pilipina yeah 💪🏻💪🏻😂 https://t.co/b9rYF0sD98</t>
+          <t>Korean Bulgogi Stew @ Insadong Korea Town https://t.co/06HjMLd3p1</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>pheeeeeij</t>
+          <t>hoserene</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>43573.19074074074</v>
+        <v>43573.51672453704</v>
       </c>
       <c r="B721" t="n">
-        <v>1.118734568578744e+18</v>
+        <v>1.118852700001776e+18</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Selamat Pak @jokowi berdasarkan Quick Count perhitungan suara sementara secara nasional, 01 ☝🏻 Joko Widodo - Ma'ruf Amin 54,52% unggul dari 02 👉🏻 Prabowo Subianto - Sandiaga Uno… https://t.co/2a3tDVwkpe</t>
+          <t>Tropius spawning along #PalawanBeach.
+.
+.
+#keepcalmandcatchpokemons #keepwalking #PokemonGoSG #pokedex #sentosa #SafariZoneSentosa #SafariZone @ Sentosa (Official) https://t.co/UEc0R0sdAs</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>nguraheka</t>
+          <t>MiracleGuruGal</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>43573.18820601852</v>
+        <v>43573.24306712963</v>
       </c>
       <c r="B722" t="n">
-        <v>1.118733647916487e+18</v>
+        <v>1.118753528267198e+18</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>"Mendoakan orang lain tidak akan pernah membuatmu merasa kurang berdoa untuk diri sendiri. Hal baik akan berbalik baik begitupun sebalik nya, jadi pastikan… https://t.co/CfOWsyiT0a</t>
+          <t>dalagang Pilipina yeah 💪🏻💪🏻😂 https://t.co/b9rYF0sD98</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>novadwiafniiiii</t>
+          <t>pheeeeeij</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>43572.61760416667</v>
+        <v>43573.19074074074</v>
       </c>
       <c r="B723" t="n">
-        <v>1.118526870213939e+18</v>
+        <v>1.118734568578744e+18</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Selalu ada tempat untuk istirahat. Jangan pura pura kuat,  berjuang sendirian itu berat.</t>
+          <t>Selamat Pak @jokowi berdasarkan Quick Count perhitungan suara sementara secara nasional, 01 ☝🏻 Joko Widodo - Ma'ruf Amin 54,52% unggul dari 02 👉🏻 Prabowo Subianto - Sandiaga Uno… https://t.co/2a3tDVwkpe</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>prajunasuhendra</t>
+          <t>nguraheka</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>43572.61087962963</v>
+        <v>43573.18820601852</v>
       </c>
       <c r="B724" t="n">
-        <v>1.118524432484639e+18</v>
+        <v>1.118733647916487e+18</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>Aku terpaksa menggunakan Angkel sebagai umpan utk menjinakkan binatang ni..dan ktorg plan utk gunakan binatang ni utk pergi melaka raya hari² lps ni..tq angkel 💪💪💪 @ Jurrasic Park @ Uss https://t.co/jEvPlXFyHV</t>
+          <t>"Mendoakan orang lain tidak akan pernah membuatmu merasa kurang berdoa untuk diri sendiri. Hal baik akan berbalik baik begitupun sebalik nya, jadi pastikan… https://t.co/CfOWsyiT0a</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>AjaxDeCaprio</t>
+          <t>novadwiafniiiii</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>43572.43825231482</v>
+        <v>43572.61760416667</v>
       </c>
       <c r="B725" t="n">
-        <v>1.118461873140138e+18</v>
+        <v>1.118526870213939e+18</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Kegagalan dalam kemuliaan lebih baik daripada kejayaan dalam kehinaan. Memberi sedikit dengan ikhlas pula lebih mulia dari memberi dengan banyak tapi diiringi… https://t.co/87X9IWU9vU</t>
+          <t>Selalu ada tempat untuk istirahat. Jangan pura pura kuat,  berjuang sendirian itu berat.</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>HafizAlbar</t>
+          <t>prajunasuhendra</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
+        <v>43572.61087962963</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1.118524432484639e+18</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Aku terpaksa menggunakan Angkel sebagai umpan utk menjinakkan binatang ni..dan ktorg plan utk gunakan binatang ni utk pergi melaka raya hari² lps ni..tq angkel 💪💪💪 @ Jurrasic Park @ Uss https://t.co/jEvPlXFyHV</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>AjaxDeCaprio</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>43572.43825231482</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.118461873140138e+18</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Kegagalan dalam kemuliaan lebih baik daripada kejayaan dalam kehinaan. Memberi sedikit dengan ikhlas pula lebih mulia dari memberi dengan banyak tapi diiringi… https://t.co/87X9IWU9vU</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>HafizAlbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
         <v>43572.42752314815</v>
       </c>
-      <c r="B726" t="n">
+      <c r="B728" t="n">
         <v>1.118457987700367e+18</v>
       </c>
-      <c r="C726" t="inlineStr">
+      <c r="C728" t="inlineStr">
         <is>
           <t>Walking... Walking...
 Penutupan sebelum Puasa 🤭🙆
 #singapore #sentosaisland #sentosasingapore #holiday #trip @ Universal Studio, Sentosa Beach Singapore https://t.co/xTt4Y8vFuw</t>
         </is>
       </c>
-      <c r="D726" t="inlineStr">
+      <c r="D728" t="inlineStr">
         <is>
           <t>Veraordinary</t>
         </is>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" s="2" t="n">
+    <row r="729">
+      <c r="A729" s="2" t="n">
         <v>43570.83857638889</v>
       </c>
-      <c r="B727" t="n">
+      <c r="B729" t="n">
         <v>1.117882171987862e+18</v>
       </c>
-      <c r="C727" t="inlineStr">
+      <c r="C729" t="inlineStr">
         <is>
           <t>Sentosa Island 
 #transwisatayogya #wisatamurahmeriah #wisatajogja #wisata yuk_wisata @ Sentosa (Official) https://t.co/n1Glem85oi</t>
         </is>
       </c>
-      <c r="D727" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>AlvaroBratajaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="2" t="n">
-        <v>43570.83846064815</v>
-      </c>
-      <c r="B728" t="n">
-        <v>1.117882128341979e+18</v>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>#transwisatayogya #wisatamurahmeriah #wisatamurahjogja #wisatayogya #wisataindonesia yuk_wisata @ Universal Studio Singapore https://t.co/hz42AVSRZe</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>AlvaroBratajaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="2" t="n">
-        <v>43570.34083333334</v>
-      </c>
-      <c r="B729" t="n">
-        <v>1.117701795738862e+18</v>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>Ya allah sayang banget niw data roaming gua masih sisa banyak 😢😢 tapi udah mau balik ke +62</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>officialafin</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>43570.09447916667</v>
+        <v>43570.83846064815</v>
       </c>
       <c r="B730" t="n">
-        <v>1.117612518984376e+18</v>
+        <v>1.117882128341979e+18</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>I'm at 1003 Bukit Merah Central in Singapore https://t.co/McFv3bYzFb</t>
+          <t>#transwisatayogya #wisatamurahmeriah #wisatamurahjogja #wisatayogya #wisataindonesia yuk_wisata @ Universal Studio Singapore https://t.co/hz42AVSRZe</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>Twenty8October_</t>
+          <t>AlvaroBratajaya</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>43569.93627314815</v>
+        <v>43570.34083333334</v>
       </c>
       <c r="B731" t="n">
-        <v>1.117555189001544e+18</v>
+        <v>1.117701795738862e+18</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>anak kesayangan bersama ibunya https://t.co/Nj0f4qWuTU</t>
+          <t>Ya allah sayang banget niw data roaming gua masih sisa banyak 😢😢 tapi udah mau balik ke +62</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>merafiq_</t>
+          <t>officialafin</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>43569.5571412037</v>
+        <v>43570.09447916667</v>
       </c>
       <c r="B732" t="n">
-        <v>1.117417794507661e+18</v>
+        <v>1.117612518984376e+18</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>seronok woi!! Xde org, so semua ride dpt join😂 https://t.co/XcG8UEzbUZ</t>
+          <t>I'm at 1003 Bukit Merah Central in Singapore https://t.co/McFv3bYzFb</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>faheem_puch94</t>
+          <t>Twenty8October_</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>43569.53626157407</v>
+        <v>43569.93627314815</v>
       </c>
       <c r="B733" t="n">
-        <v>1.11741022679629e+18</v>
+        <v>1.117555189001544e+18</v>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>Sayonara #Singapore 🌎 https://t.co/cfQKgf6Qkh</t>
+          <t>anak kesayangan bersama ibunya https://t.co/Nj0f4qWuTU</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>iNadyaSaid</t>
+          <t>merafiq_</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
+        <v>43569.5571412037</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1.117417794507661e+18</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>seronok woi!! Xde org, so semua ride dpt join😂 https://t.co/XcG8UEzbUZ</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>faheem_puch94</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>43569.53626157407</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1.11741022679629e+18</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Sayonara #Singapore 🌎 https://t.co/cfQKgf6Qkh</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>iNadyaSaid</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
         <v>43569.34005787037</v>
       </c>
-      <c r="B734" t="n">
+      <c r="B736" t="n">
         <v>1.11733912827689e+18</v>
       </c>
-      <c r="C734" t="inlineStr">
+      <c r="C736" t="inlineStr">
         <is>
           <t>Spot unik yg sayang jika di lewatkan begitu saja tanpa berphoto2.. 😉 Siapa yg setuju..? 
 #sentosa #sentosaisland #vacation #instagram #instastory #mydiary #mystory #visitsingapore… https://t.co/5h8o7UNfQu</t>
         </is>
       </c>
-      <c r="D734" t="inlineStr">
+      <c r="D736" t="inlineStr">
         <is>
           <t>dee9185</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="2" t="n">
-        <v>43569.20864583334</v>
-      </c>
-      <c r="B735" t="n">
-        <v>1.117291505897693e+18</v>
-      </c>
-      <c r="C735" t="inlineStr">
-        <is>
-          <t>I'm at Shangri-La's Rasa Sentosa Resort &amp;amp; Spa in Sentosa Island, Singapore https://t.co/CWwBQPCBZk</t>
-        </is>
-      </c>
-      <c r="D735" t="inlineStr">
-        <is>
-          <t>hafelg</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="2" t="n">
-        <v>43569.09346064815</v>
-      </c>
-      <c r="B736" t="n">
-        <v>1.117249760484712e+18</v>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>Tamang pa cute lang hehehe https://t.co/OACjjvXW0h</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>airaxei</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>43568.63552083333</v>
+        <v>43569.20864583334</v>
       </c>
       <c r="B737" t="n">
-        <v>1.117083811312034e+18</v>
+        <v>1.117291505897693e+18</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>ok dah nak btolak pulang ke kuala lumpur.... doakan.... @ Marina Bay Cruise Centre Singapore https://t.co/ssVwAOcgIn</t>
+          <t>I'm at Shangri-La's Rasa Sentosa Resort &amp;amp; Spa in Sentosa Island, Singapore https://t.co/CWwBQPCBZk</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>hafiz_bai</t>
+          <t>hafelg</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
+        <v>43569.09346064815</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1.117249760484712e+18</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Tamang pa cute lang hehehe https://t.co/OACjjvXW0h</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>airaxei</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>43568.63552083333</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1.117083811312034e+18</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>ok dah nak btolak pulang ke kuala lumpur.... doakan.... @ Marina Bay Cruise Centre Singapore https://t.co/ssVwAOcgIn</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>hafiz_bai</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
         <v>43568.53108796296</v>
       </c>
-      <c r="B738" t="n">
+      <c r="B740" t="n">
         <v>1.117045967360905e+18</v>
       </c>
-      <c r="C738" t="inlineStr">
+      <c r="C740" t="inlineStr">
         <is>
           <t>JOIN THE MOVEMENT!
 Tak lengkap rasanya kalo traveling gak pake Hijacket, kayak ada yang kurang gituh😋😘😘
@@ -14512,94 +14548,58 @@
 BELI SEKARANG… https://t.co/rOl6bSVtNy</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
+      <c r="D740" t="inlineStr">
         <is>
           <t>RuriTandiansyah</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="2" t="n">
-        <v>43568.49736111111</v>
-      </c>
-      <c r="B739" t="n">
-        <v>1.117033742269338e+18</v>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Miniature of New York City...cukup mirip dengan aslinya....ini ceritanya fifth Avenue... @ Universal Studio, Sentosa Beach Singapore https://t.co/1CmkQrs5nN</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>hstywlndr</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="2" t="n">
-        <v>43567.50571759259</v>
-      </c>
-      <c r="B740" t="n">
-        <v>1.116674381743305e+18</v>
-      </c>
-      <c r="C740" t="inlineStr">
-        <is>
-          <t>#ononinsingapore #Singapore #SentosaMerlion @ Sentosa Merlion Plaza Artisans' Bazaar https://t.co/seBbxUisIG</t>
-        </is>
-      </c>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>Suparuedee</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>43567.41747685185</v>
+        <v>43568.49736111111</v>
       </c>
       <c r="B741" t="n">
-        <v>1.116642406148002e+18</v>
+        <v>1.117033742269338e+18</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Akhirnya berkesempatan jumpa geng, penat datang jauh jauh 🤧 @ Madagascar: A Crate Adventure https://t.co/ZukBj5bTnY</t>
+          <t>Miniature of New York City...cukup mirip dengan aslinya....ini ceritanya fifth Avenue... @ Universal Studio, Sentosa Beach Singapore https://t.co/1CmkQrs5nN</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>HZMLRN</t>
+          <t>hstywlndr</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>43567.39681712963</v>
+        <v>43567.50571759259</v>
       </c>
       <c r="B742" t="n">
-        <v>1.116634919311163e+18</v>
+        <v>1.116674381743305e+18</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>Anlakas maka happy ng Singapore. Lalo na ang food, ay jusko! Kahit pabalik balik ka, di nakakasawa. Parang ganda ko lang. Chaaar! #WagKaNaKumontra #PusuanMoNaLang #Singapore #GumalaSaAsia… https://t.co/tWl30ADHRM</t>
+          <t>#ononinsingapore #Singapore #SentosaMerlion @ Sentosa Merlion Plaza Artisans' Bazaar https://t.co/seBbxUisIG</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>haidzmitra</t>
+          <t>Suparuedee</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>43567.21484953703</v>
+        <v>43567.41747685185</v>
       </c>
       <c r="B743" t="n">
-        <v>1.116568976186724e+18</v>
+        <v>1.116642406148002e+18</v>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>Kenyang sampai malam 😂 (@ Oasis Spice Cafe in Singapore) https://t.co/QvOw3DKs6F https://t.co/bNZBTSZkcx</t>
+          <t>Akhirnya berkesempatan jumpa geng, penat datang jauh jauh 🤧 @ Madagascar: A Crate Adventure https://t.co/ZukBj5bTnY</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -14610,291 +14610,291 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>43567.20961805555</v>
+        <v>43567.39681712963</v>
       </c>
       <c r="B744" t="n">
-        <v>1.116567080264819e+18</v>
+        <v>1.116634919311163e+18</v>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Sis bawak diri dulu</t>
+          <t>Anlakas maka happy ng Singapore. Lalo na ang food, ay jusko! Kahit pabalik balik ka, di nakakasawa. Parang ganda ko lang. Chaaar! #WagKaNaKumontra #PusuanMoNaLang #Singapore #GumalaSaAsia… https://t.co/tWl30ADHRM</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>nratfhash</t>
+          <t>haidzmitra</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
+        <v>43567.21484953703</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1.116568976186724e+18</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Kenyang sampai malam 😂 (@ Oasis Spice Cafe in Singapore) https://t.co/QvOw3DKs6F https://t.co/bNZBTSZkcx</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>HZMLRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>43567.20961805555</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1.116567080264819e+18</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Sis bawak diri dulu</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>nratfhash</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
         <v>43565.15678240741</v>
       </c>
-      <c r="B745" t="n">
+      <c r="B747" t="n">
         <v>1.115823158500647e+18</v>
       </c>
-      <c r="C745" t="inlineStr">
+      <c r="C747" t="inlineStr">
         <is>
           <t>Last day untuk undi @namathemusic hari niii!!!
 Pergi ke GOOGLE dan taip "Asia's Got Talent Vote" dan click NAMA.
 Satu lagi boleh undi dekat FACEBOOK MESSENGER Asia's Got Talent punya Page pun sama jugak click NAMA juga! https://t.co/SchUZhhtue</t>
         </is>
       </c>
-      <c r="D745" t="inlineStr">
+      <c r="D747" t="inlineStr">
         <is>
           <t>FaraDolhadi</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="2" t="n">
-        <v>43565.08565972222</v>
-      </c>
-      <c r="B746" t="n">
-        <v>1.115797381935784e+18</v>
-      </c>
-      <c r="C746" t="inlineStr">
-        <is>
-          <t>Andai dapat kau dengar ombak hati ini🥀🥀
-.
-.
-📸 by @tirayusri94 @ Palawan Beach Sentosa Island https://t.co/EufrG5pbjZ</t>
-        </is>
-      </c>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>salabianca1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="2" t="n">
-        <v>43564.17744212963</v>
-      </c>
-      <c r="B747" t="n">
-        <v>1.115468257258082e+18</v>
-      </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>Haritu abang bawak bini abang tengok shark. Tapi tak jumpa great white shark hm #sukaikan #seafood #greatwhiteshark #kepalaikan #kepalabapakikan #kariikan… https://t.co/Bh8U8NuTAC</t>
-        </is>
-      </c>
-      <c r="D747" t="inlineStr">
-        <is>
-          <t>Imaaaaaannn</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>43563.65041666666</v>
+        <v>43565.08565972222</v>
       </c>
       <c r="B748" t="n">
-        <v>1.115277269252153e+18</v>
+        <v>1.115797381935784e+18</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Dahil minsan lang ang buhay diba? 💪😂 @ Palawan Beach Sentosa Island https://t.co/B2g6OEkznk</t>
+          <t>Andai dapat kau dengar ombak hati ini🥀🥀
+.
+.
+📸 by @tirayusri94 @ Palawan Beach Sentosa Island https://t.co/EufrG5pbjZ</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>JEANnnieyow</t>
+          <t>salabianca1407</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
+        <v>43564.17744212963</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1.115468257258082e+18</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Haritu abang bawak bini abang tengok shark. Tapi tak jumpa great white shark hm #sukaikan #seafood #greatwhiteshark #kepalaikan #kepalabapakikan #kariikan… https://t.co/Bh8U8NuTAC</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Imaaaaaannn</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>43563.65041666666</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1.115277269252153e+18</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Dahil minsan lang ang buhay diba? 💪😂 @ Palawan Beach Sentosa Island https://t.co/B2g6OEkznk</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>JEANnnieyow</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
         <v>43563.15991898148</v>
       </c>
-      <c r="B749" t="n">
+      <c r="B751" t="n">
         <v>1.115099519287304e+18</v>
       </c>
-      <c r="C749" t="inlineStr">
+      <c r="C751" t="inlineStr">
         <is>
           <t>Dulu saya pikir saya aneh karena masih SMA udah jualan &amp;amp; sempat berhenti karena dilarang,
 Tapi skrg bersyukur sempat jd aneh, karena jualanlah saya bisa ajak head team perusahaan jalan2 ke Singapore 😇 https://t.co/hJQujsrFs3</t>
         </is>
       </c>
-      <c r="D749" t="inlineStr">
+      <c r="D751" t="inlineStr">
         <is>
           <t>BisnisAnakMuda</t>
         </is>
       </c>
     </row>
-    <row r="750">
-      <c r="A750" s="2" t="n">
+    <row r="752">
+      <c r="A752" s="2" t="n">
         <v>43562.99104166667</v>
       </c>
-      <c r="B750" t="n">
+      <c r="B752" t="n">
         <v>1.115038318838854e+18</v>
       </c>
-      <c r="C750" t="inlineStr">
+      <c r="C752" t="inlineStr">
         <is>
           <t>Tuhan baik @ Sentosa Beach https://t.co/ozbgzGx5sV</t>
         </is>
       </c>
-      <c r="D750" t="inlineStr">
+      <c r="D752" t="inlineStr">
         <is>
           <t>NiaToday</t>
         </is>
       </c>
     </row>
-    <row r="751">
-      <c r="A751" s="2" t="n">
+    <row r="753">
+      <c r="A753" s="2" t="n">
         <v>43562.70304398148</v>
       </c>
-      <c r="B751" t="n">
+      <c r="B753" t="n">
         <v>1.114933952425292e+18</v>
       </c>
-      <c r="C751" t="inlineStr">
+      <c r="C753" t="inlineStr">
         <is>
           <t>*tidak bermaksud twit politik sama sekali* tapi tetep harus hormat toh ya sama presiden. *salim* 
 *tetep masih gak tau mau milih sapa huhu 😭😰* https://t.co/fLpP6FL0FU</t>
         </is>
       </c>
-      <c r="D751" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>litathereds</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="2" t="n">
-        <v>43562.69594907408</v>
-      </c>
-      <c r="B752" t="n">
-        <v>1.114931383728656e+18</v>
-      </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>Keliatan banget ini generasi pecinta Bollywood nya tahun berapaakk. 😂😂 https://t.co/1CDoWMdul8</t>
-        </is>
-      </c>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>litathereds</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="2" t="n">
-        <v>43562.648125</v>
-      </c>
-      <c r="B753" t="n">
-        <v>1.114914050830492e+18</v>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>Disebab kan cylon ngn battlestar kantoi nak bawa gopro semua jadi boring hahahaa tp cylon mmg best last time pergi tutup hari baru dapat try 2x repeat eleh… https://t.co/BeM3ZgM20D</t>
-        </is>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>khairigery</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>43562.32293981482</v>
+        <v>43562.69594907408</v>
       </c>
       <c r="B754" t="n">
-        <v>1.11479620974141e+18</v>
+        <v>1.114931383728656e+18</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Cerita semalam... Tema Lompat... eh.. Semua tempat nk dilompat eh... @ Universal Studios Singapore e-ticket https://t.co/bAny55duRf</t>
+          <t>Keliatan banget ini generasi pecinta Bollywood nya tahun berapaakk. 😂😂 https://t.co/1CDoWMdul8</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>ajibzbadar</t>
+          <t>litathereds</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>43562.14697916667</v>
+        <v>43562.648125</v>
       </c>
       <c r="B755" t="n">
-        <v>1.114732443297354e+18</v>
+        <v>1.114914050830492e+18</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/G3gVJNaL6R</t>
+          <t>Disebab kan cylon ngn battlestar kantoi nak bawa gopro semua jadi boring hahahaa tp cylon mmg best last time pergi tutup hari baru dapat try 2x repeat eleh… https://t.co/BeM3ZgM20D</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>espaith</t>
+          <t>khairigery</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>43562.05598379629</v>
+        <v>43562.32293981482</v>
       </c>
       <c r="B756" t="n">
-        <v>1.114699465477091e+18</v>
+        <v>1.11479620974141e+18</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>bapak bangsa, ir soekarno🙏 #instagrammer #instagrammers #insta #instaphoto #photogram #photography #instagramer #instagram #love #music #video #photo @ Madame Tussauds Singapore https://t.co/Efrxkka2MZ</t>
+          <t>Cerita semalam... Tema Lompat... eh.. Semua tempat nk dilompat eh... @ Universal Studios Singapore e-ticket https://t.co/bAny55duRf</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Toge_Siboro</t>
+          <t>ajibzbadar</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>43561.63934027778</v>
+        <v>43562.14697916667</v>
       </c>
       <c r="B757" t="n">
-        <v>1.11454847934115e+18</v>
+        <v>1.114732443297354e+18</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>Jalan2 kesini @ Village Hotel at Sentosa https://t.co/fzDBGt2SeH</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/G3gVJNaL6R</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>amrisistian</t>
+          <t>espaith</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>43561.63570601852</v>
+        <v>43562.05598379629</v>
       </c>
       <c r="B758" t="n">
-        <v>1.114547161033781e+18</v>
+        <v>1.114699465477091e+18</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>Memerangi ketakutan diketinggian dengan poto diketinggian @ Siloso Beach Resort Sentosa https://t.co/XdUJsMcBAs</t>
+          <t>bapak bangsa, ir soekarno🙏 #instagrammer #instagrammers #insta #instaphoto #photogram #photography #instagramer #instagram #love #music #video #photo @ Madame Tussauds Singapore https://t.co/Efrxkka2MZ</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>amrisistian</t>
+          <t>Toge_Siboro</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>43561.630625</v>
+        <v>43561.63934027778</v>
       </c>
       <c r="B759" t="n">
-        <v>1.114545321936216e+18</v>
+        <v>1.11454847934115e+18</v>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/WYhxrO5gsE</t>
+          <t>Jalan2 kesini @ Village Hotel at Sentosa https://t.co/fzDBGt2SeH</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -14905,14 +14905,14 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>43561.62902777778</v>
+        <v>43561.63570601852</v>
       </c>
       <c r="B760" t="n">
-        <v>1.114544741838803e+18</v>
+        <v>1.114547161033781e+18</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Sentosa Island, Singapore https://t.co/bVmMhOO0og</t>
+          <t>Memerangi ketakutan diketinggian dengan poto diketinggian @ Siloso Beach Resort Sentosa https://t.co/XdUJsMcBAs</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -14923,14 +14923,14 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>43561.62828703703</v>
+        <v>43561.630625</v>
       </c>
       <c r="B761" t="n">
-        <v>1.114544473415897e+18</v>
+        <v>1.114545321936216e+18</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/lolqKqH9W3</t>
+          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/WYhxrO5gsE</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -14941,140 +14941,140 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>43561.57939814815</v>
+        <v>43561.62902777778</v>
       </c>
       <c r="B762" t="n">
-        <v>1.11452675656686e+18</v>
+        <v>1.114544741838803e+18</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>buah hati , pujaan hati , sakit hati ( kiddings 😅 ) ♥️ @ Universal Studio, Sentosa Beach Singapore https://t.co/Q3QxM298C1</t>
+          <t>Baru saja mengirim foto @ Sentosa Island, Singapore https://t.co/bVmMhOO0og</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>nrabnrrm</t>
+          <t>amrisistian</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>43561.26466435185</v>
+        <v>43561.62828703703</v>
       </c>
       <c r="B763" t="n">
-        <v>1.114412700145033e+18</v>
+        <v>1.114544473415897e+18</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>Kenapa bersinar-sinar ni ye? https://t.co/oCK9GOb8gH</t>
+          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/lolqKqH9W3</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>azmeergmeer</t>
+          <t>amrisistian</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>43561.24305555555</v>
+        <v>43561.57939814815</v>
       </c>
       <c r="B764" t="n">
-        <v>1.1144048729071e+18</v>
+        <v>1.11452675656686e+18</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>Tq sekolah belanja g sini.. @ Universal Studios Singapore Fans https://t.co/d3kpRaUsFx</t>
+          <t>buah hati , pujaan hati , sakit hati ( kiddings 😅 ) ♥️ @ Universal Studio, Sentosa Beach Singapore https://t.co/Q3QxM298C1</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>ajibzbadar</t>
+          <t>nrabnrrm</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>43560.30344907408</v>
+        <v>43561.26466435185</v>
       </c>
       <c r="B765" t="n">
-        <v>1.114064368747143e+18</v>
+        <v>1.114412700145033e+18</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Madame Tussauds Singapore https://t.co/neduvK5rtM</t>
+          <t>Kenapa bersinar-sinar ni ye? https://t.co/oCK9GOb8gH</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>amrisistian</t>
+          <t>azmeergmeer</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>43559.29920138889</v>
+        <v>43561.24305555555</v>
       </c>
       <c r="B766" t="n">
-        <v>1.113700440409903e+18</v>
+        <v>1.1144048729071e+18</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>Tak tutupin yaa muka hinyai nyaa😂 https://t.co/ICvoTDuoUB</t>
+          <t>Tq sekolah belanja g sini.. @ Universal Studios Singapore Fans https://t.co/d3kpRaUsFx</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>rtnasa_</t>
+          <t>ajibzbadar</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>43559.20766203704</v>
+        <v>43560.30344907408</v>
       </c>
       <c r="B767" t="n">
-        <v>1.113667266896376e+18</v>
+        <v>1.114064368747143e+18</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>Tak seindah yang dibayangkan @ HarbourFront MRT Station https://t.co/yPoXyNiaxs</t>
+          <t>Baru saja mengirim foto @ Madame Tussauds Singapore https://t.co/neduvK5rtM</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>hadimau_lana</t>
+          <t>amrisistian</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>43559.175</v>
+        <v>43559.29920138889</v>
       </c>
       <c r="B768" t="n">
-        <v>1.113655432713662e+18</v>
+        <v>1.113700440409903e+18</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>Akhirnya bisa makan juga🤣🤣🤣 @ Ban Heng Pavilion Restaurant https://t.co/xSRcbOi8dE</t>
+          <t>Tak tutupin yaa muka hinyai nyaa😂 https://t.co/ICvoTDuoUB</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>hadimau_lana</t>
+          <t>rtnasa_</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>43559.13097222222</v>
+        <v>43559.20766203704</v>
       </c>
       <c r="B769" t="n">
-        <v>1.113639478126686e+18</v>
+        <v>1.113667266896376e+18</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>Enaknya makan apa ya.. @ Tapas Club https://t.co/beEmLFh4sp</t>
+          <t>Tak seindah yang dibayangkan @ HarbourFront MRT Station https://t.co/yPoXyNiaxs</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -15085,50 +15085,50 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>43558.68164351852</v>
+        <v>43559.175</v>
       </c>
       <c r="B770" t="n">
-        <v>1.113476644646392e+18</v>
+        <v>1.113655432713662e+18</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Makan siang di udara panas makanan bukan jawa... @ Ola Beach Club https://t.co/0tM1tWsmsi</t>
+          <t>Akhirnya bisa makan juga🤣🤣🤣 @ Ban Heng Pavilion Restaurant https://t.co/xSRcbOi8dE</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>amrisistian</t>
+          <t>hadimau_lana</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>43558.6765162037</v>
+        <v>43559.13097222222</v>
       </c>
       <c r="B771" t="n">
-        <v>1.113474788016755e+18</v>
+        <v>1.113639478126686e+18</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>Kene tak bisiki to.. neng ojo cerito sopo2.... mlah mesam mesem @ Madame Tussauds Singapore https://t.co/rHy8y6uT3s</t>
+          <t>Enaknya makan apa ya.. @ Tapas Club https://t.co/beEmLFh4sp</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>amrisistian</t>
+          <t>hadimau_lana</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>43558.67521990741</v>
+        <v>43558.68164351852</v>
       </c>
       <c r="B772" t="n">
-        <v>1.113474318640517e+18</v>
+        <v>1.113476644646392e+18</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>Baiklah kalo kamu minta poto barengg.. biar ketularan kegantenganku.. haha @ Madame Tussauds Singapore https://t.co/UrafHhCY0Z</t>
+          <t>Makan siang di udara panas makanan bukan jawa... @ Ola Beach Club https://t.co/0tM1tWsmsi</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -15139,14 +15139,14 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>43558.67365740741</v>
+        <v>43558.6765162037</v>
       </c>
       <c r="B773" t="n">
-        <v>1.113473751251923e+18</v>
+        <v>1.113474788016755e+18</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>Madonna tak andani too kok rambut asem wes pirang dina ra di keramass?? Kemproh kih .. 😂😂 @ Madame Tussauds Singapore https://t.co/TciqHGwBvD</t>
+          <t>Kene tak bisiki to.. neng ojo cerito sopo2.... mlah mesam mesem @ Madame Tussauds Singapore https://t.co/rHy8y6uT3s</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -15157,14 +15157,14 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>43558.67179398148</v>
+        <v>43558.67521990741</v>
       </c>
       <c r="B774" t="n">
-        <v>1.113473077189411e+18</v>
+        <v>1.113474318640517e+18</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Boy Bsnd pada masanya... @ Madame Tussauds Singapore https://t.co/4bDG7GvhLe</t>
+          <t>Baiklah kalo kamu minta poto barengg.. biar ketularan kegantenganku.. haha @ Madame Tussauds Singapore https://t.co/UrafHhCY0Z</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -15175,14 +15175,14 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>43558.6709837963</v>
+        <v>43558.67365740741</v>
       </c>
       <c r="B775" t="n">
-        <v>1.113472781151363e+18</v>
+        <v>1.113473751251923e+18</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>Emang loe aja yang bisa ngedance.. tuhh guwa juga bisaaa 🤣🤣🤣 @ Madame Tussauds Singapore https://t.co/KUQOg1xQHB</t>
+          <t>Madonna tak andani too kok rambut asem wes pirang dina ra di keramass?? Kemproh kih .. 😂😂 @ Madame Tussauds Singapore https://t.co/TciqHGwBvD</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -15193,14 +15193,14 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>43558.65622685185</v>
+        <v>43558.67179398148</v>
       </c>
       <c r="B776" t="n">
-        <v>1.113467435305263e+18</v>
+        <v>1.113473077189411e+18</v>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Kok ketawa to Mbak Mer.. ?? Seneng yaa buat rebutan berdua... abaikan tangannya yang gemes megang hehe @ Madame Tussauds Singapore https://t.co/mns8Z5Ja4X</t>
+          <t>Boy Bsnd pada masanya... @ Madame Tussauds Singapore https://t.co/4bDG7GvhLe</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -15211,14 +15211,14 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>43558.65480324074</v>
+        <v>43558.6709837963</v>
       </c>
       <c r="B777" t="n">
-        <v>1.113466918160228e+18</v>
+        <v>1.113472781151363e+18</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Loh kok nendangna beneran?.. Ouww sakit loh Bruceee @ Madame Tussauds Singapore https://t.co/mxq0NIKC86</t>
+          <t>Emang loe aja yang bisa ngedance.. tuhh guwa juga bisaaa 🤣🤣🤣 @ Madame Tussauds Singapore https://t.co/KUQOg1xQHB</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -15229,14 +15229,14 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>43558.65351851852</v>
+        <v>43558.65622685185</v>
       </c>
       <c r="B778" t="n">
-        <v>1.113466455180272e+18</v>
+        <v>1.113467435305263e+18</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>Gak usah grogi photo mbek aku... @ Madame Tussauds Singapore https://t.co/kvQ6Z642mx</t>
+          <t>Kok ketawa to Mbak Mer.. ?? Seneng yaa buat rebutan berdua... abaikan tangannya yang gemes megang hehe @ Madame Tussauds Singapore https://t.co/mns8Z5Ja4X</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -15247,14 +15247,14 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>43558.65201388889</v>
+        <v>43558.65480324074</v>
       </c>
       <c r="B779" t="n">
-        <v>1.113465906938687e+18</v>
+        <v>1.113466918160228e+18</v>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Pengin ketemu wong terkenal @ Madame Tussauds Singapore https://t.co/UPi8Ew0tFE</t>
+          <t>Loh kok nendangna beneran?.. Ouww sakit loh Bruceee @ Madame Tussauds Singapore https://t.co/mxq0NIKC86</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -15265,14 +15265,14 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>43558.65045138889</v>
+        <v>43558.65351851852</v>
       </c>
       <c r="B780" t="n">
-        <v>1.113465343463297e+18</v>
+        <v>1.113466455180272e+18</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Village Hotel at Sentosa https://t.co/kEfYV60oCE</t>
+          <t>Gak usah grogi photo mbek aku... @ Madame Tussauds Singapore https://t.co/kvQ6Z642mx</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -15283,158 +15283,194 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>43558.0759375</v>
+        <v>43558.65201388889</v>
       </c>
       <c r="B781" t="n">
-        <v>1.113257146727031e+18</v>
+        <v>1.113465906938687e+18</v>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>“Kau level beginner buat aku bosan” #uss #universalstudiosingapore #singapore #duotrip @ Universal Studios Singapore https://t.co/9e9uAOuDew</t>
+          <t>Pengin ketemu wong terkenal @ Madame Tussauds Singapore https://t.co/UPi8Ew0tFE</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>borneosupergirl</t>
+          <t>amrisistian</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>43556.15519675926</v>
+        <v>43558.65045138889</v>
       </c>
       <c r="B782" t="n">
-        <v>1.11256109204627e+18</v>
+        <v>1.113465343463297e+18</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>sepi cuuyyyy (@ Palawan Beach in Sentosa Island, Singapore) https://t.co/l1lJchEq6m https://t.co/3IFlZS0UuH</t>
+          <t>Baru saja mengirim foto @ Village Hotel at Sentosa https://t.co/kEfYV60oCE</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>VirzaGev</t>
+          <t>amrisistian</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>43555.49791666667</v>
+        <v>43558.0759375</v>
       </c>
       <c r="B783" t="n">
-        <v>1.112322902597296e+18</v>
+        <v>1.113257146727031e+18</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>#streetboys #original #singapore #dorbiedexplorer #dorbiegram #streetboys2 #streetboyssg @ Marina at Keppel Bay https://t.co/72uxUh9FaZ</t>
+          <t>“Kau level beginner buat aku bosan” #uss #universalstudiosingapore #singapore #duotrip @ Universal Studios Singapore https://t.co/9e9uAOuDew</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>dorbie0710</t>
+          <t>borneosupergirl</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>43555.37534722222</v>
+        <v>43556.15519675926</v>
       </c>
       <c r="B784" t="n">
-        <v>1.112278483638673e+18</v>
+        <v>1.11256109204627e+18</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Bobaaaa (@ LiHO in Singapore w/ @ejtams) https://t.co/CLYboCOv7Z</t>
+          <t>sepi cuuyyyy (@ Palawan Beach in Sentosa Island, Singapore) https://t.co/l1lJchEq6m https://t.co/3IFlZS0UuH</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>ShinjuNYX</t>
+          <t>VirzaGev</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>43555.30270833334</v>
+        <v>43555.49791666667</v>
       </c>
       <c r="B785" t="n">
-        <v>1.112252160358711e+18</v>
+        <v>1.112322902597296e+18</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Ditengah ketidak adanya kemajuan TA saya pingin nge post foto ini
-.
-Kadang mimpi itu harus dipasang tinggi-tinggi, saya tak menyangka niatan saya ke luar negri gratis pas TPB baru… https://t.co/RQxE1dg0tZ</t>
+          <t>#streetboys #original #singapore #dorbiedexplorer #dorbiegram #streetboys2 #streetboyssg @ Marina at Keppel Bay https://t.co/72uxUh9FaZ</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>badruddin_m</t>
+          <t>dorbie0710</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>43554.53725694444</v>
+        <v>43555.37534722222</v>
       </c>
       <c r="B786" t="n">
-        <v>1.111974771053351e+18</v>
+        <v>1.112278483638673e+18</v>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Keindahan ciptaan Allah 🥰🥰🥰 #shortvacay #siblinglove #travelpartner #backpackerlife #metime #syukuralhamdulillah #syukurselalu .. 😘😘😘 @ Universal Studios… https://t.co/STC5sGTZ3Z</t>
+          <t>Bobaaaa (@ LiHO in Singapore w/ @ejtams) https://t.co/CLYboCOv7Z</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>azuradanish</t>
+          <t>ShinjuNYX</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>43554.39700231481</v>
+        <v>43555.30270833334</v>
       </c>
       <c r="B787" t="n">
-        <v>1.111923945094013e+18</v>
+        <v>1.112252160358711e+18</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Jika biasanya travelling dan difotoin atau hanya selfie dan diburu waktu menuju destinasi demi foto terbauj. Semoga tahun 2019 ini, resolusinya menjadi kenyataan agar dokumentasi tidak… https://t.co/whuzifsK69</t>
+          <t>Ditengah ketidak adanya kemajuan TA saya pingin nge post foto ini
+.
+Kadang mimpi itu harus dipasang tinggi-tinggi, saya tak menyangka niatan saya ke luar negri gratis pas TPB baru… https://t.co/RQxE1dg0tZ</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>FDRamadhan</t>
+          <t>badruddin_m</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>43554.30339120371</v>
+        <v>43554.53725694444</v>
       </c>
       <c r="B788" t="n">
-        <v>1.111890019072e+18</v>
+        <v>1.111974771053351e+18</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Roller coaster naik 2x !! Fuhh kecut perut nak naik tapi Akif dengan Aliah nak naik terpaksa branikan diri.  Kaberline la buat muka brani. 😅😅 Nak terkencing pun hadooo.. Akif paling… https://t.co/04cwIcw3HB</t>
+          <t>Keindahan ciptaan Allah 🥰🥰🥰 #shortvacay #siblinglove #travelpartner #backpackerlife #metime #syukuralhamdulillah #syukurselalu .. 😘😘😘 @ Universal Studios… https://t.co/STC5sGTZ3Z</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>redscarz</t>
+          <t>azuradanish</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
+        <v>43554.39700231481</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1.111923945094013e+18</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Jika biasanya travelling dan difotoin atau hanya selfie dan diburu waktu menuju destinasi demi foto terbauj. Semoga tahun 2019 ini, resolusinya menjadi kenyataan agar dokumentasi tidak… https://t.co/whuzifsK69</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>FDRamadhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>43554.30339120371</v>
+      </c>
+      <c r="B790" t="n">
+        <v>1.111890019072e+18</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Roller coaster naik 2x !! Fuhh kecut perut nak naik tapi Akif dengan Aliah nak naik terpaksa branikan diri.  Kaberline la buat muka brani. 😅😅 Nak terkencing pun hadooo.. Akif paling… https://t.co/04cwIcw3HB</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>redscarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
         <v>43554.22814814815</v>
       </c>
-      <c r="B789" t="n">
+      <c r="B791" t="n">
         <v>1.11186275249297e+18</v>
       </c>
-      <c r="C789" t="inlineStr">
+      <c r="C791" t="inlineStr">
         <is>
           <t>Rambang mata nak main mana satu 😁😁.. Semua best-best, ni baru separuh tunjuk ni.. ada lagiii.. 
 dausredscarzchannel
@@ -15443,76 +15479,76 @@
 #dausredscarztosingapore… https://t.co/Zh4YufSRVn</t>
         </is>
       </c>
-      <c r="D789" t="inlineStr">
+      <c r="D791" t="inlineStr">
         <is>
           <t>redscarz</t>
         </is>
       </c>
     </row>
-    <row r="790">
-      <c r="A790" s="2" t="n">
+    <row r="792">
+      <c r="A792" s="2" t="n">
         <v>43553.04408564815</v>
       </c>
-      <c r="B790" t="n">
+      <c r="B792" t="n">
         <v>1.111433665211298e+18</v>
       </c>
-      <c r="C790" t="inlineStr">
+      <c r="C792" t="inlineStr">
         <is>
           <t>Sporangia or blight?
 #ferns #fern #green #leaves #garden #urban #nature #natural #design #pattern #perspective #depthoffield #strangerthings #shotoniphone #poolside #greenery #urbangarden… https://t.co/163vllE6aJ</t>
         </is>
       </c>
-      <c r="D790" t="inlineStr">
+      <c r="D792" t="inlineStr">
         <is>
           <t>kedardm</t>
         </is>
       </c>
     </row>
-    <row r="791">
-      <c r="A791" s="2" t="n">
+    <row r="793">
+      <c r="A793" s="2" t="n">
         <v>43553.04381944444</v>
       </c>
-      <c r="B791" t="n">
+      <c r="B793" t="n">
         <v>1.111433566913589e+18</v>
       </c>
-      <c r="C791" t="inlineStr">
+      <c r="C793" t="inlineStr">
         <is>
           <t>Sporangia or blight?
 #ferns #fern #green #leaves #garden #urban #nature #natural #design #pattern #perspective #depthoffield #strangerthings #shotoniphone #poolside #greenery… https://t.co/3gPJRd7M8B</t>
         </is>
       </c>
-      <c r="D791" t="inlineStr">
+      <c r="D793" t="inlineStr">
         <is>
           <t>kedardm</t>
         </is>
       </c>
     </row>
-    <row r="792">
-      <c r="A792" s="2" t="n">
+    <row r="794">
+      <c r="A794" s="2" t="n">
         <v>43552.61395833334</v>
       </c>
-      <c r="B792" t="n">
+      <c r="B794" t="n">
         <v>1.111277792161866e+18</v>
       </c>
-      <c r="C792" t="inlineStr">
+      <c r="C794" t="inlineStr">
         <is>
           <t>Sayang banget ini ngga masuk di Breadtalk Batam,, padahal endes banget kayaknya.. 🤤 @ Ferry Departure @ HarbourFront Centre https://t.co/RGrJ2dwxF7</t>
         </is>
       </c>
-      <c r="D792" t="inlineStr">
+      <c r="D794" t="inlineStr">
         <is>
           <t>adriz__</t>
         </is>
       </c>
     </row>
-    <row r="793">
-      <c r="A793" s="2" t="n">
+    <row r="795">
+      <c r="A795" s="2" t="n">
         <v>43551.74681712963</v>
       </c>
-      <c r="B793" t="n">
+      <c r="B795" t="n">
         <v>1.110963550128955e+18</v>
       </c>
-      <c r="C793" t="inlineStr">
+      <c r="C795" t="inlineStr">
         <is>
           <t>Kak bercadar ke LN ga takut ga ribet?
 Kalo takut sih enggak ya, cuma nanti pas di bagian imigrasi memang diwajibkan lepas cadar
@@ -15520,203 +15556,203 @@
 Dan alhamdulillah aku dapet petugasnya yang cewek Karena… https://t.co/ybS52A8qEM</t>
         </is>
       </c>
-      <c r="D793" t="inlineStr">
+      <c r="D795" t="inlineStr">
         <is>
           <t>RuriTandiansyah</t>
         </is>
       </c>
     </row>
-    <row r="794">
-      <c r="A794" s="2" t="n">
+    <row r="796">
+      <c r="A796" s="2" t="n">
         <v>43551.46497685185</v>
       </c>
-      <c r="B794" t="n">
+      <c r="B796" t="n">
         <v>1.110861415798063e+18</v>
       </c>
-      <c r="C794" t="inlineStr">
+      <c r="C796" t="inlineStr">
         <is>
           <t>terbayar sudah ga makan dari siang https://t.co/lpFjVaFogp</t>
         </is>
       </c>
-      <c r="D794" t="inlineStr">
+      <c r="D796" t="inlineStr">
         <is>
           <t>mayroxa</t>
         </is>
       </c>
     </row>
-    <row r="795">
-      <c r="A795" s="2" t="n">
+    <row r="797">
+      <c r="A797" s="2" t="n">
         <v>43550.23918981481</v>
       </c>
-      <c r="B795" t="n">
+      <c r="B797" t="n">
         <v>1.110417203050873e+18</v>
       </c>
-      <c r="C795" t="inlineStr">
+      <c r="C797" t="inlineStr">
         <is>
           <t>Kalo Gondrongnya kaya gini,  mamah mu Setuju gak ?? ..  😂
 #Gondrongers #gondrongindonesia #gondrongsementara #lfl @ Universal Studios Singapore https://t.co/SxyfV9GvQc</t>
         </is>
       </c>
-      <c r="D795" t="inlineStr">
+      <c r="D797" t="inlineStr">
         <is>
           <t>heri_thenz19</t>
         </is>
       </c>
     </row>
-    <row r="796">
-      <c r="A796" s="2" t="n">
+    <row r="798">
+      <c r="A798" s="2" t="n">
         <v>43549.49349537037</v>
       </c>
-      <c r="B796" t="n">
+      <c r="B798" t="n">
         <v>1.11014697166123e+18</v>
       </c>
-      <c r="C796" t="inlineStr">
+      <c r="C798" t="inlineStr">
         <is>
           <t>Lek , baru 23 🎂🎉 @ ONE15 Marina https://t.co/uSQIUTPBeF</t>
         </is>
       </c>
-      <c r="D796" t="inlineStr">
+      <c r="D798" t="inlineStr">
         <is>
           <t>nrabnrrm</t>
         </is>
       </c>
     </row>
-    <row r="797">
-      <c r="A797" s="2" t="n">
+    <row r="799">
+      <c r="A799" s="2" t="n">
         <v>43549.22732638889</v>
       </c>
-      <c r="B797" t="n">
+      <c r="B799" t="n">
         <v>1.110050516224991e+18</v>
       </c>
-      <c r="C797" t="inlineStr">
+      <c r="C799" t="inlineStr">
         <is>
           <t>Alhamdulilllah. Thank you suami layan karenah 🤰🏻. Saja jalan jalan masuk singapore. 😝
 I Love you @syahirah0204 @ Universal Studios Singapore Fans https://t.co/4KPXzbRCvR</t>
         </is>
       </c>
-      <c r="D797" t="inlineStr">
+      <c r="D799" t="inlineStr">
         <is>
           <t>nsyhrhmhdnr</t>
         </is>
       </c>
     </row>
-    <row r="798">
-      <c r="A798" s="2" t="n">
+    <row r="800">
+      <c r="A800" s="2" t="n">
         <v>43549.19275462963</v>
       </c>
-      <c r="B798" t="n">
+      <c r="B800" t="n">
         <v>1.11003798882064e+18</v>
       </c>
-      <c r="C798" t="inlineStr">
+      <c r="C800" t="inlineStr">
         <is>
           <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/OjzKbUQOU4</t>
         </is>
       </c>
-      <c r="D798" t="inlineStr">
+      <c r="D800" t="inlineStr">
         <is>
           <t>pwnpeach</t>
         </is>
       </c>
     </row>
-    <row r="799">
-      <c r="A799" s="2" t="n">
+    <row r="801">
+      <c r="A801" s="2" t="n">
         <v>43549.15508101852</v>
       </c>
-      <c r="B799" t="n">
+      <c r="B801" t="n">
         <v>1.110024334175662e+18</v>
       </c>
-      <c r="C799" t="inlineStr">
+      <c r="C801" t="inlineStr">
         <is>
           <t>Wajah cemas hati waswas berusaha tampak gemas😆 wkwkk
 Gimana enggak, naik kereta gantung menuju puncak pas cuaca lagi hujan ringan dan berkabut, ngeri-ngeri sedaaap euy. Coba alihkan dengan… https://t.co/1If4TJxRAy</t>
         </is>
       </c>
-      <c r="D799" t="inlineStr">
+      <c r="D801" t="inlineStr">
         <is>
           <t>andinmahamel</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="2" t="n">
-        <v>43548.49376157407</v>
-      </c>
-      <c r="B800" t="n">
-        <v>1.109784679484396e+18</v>
-      </c>
-      <c r="C800" t="inlineStr">
-        <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/2BIHKyYLY7</t>
-        </is>
-      </c>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>pwnpeach</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="2" t="n">
-        <v>43548.48277777778</v>
-      </c>
-      <c r="B801" t="n">
-        <v>1.1097807028898e+18</v>
-      </c>
-      <c r="C801" t="inlineStr">
-        <is>
-          <t>ang laki naman ng sala nito! umabot hanggang SG! 🤔🤣 @ Palawan Beach Sentosa Island https://t.co/dC0hFR73Zl</t>
-        </is>
-      </c>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>chababoy14</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>43548.18166666666</v>
+        <v>43548.49376157407</v>
       </c>
       <c r="B802" t="n">
-        <v>1.109671583973589e+18</v>
+        <v>1.109784679484396e+18</v>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Dibuang sayang... @ Voyager of the Seas https://t.co/GxyQlPaD6i</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/2BIHKyYLY7</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Wowo_wi</t>
+          <t>pwnpeach</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>43548.09949074074</v>
+        <v>43548.48277777778</v>
       </c>
       <c r="B803" t="n">
-        <v>1.109641802309464e+18</v>
+        <v>1.1097807028898e+18</v>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Bello! 👋🏻😊 https://t.co/oFsC6dKVQO</t>
+          <t>ang laki naman ng sala nito! umabot hanggang SG! 🤔🤣 @ Palawan Beach Sentosa Island https://t.co/dC0hFR73Zl</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>CeeRosario15</t>
+          <t>chababoy14</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
+        <v>43548.18166666666</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1.109671583973589e+18</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Dibuang sayang... @ Voyager of the Seas https://t.co/GxyQlPaD6i</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Wowo_wi</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>43548.09949074074</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1.109641802309464e+18</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Bello! 👋🏻😊 https://t.co/oFsC6dKVQO</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>CeeRosario15</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
         <v>43547.54775462963</v>
       </c>
-      <c r="B804" t="n">
+      <c r="B806" t="n">
         <v>1.109441858315399e+18</v>
       </c>
-      <c r="C804" t="inlineStr">
+      <c r="C806" t="inlineStr">
         <is>
           <t>[230319]
 boom boom pow
@@ -15724,149 +15760,113 @@
 kelayapan dari pagi sampe tengah malam 🌚 @ Universal Studios Singapore Fans https://t.co/EAIg7F6HUo</t>
         </is>
       </c>
-      <c r="D804" t="inlineStr">
+      <c r="D806" t="inlineStr">
         <is>
           <t>oppabuluq</t>
         </is>
       </c>
     </row>
-    <row r="805">
-      <c r="A805" s="2" t="n">
+    <row r="807">
+      <c r="A807" s="2" t="n">
         <v>43547.53439814815</v>
       </c>
-      <c r="B805" t="n">
+      <c r="B807" t="n">
         <v>1.109437021225976e+18</v>
       </c>
-      <c r="C805" t="inlineStr">
+      <c r="C807" t="inlineStr">
         <is>
           <t>Cepet pulang dong, aku udah masak nih😌 @ Madame Tussauds Singapore https://t.co/FdNMvj4lAf</t>
         </is>
       </c>
-      <c r="D805" t="inlineStr">
+      <c r="D807" t="inlineStr">
         <is>
           <t>mimir_miranti</t>
         </is>
       </c>
     </row>
-    <row r="806">
-      <c r="A806" s="2" t="n">
+    <row r="808">
+      <c r="A808" s="2" t="n">
         <v>43547.44133101852</v>
       </c>
-      <c r="B806" t="n">
+      <c r="B808" t="n">
         <v>1.109403292663198e+18</v>
       </c>
-      <c r="C806" t="inlineStr">
+      <c r="C808" t="inlineStr">
         <is>
           <t>1 dollar 10 ribu
 2 dollar 20 ribu @ Universal Studios Singapore https://t.co/q47XZrXgKY</t>
         </is>
       </c>
-      <c r="D806" t="inlineStr">
+      <c r="D808" t="inlineStr">
         <is>
           <t>nafilahalya</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="2" t="n">
-        <v>43547.30275462963</v>
-      </c>
-      <c r="B807" t="n">
-        <v>1.109353076245348e+18</v>
-      </c>
-      <c r="C807" t="inlineStr">
-        <is>
-          <t>Since 2009, dari dulu emang sama2 suka jalan karena ngga betahan dikosan, suka makan walaupun ngga punya duit yang penting bahagiain diri sendiri aja...nah… https://t.co/KA3RskXQ0H</t>
-        </is>
-      </c>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>novadwiafniiiii</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="2" t="n">
-        <v>43547.29261574074</v>
-      </c>
-      <c r="B808" t="n">
-        <v>1.109349398666838e+18</v>
-      </c>
-      <c r="C808" t="inlineStr">
-        <is>
-          <t>Halloooo Singapore!! https://t.co/tLRm8seHLF</t>
-        </is>
-      </c>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>azahkumiko</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>43547.10149305555</v>
+        <v>43547.30275462963</v>
       </c>
       <c r="B809" t="n">
-        <v>1.109280139425112e+18</v>
+        <v>1.109353076245348e+18</v>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>Beberapa orang memilih pergi, karena lelah disakiti. Beberapa lagi, tahu diri.</t>
+          <t>Since 2009, dari dulu emang sama2 suka jalan karena ngga betahan dikosan, suka makan walaupun ngga punya duit yang penting bahagiain diri sendiri aja...nah… https://t.co/KA3RskXQ0H</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>prajunasuhendra</t>
+          <t>novadwiafniiiii</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>43547.08986111111</v>
+        <v>43547.29261574074</v>
       </c>
       <c r="B810" t="n">
-        <v>1.10927592401961e+18</v>
+        <v>1.109349398666838e+18</v>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Sudahlah, yang sudah sudah !</t>
+          <t>Halloooo Singapore!! https://t.co/tLRm8seHLF</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>prajunasuhendra</t>
+          <t>azahkumiko</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>43546.46113425926</v>
+        <v>43547.10149305555</v>
       </c>
       <c r="B811" t="n">
-        <v>1.109048081809584e+18</v>
+        <v>1.109280139425112e+18</v>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>#FriedHokkienPrawnMee (@ Cheng Ji Chao Xia Mian Hao Jian in Singapore) https://t.co/4EMTE0hMfH https://t.co/rXJHXtb1Yt</t>
+          <t>Beberapa orang memilih pergi, karena lelah disakiti. Beberapa lagi, tahu diri.</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>arthurfoongwk</t>
+          <t>prajunasuhendra</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>43545.64814814815</v>
+        <v>43547.08986111111</v>
       </c>
       <c r="B812" t="n">
-        <v>1.108753466929762e+18</v>
+        <v>1.10927592401961e+18</v>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>Kau  bilang  bahwa kau benci dengan jarak, namun nyatanya kamu seperti berteman dengan nya &amp;amp; sekarang dengan jarak kamu pergi melupakan hubungan ini semuanya.</t>
+          <t>Sudahlah, yang sudah sudah !</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -15877,254 +15877,290 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>43545.51339120371</v>
+        <v>43546.46113425926</v>
       </c>
       <c r="B813" t="n">
-        <v>1.108704629615981e+18</v>
+        <v>1.109048081809584e+18</v>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>I'm at Ichiban Boshi in Singapore https://t.co/a26HbPJ9td</t>
+          <t>#FriedHokkienPrawnMee (@ Cheng Ji Chao Xia Mian Hao Jian in Singapore) https://t.co/4EMTE0hMfH https://t.co/rXJHXtb1Yt</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>lexelledextjluv</t>
+          <t>arthurfoongwk</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>43545.50626157408</v>
+        <v>43545.64814814815</v>
       </c>
       <c r="B814" t="n">
-        <v>1.108702045744349e+18</v>
+        <v>1.108753466929762e+18</v>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/QQvIIRYj89</t>
+          <t>Kau  bilang  bahwa kau benci dengan jarak, namun nyatanya kamu seperti berteman dengan nya &amp;amp; sekarang dengan jarak kamu pergi melupakan hubungan ini semuanya.</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>jhandaya</t>
+          <t>prajunasuhendra</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>43545.3785300926</v>
+        <v>43545.51339120371</v>
       </c>
       <c r="B815" t="n">
-        <v>1.108655757644497e+18</v>
+        <v>1.108704629615981e+18</v>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>#sgfoodies Jiro Special Lunch Set @ Sushi JIRO  鮨 次郎 https://t.co/wuWS7nazUH</t>
+          <t>I'm at Ichiban Boshi in Singapore https://t.co/a26HbPJ9td</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>buayasg</t>
+          <t>lexelledextjluv</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>43545.2169212963</v>
+        <v>43545.50626157408</v>
       </c>
       <c r="B816" t="n">
-        <v>1.108597192997159e+18</v>
+        <v>1.108702045744349e+18</v>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Sesuatu ya (at @VivoCitySg in Singapore) https://t.co/uHfwyMIzBS</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/QQvIIRYj89</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>ameliafg_</t>
+          <t>jhandaya</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>43544.55413194445</v>
+        <v>43545.3785300926</v>
       </c>
       <c r="B817" t="n">
-        <v>1.108357005570384e+18</v>
+        <v>1.108655757644497e+18</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Rindu nak pi oversea 😂😂😂 @ Universal Studio, Sentosa Beach Singapore https://t.co/XbkDprOJWQ</t>
+          <t>#sgfoodies Jiro Special Lunch Set @ Sushi JIRO  鮨 次郎 https://t.co/wuWS7nazUH</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>NurulHudaa__</t>
+          <t>buayasg</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
+        <v>43545.2169212963</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1.108597192997159e+18</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Sesuatu ya (at @VivoCitySg in Singapore) https://t.co/uHfwyMIzBS</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>ameliafg_</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>43544.55413194445</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1.108357005570384e+18</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Rindu nak pi oversea 😂😂😂 @ Universal Studio, Sentosa Beach Singapore https://t.co/XbkDprOJWQ</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>NurulHudaa__</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
         <v>43543.59940972222</v>
       </c>
-      <c r="B818" t="n">
+      <c r="B820" t="n">
         <v>1.108011026698531e+18</v>
       </c>
-      <c r="C818" t="inlineStr">
+      <c r="C820" t="inlineStr">
         <is>
           <t>Suka uring - uringan gak jelas ?
 Tenang, kamu hanya sedang rindu.</t>
         </is>
       </c>
-      <c r="D818" t="inlineStr">
+      <c r="D820" t="inlineStr">
         <is>
           <t>prajunasuhendra</t>
         </is>
       </c>
     </row>
-    <row r="819">
-      <c r="A819" s="2" t="n">
+    <row r="821">
+      <c r="A821" s="2" t="n">
         <v>43542.59185185185</v>
       </c>
-      <c r="B819" t="n">
+      <c r="B821" t="n">
         <v>1.107645900703392e+18</v>
       </c>
-      <c r="C819" t="inlineStr">
+      <c r="C821" t="inlineStr">
         <is>
           <t>Masih KLayaban malam hari...
 #Azmin #Nanay #singaporetrip #sentosaisland #wingoftimessingapore #wingoftimes @ Wings of Time Show https://t.co/Q5dbjC8Mxi</t>
         </is>
       </c>
-      <c r="D819" t="inlineStr">
+      <c r="D821" t="inlineStr">
         <is>
           <t>andyazmin</t>
         </is>
       </c>
     </row>
-    <row r="820">
-      <c r="A820" s="2" t="n">
+    <row r="822">
+      <c r="A822" s="2" t="n">
         <v>43542.38424768519</v>
       </c>
-      <c r="B820" t="n">
+      <c r="B822" t="n">
         <v>1.107570669334745e+18</v>
       </c>
-      <c r="C820" t="inlineStr">
+      <c r="C822" t="inlineStr">
         <is>
           <t>Jadi model dadakan...
 #Azmin #Jakarta #singaporetrip #fortsiloso #fortsilososkywalk #sentosaisland @ Fort Siloso Skywalk, Sentosa https://t.co/nxpuDnvyMg</t>
         </is>
       </c>
-      <c r="D820" t="inlineStr">
+      <c r="D822" t="inlineStr">
         <is>
           <t>andyazmin</t>
         </is>
       </c>
     </row>
-    <row r="821">
-      <c r="A821" s="2" t="n">
+    <row r="823">
+      <c r="A823" s="2" t="n">
         <v>43542.31405092592</v>
       </c>
-      <c r="B821" t="n">
+      <c r="B823" t="n">
         <v>1.107545230893556e+18</v>
       </c>
-      <c r="C821" t="inlineStr">
+      <c r="C823" t="inlineStr">
         <is>
           <t>Dari Merlion Mouth :D
 #Azmin #Nanay #singaporetrip #sentosaisland #merlionsingapore @ Sentosa Island, Singapore https://t.co/HGB3RKa7qK</t>
         </is>
       </c>
-      <c r="D821" t="inlineStr">
+      <c r="D823" t="inlineStr">
         <is>
           <t>andyazmin</t>
         </is>
       </c>
     </row>
-    <row r="822">
-      <c r="A822" s="2" t="n">
+    <row r="824">
+      <c r="A824" s="2" t="n">
         <v>43542.28552083333</v>
       </c>
-      <c r="B822" t="n">
+      <c r="B824" t="n">
         <v>1.107534890256556e+18</v>
       </c>
-      <c r="C822" t="inlineStr">
+      <c r="C824" t="inlineStr">
         <is>
           <t>Merlion Sentosa
 #Azmin #Nanay #singaporetrip #sentosaisland #merlionsingapore @ Sentosa Merlion Plaza Artisans' Bazaar https://t.co/WzBapjN2NL</t>
         </is>
       </c>
-      <c r="D822" t="inlineStr">
+      <c r="D824" t="inlineStr">
         <is>
           <t>andyazmin</t>
         </is>
       </c>
     </row>
-    <row r="823">
-      <c r="A823" s="2" t="n">
+    <row r="825">
+      <c r="A825" s="2" t="n">
         <v>43542.25478009259</v>
       </c>
-      <c r="B823" t="n">
+      <c r="B825" t="n">
         <v>1.107523750491316e+18</v>
       </c>
-      <c r="C823" t="inlineStr">
+      <c r="C825" t="inlineStr">
         <is>
           <t>Belajar moto..
 #Azmin #Nanay #singaporetrip #sentosaisland @ Imbiah Sentosa https://t.co/0O8yh32OH9</t>
         </is>
       </c>
-      <c r="D823" t="inlineStr">
+      <c r="D825" t="inlineStr">
         <is>
           <t>andyazmin</t>
         </is>
       </c>
     </row>
-    <row r="824">
-      <c r="A824" s="2" t="n">
+    <row r="826">
+      <c r="A826" s="2" t="n">
         <v>43542.24965277778</v>
       </c>
-      <c r="B824" t="n">
+      <c r="B826" t="n">
         <v>1.107521893660312e+18</v>
       </c>
-      <c r="C824" t="inlineStr">
+      <c r="C826" t="inlineStr">
         <is>
           <t>Antri.. Menunggu..
 #Azmin #Nanay #singaporetrip
 #sentosaisland #4dadventureland @ Sentosa 4D AdventureLand https://t.co/MhVMxNh5Up</t>
         </is>
       </c>
-      <c r="D824" t="inlineStr">
+      <c r="D826" t="inlineStr">
         <is>
           <t>andyazmin</t>
         </is>
       </c>
     </row>
-    <row r="825">
-      <c r="A825" s="2" t="n">
+    <row r="827">
+      <c r="A827" s="2" t="n">
         <v>43542.20193287037</v>
       </c>
-      <c r="B825" t="n">
+      <c r="B827" t="n">
         <v>1.107504600754606e+18</v>
       </c>
-      <c r="C825" t="inlineStr">
+      <c r="C827" t="inlineStr">
         <is>
           <t>Thank you for all the birthday wishes. Semoga ucapan dan doa semua akan tercapai. Terima kasih. #appriciationpost #thankyou @ Universal Studio, Sentosa Beach Singapore https://t.co/NnQWGGIaVP</t>
         </is>
       </c>
-      <c r="D825" t="inlineStr">
+      <c r="D827" t="inlineStr">
         <is>
           <t>amiryusran</t>
         </is>
       </c>
     </row>
-    <row r="826">
-      <c r="A826" s="2" t="n">
+    <row r="828">
+      <c r="A828" s="2" t="n">
         <v>43542.17417824074</v>
       </c>
-      <c r="B826" t="n">
+      <c r="B828" t="n">
         <v>1.10749454007058e+18</v>
       </c>
-      <c r="C826" t="inlineStr">
+      <c r="C828" t="inlineStr">
         <is>
           <t>Jauh jauh makan laksa..
 Katanya disini yg legenda..
@@ -16132,56 +16168,56 @@
 Rasanya? Ok la... @ Toast Box 土司工坊 https://t.co/BpgkUNVRFW</t>
         </is>
       </c>
-      <c r="D826" t="inlineStr">
+      <c r="D828" t="inlineStr">
         <is>
           <t>andyazmin</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="2" t="n">
-        <v>43541.74578703703</v>
-      </c>
-      <c r="B827" t="n">
-        <v>1.107339298653663e+18</v>
-      </c>
-      <c r="C827" t="inlineStr">
-        <is>
-          <t>Kasi satu hari https://t.co/y9bhH5Oiqi</t>
-        </is>
-      </c>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>ika_zilaika</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="2" t="n">
-        <v>43541.50047453704</v>
-      </c>
-      <c r="B828" t="n">
-        <v>1.107250400225317e+18</v>
-      </c>
-      <c r="C828" t="inlineStr">
-        <is>
-          <t>I'm at Shitamachi Tendon Akimitsu in Telok Blangah, Singapore https://t.co/xHYVKNqIW4</t>
-        </is>
-      </c>
-      <c r="D828" t="inlineStr">
-        <is>
-          <t>photo_dco1212</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
+        <v>43541.74578703703</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1.107339298653663e+18</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Kasi satu hari https://t.co/y9bhH5Oiqi</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>ika_zilaika</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>43541.50047453704</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1.107250400225317e+18</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>I'm at Shitamachi Tendon Akimitsu in Telok Blangah, Singapore https://t.co/xHYVKNqIW4</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>photo_dco1212</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
         <v>43541.21434027778</v>
       </c>
-      <c r="B829" t="n">
+      <c r="B831" t="n">
         <v>1.107146707106701e+18</v>
       </c>
-      <c r="C829" t="inlineStr">
+      <c r="C831" t="inlineStr">
         <is>
           <t>Indahnya dalam hati,
 Bila dalam jacuzzi, 
@@ -16192,58 +16228,22 @@
 Call ana… https://t.co/ag0ZO6VdkU</t>
         </is>
       </c>
-      <c r="D829" t="inlineStr">
+      <c r="D831" t="inlineStr">
         <is>
           <t>khai3uddin</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="2" t="n">
-        <v>43540.67277777778</v>
-      </c>
-      <c r="B830" t="n">
-        <v>1.10695045073204e+18</v>
-      </c>
-      <c r="C830" t="inlineStr">
-        <is>
-          <t>Mari Pulang.. Setelah menghabiskan uang hanya 8 dollar singapura (85rb rupiah) saatnya https://t.co/ynRUndJPFC.pelukan ibu pertiwi .. INDONESIA!!! @ Singapore Cruise Centre https://t.co/bw9evwKd3B</t>
-        </is>
-      </c>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>varhan_az</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="2" t="n">
-        <v>43540.51121527778</v>
-      </c>
-      <c r="B831" t="n">
-        <v>1.10689190511847e+18</v>
-      </c>
-      <c r="C831" t="inlineStr">
-        <is>
-          <t>Casino disini memfasilitasi manula dan pensiunan bus gratis dan buffee free sepuasnya..tujuanya untuk menghabiskan uang mereka disini.. Faktanya.. Orang2 tua ga… https://t.co/V9Enw04H1E</t>
-        </is>
-      </c>
-      <c r="D831" t="inlineStr">
-        <is>
-          <t>varhan_az</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>43540.32575231481</v>
+        <v>43540.67277777778</v>
       </c>
       <c r="B832" t="n">
-        <v>1.106824692789207e+18</v>
+        <v>1.10695045073204e+18</v>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Ini baru raja singa.  Dapat foto juga kitah.. @ Sentosa Island, Singapore https://t.co/kDrIt8XvlX</t>
+          <t>Mari Pulang.. Setelah menghabiskan uang hanya 8 dollar singapura (85rb rupiah) saatnya https://t.co/ynRUndJPFC.pelukan ibu pertiwi .. INDONESIA!!! @ Singapore Cruise Centre https://t.co/bw9evwKd3B</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
@@ -16254,32 +16254,32 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>43540.27091435185</v>
+        <v>43540.51121527778</v>
       </c>
       <c r="B833" t="n">
-        <v>1.10680482016428e+18</v>
+        <v>1.10689190511847e+18</v>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Still menakutkan roller coasters dia . #imdead https://t.co/vsXvE40UjQ</t>
+          <t>Casino disini memfasilitasi manula dan pensiunan bus gratis dan buffee free sepuasnya..tujuanya untuk menghabiskan uang mereka disini.. Faktanya.. Orang2 tua ga… https://t.co/V9Enw04H1E</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>ftmhsbllh</t>
+          <t>varhan_az</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>43540.24274305555</v>
+        <v>43540.32575231481</v>
       </c>
       <c r="B834" t="n">
-        <v>1.106794613422125e+18</v>
+        <v>1.106824692789207e+18</v>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Betis berotot jalan 10km sehari.. @ Universal Studio, Sentosa Beach Singapore https://t.co/Zc6lUDuRFR</t>
+          <t>Ini baru raja singa.  Dapat foto juga kitah.. @ Sentosa Island, Singapore https://t.co/kDrIt8XvlX</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -16290,49 +16290,85 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
+        <v>43540.27091435185</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1.10680482016428e+18</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Still menakutkan roller coasters dia . #imdead https://t.co/vsXvE40UjQ</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>ftmhsbllh</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>43540.24274305555</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1.106794613422125e+18</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Betis berotot jalan 10km sehari.. @ Universal Studio, Sentosa Beach Singapore https://t.co/Zc6lUDuRFR</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>varhan_az</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
         <v>43540.16175925926</v>
       </c>
-      <c r="B835" t="n">
+      <c r="B837" t="n">
         <v>1.106765262907494e+18</v>
       </c>
-      <c r="C835" t="inlineStr">
+      <c r="C837" t="inlineStr">
         <is>
           <t>#20190312 Untung disempetin foto di patung merlion super besar ini. Ternyata pas ke merlion park yg asli, patung merlion asli-nya sedang ditutup, mungkin sedang renovasi 😂✌
 #sentosaisland… https://t.co/l4t5eUe2pI</t>
         </is>
       </c>
-      <c r="D835" t="inlineStr">
+      <c r="D837" t="inlineStr">
         <is>
           <t>Minnie2105</t>
         </is>
       </c>
     </row>
-    <row r="836">
-      <c r="A836" s="2" t="n">
+    <row r="838">
+      <c r="A838" s="2" t="n">
         <v>43540.00953703704</v>
       </c>
-      <c r="B836" t="n">
+      <c r="B838" t="n">
         <v>1.106710101413384e+18</v>
       </c>
-      <c r="C836" t="inlineStr">
+      <c r="C838" t="inlineStr">
         <is>
           <t>🙋🏼‍♀️ @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/BUI452w5Nv</t>
         </is>
       </c>
-      <c r="D836" t="inlineStr">
+      <c r="D838" t="inlineStr">
         <is>
           <t>jericroix</t>
         </is>
       </c>
     </row>
-    <row r="837">
-      <c r="A837" s="2" t="n">
+    <row r="839">
+      <c r="A839" s="2" t="n">
         <v>43539.12675925926</v>
       </c>
-      <c r="B837" t="n">
+      <c r="B839" t="n">
         <v>1.10639019402924e+18</v>
       </c>
-      <c r="C837" t="inlineStr">
+      <c r="C839" t="inlineStr">
         <is>
           <t>Backpackeran itu ga cuma hemat budget tpi ada sensasinya sendiri..
 *Nyasar-nyasar cari jalan
@@ -16340,56 +16376,56 @@
 *Jalan kaki beratus-ratus meter bahkan bisa berkilo-kilo… https://t.co/PR916pX55E</t>
         </is>
       </c>
-      <c r="D837" t="inlineStr">
+      <c r="D839" t="inlineStr">
         <is>
           <t>_Santidamayanti</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" s="2" t="n">
-        <v>43538.64524305556</v>
-      </c>
-      <c r="B838" t="n">
-        <v>1.106215696239714e+18</v>
-      </c>
-      <c r="C838" t="inlineStr">
-        <is>
-          <t>Senja dan cerita. https://t.co/JUsXscynWS</t>
-        </is>
-      </c>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>chacannisa_</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" s="2" t="n">
-        <v>43538.35800925926</v>
-      </c>
-      <c r="B839" t="n">
-        <v>1.106111608978321e+18</v>
-      </c>
-      <c r="C839" t="inlineStr">
-        <is>
-          <t>Praia! em Palawan Beach Sentosa Island https://t.co/et8eWyPoGi</t>
-        </is>
-      </c>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>Danythrj</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
+        <v>43538.64524305556</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1.106215696239714e+18</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Senja dan cerita. https://t.co/JUsXscynWS</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>chacannisa_</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>43538.35800925926</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1.106111608978321e+18</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Praia! em Palawan Beach Sentosa Island https://t.co/et8eWyPoGi</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Danythrj</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
         <v>43538.25199074074</v>
       </c>
-      <c r="B840" t="n">
+      <c r="B842" t="n">
         <v>1.106073186234483e+18</v>
       </c>
-      <c r="C840" t="inlineStr">
+      <c r="C842" t="inlineStr">
         <is>
           <t>Aku wis tekan kene lur....
 .
@@ -16402,148 +16438,148 @@
 #letsgobeyond @ Universal Studios Singapore Fans https://t.co/PpWXJSxFwr</t>
         </is>
       </c>
-      <c r="D840" t="inlineStr">
+      <c r="D842" t="inlineStr">
         <is>
           <t>lukman_hakim212</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" s="2" t="n">
-        <v>43537.20547453704</v>
-      </c>
-      <c r="B841" t="n">
-        <v>1.105693941817594e+18</v>
-      </c>
-      <c r="C841" t="inlineStr">
-        <is>
-          <t>MERLION SENTOSA 🦁 @ Sentosa Island, Singapore https://t.co/gni5fB2qPJ</t>
-        </is>
-      </c>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>reeiigg</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" s="2" t="n">
-        <v>43537.08034722223</v>
-      </c>
-      <c r="B842" t="n">
-        <v>1.105648597104845e+18</v>
-      </c>
-      <c r="C842" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ Universal Studios Singapore Fans https://t.co/s70zm2TVX3</t>
-        </is>
-      </c>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>nanadjah</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>43536.48774305556</v>
+        <v>43537.20547453704</v>
       </c>
       <c r="B843" t="n">
-        <v>1.105433846571565e+18</v>
+        <v>1.105693941817594e+18</v>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>TerLove tp attu' 😘😂 @ Universal Studio, Sentosa Beach Singapore https://t.co/vMu8w1Zqdq</t>
+          <t>MERLION SENTOSA 🦁 @ Sentosa Island, Singapore https://t.co/gni5fB2qPJ</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>Ririe_Iephonk</t>
+          <t>reeiigg</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>43536.2959375</v>
+        <v>43537.08034722223</v>
       </c>
       <c r="B844" t="n">
-        <v>1.10536433755485e+18</v>
+        <v>1.105648597104845e+18</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Ada yang sebel mamanya meluk2 papa 🤣🤣 @ Universal Studio, Sentosa Beach Singapore https://t.co/bTkSouOH3l</t>
+          <t>Baru saja mengirim foto @ Universal Studios Singapore Fans https://t.co/s70zm2TVX3</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>komangsurya</t>
+          <t>nanadjah</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>43536.28854166667</v>
+        <v>43536.48774305556</v>
       </c>
       <c r="B845" t="n">
-        <v>1.10536165899246e+18</v>
+        <v>1.105433846571565e+18</v>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/nhq3pqzSQG https://t.co/IKjdCcxzlv</t>
+          <t>TerLove tp attu' 😘😂 @ Universal Studio, Sentosa Beach Singapore https://t.co/vMu8w1Zqdq</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>_Rolling_Bear</t>
+          <t>Ririe_Iephonk</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
+        <v>43536.2959375</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1.10536433755485e+18</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Ada yang sebel mamanya meluk2 papa 🤣🤣 @ Universal Studio, Sentosa Beach Singapore https://t.co/bTkSouOH3l</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>komangsurya</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>43536.28854166667</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1.10536165899246e+18</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/nhq3pqzSQG https://t.co/IKjdCcxzlv</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>_Rolling_Bear</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
         <v>43536.1425</v>
       </c>
-      <c r="B846" t="n">
+      <c r="B848" t="n">
         <v>1.105308735390605e+18</v>
       </c>
-      <c r="C846" t="inlineStr">
+      <c r="C848" t="inlineStr">
         <is>
           <t>perempuan mesir asli bukaan???
 🤫🤫 @ Revenge of the Mummy (Universal Studios Singapore) https://t.co/JRAqCNZfxm</t>
         </is>
       </c>
-      <c r="D846" t="inlineStr">
+      <c r="D848" t="inlineStr">
         <is>
           <t>nanadjah</t>
         </is>
       </c>
     </row>
-    <row r="847">
-      <c r="A847" s="2" t="n">
+    <row r="849">
+      <c r="A849" s="2" t="n">
         <v>43536.13680555556</v>
       </c>
-      <c r="B847" t="n">
+      <c r="B849" t="n">
         <v>1.105306671755084e+18</v>
       </c>
-      <c r="C847" t="inlineStr">
+      <c r="C849" t="inlineStr">
         <is>
           <t>ini permainan jebakan masuk gelap kirain kayak transstudio cuman naik kreta keliling.. ternyataa mendekati 3/4 antri panjang baru tau kalo roller coaster . 
 asli rasanya pengen… https://t.co/V5F05wBazY</t>
         </is>
       </c>
-      <c r="D847" t="inlineStr">
+      <c r="D849" t="inlineStr">
         <is>
           <t>nanadjah</t>
         </is>
       </c>
     </row>
-    <row r="848">
-      <c r="A848" s="2" t="n">
+    <row r="850">
+      <c r="A850" s="2" t="n">
         <v>43536.11555555555</v>
       </c>
-      <c r="B848" t="n">
+      <c r="B850" t="n">
         <v>1.105298967678648e+18</v>
       </c>
-      <c r="C848" t="inlineStr">
+      <c r="C850" t="inlineStr">
         <is>
           <t>ketangkap cameraa 
 expresi luarbiasa
@@ -16551,132 +16587,132 @@
 🤭😪😪 @ Universal Studios Singapore Fans https://t.co/VZMQtT1foj</t>
         </is>
       </c>
-      <c r="D848" t="inlineStr">
+      <c r="D850" t="inlineStr">
         <is>
           <t>nanadjah</t>
         </is>
       </c>
     </row>
-    <row r="849">
-      <c r="A849" s="2" t="n">
+    <row r="851">
+      <c r="A851" s="2" t="n">
         <v>43536.10763888889</v>
       </c>
-      <c r="B849" t="n">
+      <c r="B851" t="n">
         <v>1.105296100225888e+18</v>
       </c>
-      <c r="C849" t="inlineStr">
+      <c r="C851" t="inlineStr">
         <is>
           <t>madagascar games
 naik perahu rupanyaa
 🛶🛶 @ Universal Studios Singapore https://t.co/Xn8SCv4Jl5</t>
         </is>
       </c>
-      <c r="D849" t="inlineStr">
+      <c r="D851" t="inlineStr">
         <is>
           <t>nanadjah</t>
         </is>
       </c>
     </row>
-    <row r="850">
-      <c r="A850" s="2" t="n">
+    <row r="852">
+      <c r="A852" s="2" t="n">
         <v>43536.09988425926</v>
       </c>
-      <c r="B850" t="n">
+      <c r="B852" t="n">
         <v>1.105293288553279e+18</v>
       </c>
-      <c r="C850" t="inlineStr">
+      <c r="C852" t="inlineStr">
         <is>
           <t>Baru saja mengirim foto @ Universal Studios Singapore Fans https://t.co/IaZzbMOKKU</t>
         </is>
       </c>
-      <c r="D850" t="inlineStr">
+      <c r="D852" t="inlineStr">
         <is>
           <t>nanadjah</t>
         </is>
       </c>
     </row>
-    <row r="851">
-      <c r="A851" s="2" t="n">
+    <row r="853">
+      <c r="A853" s="2" t="n">
         <v>43536.09287037037</v>
       </c>
-      <c r="B851" t="n">
+      <c r="B853" t="n">
         <v>1.105290747329147e+18</v>
       </c>
-      <c r="C851" t="inlineStr">
+      <c r="C853" t="inlineStr">
         <is>
           <t>akhirnyaa...
 masuukkk juga dufan singapore
 😂 @ Universal Studios Singapore Fans https://t.co/h6HxiPiPV7</t>
         </is>
       </c>
-      <c r="D851" t="inlineStr">
+      <c r="D853" t="inlineStr">
         <is>
           <t>nanadjah</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" s="2" t="n">
-        <v>43536.03018518518</v>
-      </c>
-      <c r="B852" t="n">
-        <v>1.10526803144847e+18</v>
-      </c>
-      <c r="C852" t="inlineStr">
-        <is>
-          <t>Can I chill now? @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/4ihOBBf6MO</t>
-        </is>
-      </c>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>jericroix</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" s="2" t="n">
-        <v>43535.42965277778</v>
-      </c>
-      <c r="B853" t="n">
-        <v>1.105050408228188e+18</v>
-      </c>
-      <c r="C853" t="inlineStr">
-        <is>
-          <t>Akhirnya ketemu senderan 🙄 @ Universal Studios Singapore https://t.co/gxiu6WO13V</t>
-        </is>
-      </c>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>Vita_yaa</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>43535.24025462963</v>
+        <v>43536.03018518518</v>
       </c>
       <c r="B854" t="n">
-        <v>1.10498177039358e+18</v>
+        <v>1.10526803144847e+18</v>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/2k113Rhyqq https://t.co/wUg4MW6Tdb</t>
+          <t>Can I chill now? @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/4ihOBBf6MO</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>gpgubatan</t>
+          <t>jericroix</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
+        <v>43535.42965277778</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1.105050408228188e+18</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Akhirnya ketemu senderan 🙄 @ Universal Studios Singapore https://t.co/gxiu6WO13V</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Vita_yaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>43535.24025462963</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1.10498177039358e+18</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/2k113Rhyqq https://t.co/wUg4MW6Tdb</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>gpgubatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
         <v>43534.54502314814</v>
       </c>
-      <c r="B855" t="n">
+      <c r="B857" t="n">
         <v>1.104729828962587e+18</v>
       </c>
-      <c r="C855" t="inlineStr">
+      <c r="C857" t="inlineStr">
         <is>
           <t>Kita = Teluk alaska
 #destiny
@@ -16685,274 +16721,274 @@
 #loveofmylife @ Sentosa Island, Singapore https://t.co/HhwsbWKr7d</t>
         </is>
       </c>
-      <c r="D855" t="inlineStr">
+      <c r="D857" t="inlineStr">
         <is>
           <t>ReisVeeya</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" s="2" t="n">
-        <v>43534.17450231482</v>
-      </c>
-      <c r="B856" t="n">
-        <v>1.104595556184158e+18</v>
-      </c>
-      <c r="C856" t="inlineStr">
-        <is>
-          <t>Salah satu sudut favorit 😊 @ Sentosa Island, Singapore https://t.co/L5AgdbOkhO</t>
-        </is>
-      </c>
-      <c r="D856" t="inlineStr">
-        <is>
-          <t>furenity</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" s="2" t="n">
-        <v>43533.53194444445</v>
-      </c>
-      <c r="B857" t="n">
-        <v>1.104362701587997e+18</v>
-      </c>
-      <c r="C857" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ Universal Studios Singapore https://t.co/OxvGgsR5kX</t>
-        </is>
-      </c>
-      <c r="D857" t="inlineStr">
-        <is>
-          <t>sonnycornellys</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>43533.53052083333</v>
+        <v>43534.17450231482</v>
       </c>
       <c r="B858" t="n">
-        <v>1.104362183247434e+18</v>
+        <v>1.104595556184158e+18</v>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Universal Studios Singapore https://t.co/4nqOCRJ75x</t>
+          <t>Salah satu sudut favorit 😊 @ Sentosa Island, Singapore https://t.co/L5AgdbOkhO</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>sonnycornellys</t>
+          <t>furenity</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>43533.39978009259</v>
+        <v>43533.53194444445</v>
       </c>
       <c r="B859" t="n">
-        <v>1.104314806545334e+18</v>
+        <v>1.104362701587997e+18</v>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>来た (@ Sentosa Merlion in Sentosa Island, Singapore) https://t.co/IpTC2Ri8p9</t>
+          <t>Baru saja mengirim foto @ Universal Studios Singapore https://t.co/OxvGgsR5kX</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>cunqi</t>
+          <t>sonnycornellys</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>43533.17976851852</v>
+        <v>43533.53052083333</v>
       </c>
       <c r="B860" t="n">
-        <v>1.104235076508889e+18</v>
+        <v>1.104362183247434e+18</v>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/sjMdzzGVbe</t>
+          <t>Baru saja mengirim foto @ Universal Studios Singapore https://t.co/4nqOCRJ75x</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>npynpynpy7</t>
+          <t>sonnycornellys</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>43532.46400462963</v>
+        <v>43533.39978009259</v>
       </c>
       <c r="B861" t="n">
-        <v>1.103975693782663e+18</v>
+        <v>1.104314806545334e+18</v>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Penatnya menjerit pastu jantung macam nak tercabut setiap kali naik rides. Dah la lepas ni nak buat aktiviti yang tenang jela macam yoga ke tanam bunga ke</t>
+          <t>来た (@ Sentosa Merlion in Sentosa Island, Singapore) https://t.co/IpTC2Ri8p9</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>Amelynnnnn</t>
+          <t>cunqi</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>43532.43783564815</v>
+        <v>43533.17976851852</v>
       </c>
       <c r="B862" t="n">
-        <v>1.103966208502555e+18</v>
+        <v>1.104235076508889e+18</v>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Baru berasa lelahnyaa 😊</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/sjMdzzGVbe</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>dwi_anggreyani</t>
+          <t>npynpynpy7</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>43532.2806712963</v>
+        <v>43532.46400462963</v>
       </c>
       <c r="B863" t="n">
-        <v>1.103909256179249e+18</v>
+        <v>1.103975693782663e+18</v>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>#foodtrip #macandcheesezinger #zinger #kfc #sentosa #singaporetrip @ Imbiah Sentosa https://t.co/zqCRGKrLTC</t>
+          <t>Penatnya menjerit pastu jantung macam nak tercabut setiap kali naik rides. Dah la lepas ni nak buat aktiviti yang tenang jela macam yoga ke tanam bunga ke</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>_dashu31</t>
+          <t>Amelynnnnn</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>43532.27957175926</v>
+        <v>43532.43783564815</v>
       </c>
       <c r="B864" t="n">
-        <v>1.103908854251774e+18</v>
+        <v>1.103966208502555e+18</v>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>#foodtrip #macandcheesezinger #zinger #kfc #sentosa #singaporetrip #kfcsingapore @ Imbiah Sentosa https://t.co/eCn4LQwBsA</t>
+          <t>Baru berasa lelahnyaa 😊</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>_dashu31</t>
+          <t>dwi_anggreyani</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>43532.25900462963</v>
+        <v>43532.2806712963</v>
       </c>
       <c r="B865" t="n">
-        <v>1.103901401200001e+18</v>
+        <v>1.103909256179249e+18</v>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/esmNz8g2EP</t>
+          <t>#foodtrip #macandcheesezinger #zinger #kfc #sentosa #singaporetrip @ Imbiah Sentosa https://t.co/zqCRGKrLTC</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>_anneaquino_</t>
+          <t>_dashu31</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>43531.71797453704</v>
+        <v>43532.27957175926</v>
       </c>
       <c r="B866" t="n">
-        <v>1.103705338862133e+18</v>
+        <v>1.103908854251774e+18</v>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Universal Studio, Sentosa Beach Singapore https://t.co/ARs63d9FEt</t>
+          <t>#foodtrip #macandcheesezinger #zinger #kfc #sentosa #singaporetrip #kfcsingapore @ Imbiah Sentosa https://t.co/eCn4LQwBsA</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>sonnycornellys</t>
+          <t>_dashu31</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>43531.57778935185</v>
+        <v>43532.25900462963</v>
       </c>
       <c r="B867" t="n">
-        <v>1.103654537301094e+18</v>
+        <v>1.103901401200001e+18</v>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Cylon nya lumayan untuk peredaran darah🙄🙄 https://t.co/oGYBEgpizF</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/esmNz8g2EP</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>indrasilangit</t>
+          <t>_anneaquino_</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>43531.42582175926</v>
+        <v>43531.71797453704</v>
       </c>
       <c r="B868" t="n">
-        <v>1.103599466760802e+18</v>
+        <v>1.103705338862133e+18</v>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Universal Studio, Sentosa Beach Singapore https://t.co/2xNc8497ex</t>
+          <t>Baru saja mengirim foto @ Universal Studio, Sentosa Beach Singapore https://t.co/ARs63d9FEt</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>yuliarahmawatiR</t>
+          <t>sonnycornellys</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
+        <v>43531.57778935185</v>
+      </c>
+      <c r="B869" t="n">
+        <v>1.103654537301094e+18</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Cylon nya lumayan untuk peredaran darah🙄🙄 https://t.co/oGYBEgpizF</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>indrasilangit</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>43531.42582175926</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1.103599466760802e+18</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Baru saja mengirim foto @ Universal Studio, Sentosa Beach Singapore https://t.co/2xNc8497ex</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>yuliarahmawatiR</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
         <v>43531.22586805555</v>
       </c>
-      <c r="B869" t="n">
+      <c r="B871" t="n">
         <v>1.103527005306397e+18</v>
       </c>
-      <c r="C869" t="inlineStr">
+      <c r="C871" t="inlineStr">
         <is>
           <t>🍽 Jalan-jalan cari makan. 
 Makan-makan dengan kawan. 🍴#NasiAyamSambal
 #TehTarik #seahim #lunchtime #drelmizulkarnain #kakis #makan @ Seah Im Food Centre https://t.co/JfGBPjSGAt</t>
         </is>
       </c>
-      <c r="D869" t="inlineStr">
+      <c r="D871" t="inlineStr">
         <is>
           <t>elmizulkarnain</t>
         </is>
       </c>
     </row>
-    <row r="870">
-      <c r="A870" s="2" t="n">
+    <row r="872">
+      <c r="A872" s="2" t="n">
         <v>43530.32821759259</v>
       </c>
-      <c r="B870" t="n">
+      <c r="B872" t="n">
         <v>1.103201710061761e+18</v>
       </c>
-      <c r="C870" t="inlineStr">
+      <c r="C872" t="inlineStr">
         <is>
           <t>Pakai selipar siapa tah sebab nak lari masuk air sat lagi. Of course i orang Bob Marley!
 .
@@ -16961,329 +16997,329 @@
 Private trip for only RM… https://t.co/O8E3GCnAPJ</t>
         </is>
       </c>
-      <c r="D870" t="inlineStr">
+      <c r="D872" t="inlineStr">
         <is>
           <t>MizShuai</t>
         </is>
       </c>
     </row>
-    <row r="871">
-      <c r="A871" s="2" t="n">
+    <row r="873">
+      <c r="A873" s="2" t="n">
         <v>43530.20402777778</v>
       </c>
-      <c r="B871" t="n">
+      <c r="B873" t="n">
         <v>1.103156703183426e+18</v>
       </c>
-      <c r="C871" t="inlineStr">
+      <c r="C873" t="inlineStr">
         <is>
           <t>Mama mmg rock! Mendealah Luge ni pon main sampai 5 round. Hehehehe.
 Rindu ma ❤️ alfatihah @ Skyline Luge Sentosa https://t.co/1oa3SrL4zq</t>
         </is>
       </c>
-      <c r="D871" t="inlineStr">
+      <c r="D873" t="inlineStr">
         <is>
           <t>mas4638</t>
-        </is>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" s="2" t="n">
-        <v>43529.46637731481</v>
-      </c>
-      <c r="B872" t="n">
-        <v>1.102889386260292e+18</v>
-      </c>
-      <c r="C872" t="inlineStr">
-        <is>
-          <t>Pesan yang mana ???? 🤣🤣🤣🤣 (@ Seah Im Food Centre in Singapore) https://t.co/9PY4SraV7S https://t.co/LMCpP5AgrF</t>
-        </is>
-      </c>
-      <c r="D872" t="inlineStr">
-        <is>
-          <t>nilhada</t>
-        </is>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" s="2" t="n">
-        <v>43529.27074074074</v>
-      </c>
-      <c r="B873" t="n">
-        <v>1.102818491147715e+18</v>
-      </c>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/OMq73bmZ8F</t>
-        </is>
-      </c>
-      <c r="D873" t="inlineStr">
-        <is>
-          <t>Wait_a_sec_</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>43529.07646990741</v>
+        <v>43529.46637731481</v>
       </c>
       <c r="B874" t="n">
-        <v>1.10274809239323e+18</v>
+        <v>1.102889386260292e+18</v>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Resorts World Sentosa merupakan salah satu kepingan kebahagiaan saat liburan di Singapura. Semua hal yang dibutuhkan selama liburan tersedia di sana, mulai dari hotel-hotel bintang 5,… https://t.co/eLTNX4OIdx</t>
+          <t>Pesan yang mana ???? 🤣🤣🤣🤣 (@ Seah Im Food Centre in Singapore) https://t.co/9PY4SraV7S https://t.co/LMCpP5AgrF</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>Nusantara_tours</t>
+          <t>nilhada</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>43529.07392361111</v>
+        <v>43529.27074074074</v>
       </c>
       <c r="B875" t="n">
-        <v>1.1027471689919e+18</v>
+        <v>1.102818491147715e+18</v>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Setiap Hari Selalu Ada Kesempatan Untuk Mempelajari Segala Kesalahan Yang Pernah Terjadi Agar Kita Tidak Lagi Mengulang Kesalahan Yang Sama 👍🇸🇬 @ HarbourFront Centre https://t.co/iAYOdbSbEo</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/OMq73bmZ8F</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>RulyPramanaPtra</t>
+          <t>Wait_a_sec_</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
+        <v>43529.07646990741</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1.10274809239323e+18</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Resorts World Sentosa merupakan salah satu kepingan kebahagiaan saat liburan di Singapura. Semua hal yang dibutuhkan selama liburan tersedia di sana, mulai dari hotel-hotel bintang 5,… https://t.co/eLTNX4OIdx</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Nusantara_tours</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>43529.07392361111</v>
+      </c>
+      <c r="B877" t="n">
+        <v>1.1027471689919e+18</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Setiap Hari Selalu Ada Kesempatan Untuk Mempelajari Segala Kesalahan Yang Pernah Terjadi Agar Kita Tidak Lagi Mengulang Kesalahan Yang Sama 👍🇸🇬 @ HarbourFront Centre https://t.co/iAYOdbSbEo</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>RulyPramanaPtra</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
         <v>43528.33353009259</v>
       </c>
-      <c r="B876" t="n">
+      <c r="B878" t="n">
         <v>1.102478859868369e+18</v>
       </c>
-      <c r="C876" t="inlineStr">
+      <c r="C878" t="inlineStr">
         <is>
           <t>Kemarin aku pesen tiket masuk SEA AQUARIUM , Singapore di tourtravelgooland ..
 Selain murah dan praktis , Pelayanan Yang diberikan maksimal deh ...
 Jadi buat kamu yang mau traveling ke… https://t.co/XcJzHwERp6</t>
         </is>
       </c>
-      <c r="D876" t="inlineStr">
+      <c r="D878" t="inlineStr">
         <is>
           <t>agungfame</t>
-        </is>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" s="2" t="n">
-        <v>43527.51391203704</v>
-      </c>
-      <c r="B877" t="n">
-        <v>1.102181837517005e+18</v>
-      </c>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>Beberapa hari kemarin merasakan tinggal di kapal selayaknya seorang pelaut gemar mengarung luas samudra menerjang ombak tiada takut menempuh badai sudah… https://t.co/DzRrDwsuSA</t>
-        </is>
-      </c>
-      <c r="D877" t="inlineStr">
-        <is>
-          <t>ChiefyFlicker</t>
-        </is>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" s="2" t="n">
-        <v>43527.20234953704</v>
-      </c>
-      <c r="B878" t="n">
-        <v>1.102068933727842e+18</v>
-      </c>
-      <c r="C878" t="inlineStr">
-        <is>
-          <t>mayaadoniajournal ariannanatasya @shikin_maembong aliceciatan abbysyavyla syedabdullah1989 #emmamaembong #emanizers @emanizers @ Universal Studios Singapore https://t.co/HQra8UaCxe</t>
-        </is>
-      </c>
-      <c r="D878" t="inlineStr">
-        <is>
-          <t>emma_maembong</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>43527.20086805556</v>
+        <v>43527.51391203704</v>
       </c>
       <c r="B879" t="n">
-        <v>1.102068394637943e+18</v>
+        <v>1.102181837517005e+18</v>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>mayaadoniajournal ariannanatasya @shikin_maembong aliceciatan abbysyavyla syedabdullah1989 #emmamaembong #emanizers @emanizers @ Universal Studios Singapore https://t.co/LByVfpTA3b</t>
+          <t>Beberapa hari kemarin merasakan tinggal di kapal selayaknya seorang pelaut gemar mengarung luas samudra menerjang ombak tiada takut menempuh badai sudah… https://t.co/DzRrDwsuSA</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>emma_maembong</t>
+          <t>ChiefyFlicker</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>43526.7375</v>
+        <v>43527.20234953704</v>
       </c>
       <c r="B880" t="n">
-        <v>1.101900478063927e+18</v>
+        <v>1.102068933727842e+18</v>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>hamek kau penangan uss 🤣 satu badan sakit²</t>
+          <t>mayaadoniajournal ariannanatasya @shikin_maembong aliceciatan abbysyavyla syedabdullah1989 #emmamaembong #emanizers @emanizers @ Universal Studios Singapore https://t.co/HQra8UaCxe</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>hxrulz</t>
+          <t>emma_maembong</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>43526.50063657408</v>
+        <v>43527.20086805556</v>
       </c>
       <c r="B881" t="n">
-        <v>1.101814639120343e+18</v>
+        <v>1.102068394637943e+18</v>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Dinner - #FriedHokkienPrawnMee (@ Cheng Ji Chao Xia Mian Hao Jian in Singapore) https://t.co/MZI28Mtc3a https://t.co/CiK72C9JbI</t>
+          <t>mayaadoniajournal ariannanatasya @shikin_maembong aliceciatan abbysyavyla syedabdullah1989 #emmamaembong #emanizers @emanizers @ Universal Studios Singapore https://t.co/LByVfpTA3b</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>arthurfoongwk</t>
+          <t>emma_maembong</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>43526.03109953704</v>
+        <v>43526.7375</v>
       </c>
       <c r="B882" t="n">
-        <v>1.101644483270107e+18</v>
+        <v>1.101900478063927e+18</v>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Pasukan negara berflower pun datang😂😂😂😂</t>
+          <t>hamek kau penangan uss 🤣 satu badan sakit²</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>amatarpa</t>
+          <t>hxrulz</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>43525.47833333333</v>
+        <v>43526.50063657408</v>
       </c>
       <c r="B883" t="n">
-        <v>1.101444168277283e+18</v>
+        <v>1.101814639120343e+18</v>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/dcgZxmB7Tj</t>
+          <t>Dinner - #FriedHokkienPrawnMee (@ Cheng Ji Chao Xia Mian Hao Jian in Singapore) https://t.co/MZI28Mtc3a https://t.co/CiK72C9JbI</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>CTfatimah_</t>
+          <t>arthurfoongwk</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>43524.16186342593</v>
+        <v>43526.03109953704</v>
       </c>
       <c r="B884" t="n">
-        <v>1.100967097822314e+18</v>
+        <v>1.101644483270107e+18</v>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Kamera dmana muppet liat kemana, eh gw yang salah ngadepnya deng pas duduk... duh #universalstudiosingapore @ Universal Studios Singapore https://t.co/YKWJE3sHWH</t>
+          <t>Pasukan negara berflower pun datang😂😂😂😂</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>dannyrizal</t>
+          <t>amatarpa</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>43524.16121527777</v>
+        <v>43525.47833333333</v>
       </c>
       <c r="B885" t="n">
-        <v>1.100966861926089e+18</v>
+        <v>1.101444168277283e+18</v>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Up and down, kayak idup #universalstudiosingapore @ Universal Studios Singapore https://t.co/LlP5ex9nva</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/dcgZxmB7Tj</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>dannyrizal</t>
+          <t>CTfatimah_</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>43523.47261574074</v>
+        <v>43524.16186342593</v>
       </c>
       <c r="B886" t="n">
-        <v>1.100717321197371e+18</v>
+        <v>1.100967097822314e+18</v>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>I'm at Patbingsoo in Telok Blangah, Singapore https://t.co/eSKCDvdQOO</t>
+          <t>Kamera dmana muppet liat kemana, eh gw yang salah ngadepnya deng pas duduk... duh #universalstudiosingapore @ Universal Studios Singapore https://t.co/YKWJE3sHWH</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>CYingxuan</t>
+          <t>dannyrizal</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>43522.41047453704</v>
+        <v>43524.16121527777</v>
       </c>
       <c r="B887" t="n">
-        <v>1.10033241323266e+18</v>
+        <v>1.100966861926089e+18</v>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Karena nanti kalo udah koas, ga punya waktu untuk liburan jauh~ @ Universal Studios Singapore https://t.co/hy2hnI2jYB</t>
+          <t>Up and down, kayak idup #universalstudiosingapore @ Universal Studios Singapore https://t.co/LlP5ex9nva</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>bang_ahong</t>
+          <t>dannyrizal</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
+        <v>43523.47261574074</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1.100717321197371e+18</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>I'm at Patbingsoo in Telok Blangah, Singapore https://t.co/eSKCDvdQOO</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>CYingxuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>43522.41047453704</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1.10033241323266e+18</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Karena nanti kalo udah koas, ga punya waktu untuk liburan jauh~ @ Universal Studios Singapore https://t.co/hy2hnI2jYB</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>bang_ahong</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
         <v>43522.26899305556</v>
       </c>
-      <c r="B888" t="n">
+      <c r="B890" t="n">
         <v>1.100281144833004e+18</v>
       </c>
-      <c r="C888" t="inlineStr">
+      <c r="C890" t="inlineStr">
         <is>
           <t>Duduk manis baca koran
 Ngemilnya durian pake ketan, 
@@ -17292,278 +17328,242 @@
 Happy banget sih @bclsinclair, bikin aku iri deh, cuuuss!  mau langsung berangkat… https://t.co/TM9CibDMZH</t>
         </is>
       </c>
-      <c r="D888" t="inlineStr">
+      <c r="D890" t="inlineStr">
         <is>
           <t>ferrysal1m</t>
         </is>
       </c>
     </row>
-    <row r="889">
-      <c r="A889" s="2" t="n">
+    <row r="891">
+      <c r="A891" s="2" t="n">
         <v>43521.41840277778</v>
       </c>
-      <c r="B889" t="n">
+      <c r="B891" t="n">
         <v>1.099972899434189e+18</v>
       </c>
-      <c r="C889" t="inlineStr">
+      <c r="C891" t="inlineStr">
         <is>
           <t>Transformer Ride ni sumpah best, lagi satu The Mommy Ride and dua mega roller coaster aku jerit sampai hilang suara haihh @ Transformers: The Ride https://t.co/UHcyedkEvS</t>
         </is>
       </c>
-      <c r="D889" t="inlineStr">
+      <c r="D891" t="inlineStr">
         <is>
           <t>FaridNorman</t>
         </is>
       </c>
     </row>
-    <row r="890">
-      <c r="A890" s="2" t="n">
+    <row r="892">
+      <c r="A892" s="2" t="n">
         <v>43521.35782407408</v>
       </c>
-      <c r="B890" t="n">
+      <c r="B892" t="n">
         <v>1.099950948502258e+18</v>
       </c>
-      <c r="C890" t="inlineStr">
+      <c r="C892" t="inlineStr">
         <is>
           <t>Tak masalah hasilnya seperti apa,
 aku lebih tertarik untuk menikmati proses. #LN @ Universal Studios Singapore https://t.co/myYueNDlIr</t>
         </is>
       </c>
-      <c r="D890" t="inlineStr">
+      <c r="D892" t="inlineStr">
         <is>
           <t>JN_justnofi</t>
-        </is>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" s="2" t="n">
-        <v>43521.1659375</v>
-      </c>
-      <c r="B891" t="n">
-        <v>1.099881411606065e+18</v>
-      </c>
-      <c r="C891" t="inlineStr">
-        <is>
-          <t>#gatecrash @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/RNmoEKha5c</t>
-        </is>
-      </c>
-      <c r="D891" t="inlineStr">
-        <is>
-          <t>olsomita</t>
-        </is>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" s="2" t="n">
-        <v>43520.22521990741</v>
-      </c>
-      <c r="B892" t="n">
-        <v>1.099540503694053e+18</v>
-      </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>Best (@ Cheng Ji Chao Xia Mian Hao Jian in Singapore) https://t.co/NXmLn2wvJQ</t>
-        </is>
-      </c>
-      <c r="D892" t="inlineStr">
-        <is>
-          <t>WxngWeiJie</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
+        <v>43521.1659375</v>
+      </c>
+      <c r="B893" t="n">
+        <v>1.099881411606065e+18</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>#gatecrash @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/RNmoEKha5c</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>olsomita</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>43520.22521990741</v>
+      </c>
+      <c r="B894" t="n">
+        <v>1.099540503694053e+18</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Best (@ Cheng Ji Chao Xia Mian Hao Jian in Singapore) https://t.co/NXmLn2wvJQ</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>WxngWeiJie</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
         <v>43520.1760300926</v>
       </c>
-      <c r="B893" t="n">
+      <c r="B895" t="n">
         <v>1.099522680829759e+18</v>
       </c>
-      <c r="C893" t="inlineStr">
+      <c r="C895" t="inlineStr">
         <is>
           <t>Happy Weekend guys ! Mampu throwback je, sbb member pisang dudk umah 💁🏻‍♂️💁🏻‍♂️
 #throwback #singapore #ootd #withoutshoes @ Universal Studios Singapore https://t.co/XSlF7Xpal0</t>
         </is>
       </c>
-      <c r="D893" t="inlineStr">
+      <c r="D895" t="inlineStr">
         <is>
           <t>frdsbrhnddn</t>
-        </is>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" s="2" t="n">
-        <v>43520.16660879629</v>
-      </c>
-      <c r="B894" t="n">
-        <v>1.09951926541618e+18</v>
-      </c>
-      <c r="C894" t="inlineStr">
-        <is>
-          <t>touristing hard. #merlion #merlionsingapore #sentosa #sentosaisland #singapore #sentosamerlion #singaporeskyline #instatravel #travelgram #travelphotography #新加坡 #魚尾獅 #聖淘沙 @ Sentosa Merlion https://t.co/6LNaI8rg1Z</t>
-        </is>
-      </c>
-      <c r="D894" t="inlineStr">
-        <is>
-          <t>oopheliach</t>
-        </is>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" s="2" t="n">
-        <v>43519.57958333333</v>
-      </c>
-      <c r="B895" t="n">
-        <v>1.09930653506109e+18</v>
-      </c>
-      <c r="C895" t="inlineStr">
-        <is>
-          <t>dah besar anak mak @ Sentosa https://t.co/E5NYkg0Lms</t>
-        </is>
-      </c>
-      <c r="D895" t="inlineStr">
-        <is>
-          <t>ibesharin</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>43519.53239583333</v>
+        <v>43520.16660879629</v>
       </c>
       <c r="B896" t="n">
-        <v>1.099289434485334e+18</v>
+        <v>1.09951926541618e+18</v>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>I'm at Koi Cafe in Telok Blangah, Singapore w/ @_pypk_ https://t.co/LLGRgipWXH https://t.co/GxhTlRzk4w</t>
+          <t>touristing hard. #merlion #merlionsingapore #sentosa #sentosaisland #singapore #sentosamerlion #singaporeskyline #instatravel #travelgram #travelphotography #新加坡 #魚尾獅 #聖淘沙 @ Sentosa Merlion https://t.co/6LNaI8rg1Z</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>_P_W_K</t>
+          <t>oopheliach</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
+        <v>43519.57958333333</v>
+      </c>
+      <c r="B897" t="n">
+        <v>1.09930653506109e+18</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>dah besar anak mak @ Sentosa https://t.co/E5NYkg0Lms</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>ibesharin</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>43519.53239583333</v>
+      </c>
+      <c r="B898" t="n">
+        <v>1.099289434485334e+18</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>I'm at Koi Cafe in Telok Blangah, Singapore w/ @_pypk_ https://t.co/LLGRgipWXH https://t.co/GxhTlRzk4w</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>_P_W_K</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
         <v>43519.41697916666</v>
       </c>
-      <c r="B897" t="n">
+      <c r="B899" t="n">
         <v>1.099247607732269e+18</v>
       </c>
-      <c r="C897" t="inlineStr">
+      <c r="C899" t="inlineStr">
         <is>
           <t>Bang Syarif
 Senior Guide di Singapore yang telah berdidikasi di profesi ini sejak 1981 hingga sekarang 
 Katanya untuk ambil kartu yangnia tunjukan itu butuh biaya lebih kurang S $ 4.000… https://t.co/yi8StcA9nJ</t>
         </is>
       </c>
-      <c r="D897" t="inlineStr">
+      <c r="D899" t="inlineStr">
         <is>
           <t>SaprilSembiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" s="2" t="n">
-        <v>43519.35020833334</v>
-      </c>
-      <c r="B898" t="n">
-        <v>1.099223410465432e+18</v>
-      </c>
-      <c r="C898" t="inlineStr">
-        <is>
-          <t>Globe sini berpusing 😳 https://t.co/xK6IZypk3c</t>
-        </is>
-      </c>
-      <c r="D898" t="inlineStr">
-        <is>
-          <t>fxafffff</t>
-        </is>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" s="2" t="n">
-        <v>43519.2153125</v>
-      </c>
-      <c r="B899" t="n">
-        <v>1.099174524866707e+18</v>
-      </c>
-      <c r="C899" t="inlineStr">
-        <is>
-          <t>I'm at Bimba Y Lola in Telok Blangah, Singapore https://t.co/WhJWKPczFo</t>
-        </is>
-      </c>
-      <c r="D899" t="inlineStr">
-        <is>
-          <t>Areloghy</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>43519.09447916667</v>
+        <v>43519.35020833334</v>
       </c>
       <c r="B900" t="n">
-        <v>1.099130738631414e+18</v>
+        <v>1.099223410465432e+18</v>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/rk80xW9l95</t>
+          <t>Globe sini berpusing 😳 https://t.co/xK6IZypk3c</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>sikalsia</t>
+          <t>fxafffff</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>43518.53876157408</v>
+        <v>43519.2153125</v>
       </c>
       <c r="B901" t="n">
-        <v>1.098929352677323e+18</v>
+        <v>1.099174524866707e+18</v>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Universal Studio, Sentosa Beach Singapore https://t.co/XqbARaDxw0</t>
+          <t>I'm at Bimba Y Lola in Telok Blangah, Singapore https://t.co/WhJWKPczFo</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>sonnycornellys</t>
+          <t>Areloghy</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>43518.5378125</v>
+        <v>43519.09447916667</v>
       </c>
       <c r="B902" t="n">
-        <v>1.098929007104422e+18</v>
+        <v>1.099130738631414e+18</v>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ Sentosa Island, Singapore https://t.co/HYEwur4wOf</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/rk80xW9l95</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>sonnycornellys</t>
+          <t>sikalsia</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>43518.18916666666</v>
+        <v>43518.53876157408</v>
       </c>
       <c r="B903" t="n">
-        <v>1.098802665218294e+18</v>
+        <v>1.098929352677323e+18</v>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>De Brindils... nunggu naik panggung hanya untuk baca mantra SEMAR .... what 😆😆😆😆 @ VivoCity Singapore https://t.co/tp9DPA588a</t>
+          <t>Baru saja mengirim foto @ Universal Studio, Sentosa Beach Singapore https://t.co/XqbARaDxw0</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -17574,139 +17574,175 @@
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>43517.37501157408</v>
+        <v>43518.5378125</v>
       </c>
       <c r="B904" t="n">
-        <v>1.098507622485881e+18</v>
+        <v>1.098929007104422e+18</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Hi Chaeng!  😊❤ https://t.co/3e0kCgrhwd</t>
+          <t>Baru saja mengirim foto @ Sentosa Island, Singapore https://t.co/HYEwur4wOf</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>kybrcln_</t>
+          <t>sonnycornellys</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>43517.33443287037</v>
+        <v>43518.18916666666</v>
       </c>
       <c r="B905" t="n">
-        <v>1.098492917507711e+18</v>
+        <v>1.098802665218294e+18</v>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Haruskah saya menjadi sasaeng ikon? 🤣 https://t.co/vmCI2e5XJv</t>
+          <t>De Brindils... nunggu naik panggung hanya untuk baca mantra SEMAR .... what 😆😆😆😆 @ VivoCity Singapore https://t.co/tp9DPA588a</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Wiliazzam</t>
+          <t>sonnycornellys</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>43517.26913194444</v>
+        <v>43517.37501157408</v>
       </c>
       <c r="B906" t="n">
-        <v>1.098469255241118e+18</v>
+        <v>1.098507622485881e+18</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Minsan lang ang buhay 💙💙💙 https://t.co/ooQwO38zVd</t>
+          <t>Hi Chaeng!  😊❤ https://t.co/3e0kCgrhwd</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>NialaDobrev</t>
+          <t>kybrcln_</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>43517.1825925926</v>
+        <v>43517.33443287037</v>
       </c>
       <c r="B907" t="n">
-        <v>1.098437893805109e+18</v>
+        <v>1.098492917507711e+18</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ VivoCity Singapore https://t.co/7hA4IGOZMq</t>
+          <t>Haruskah saya menjadi sasaeng ikon? 🤣 https://t.co/vmCI2e5XJv</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>andi_hani</t>
+          <t>Wiliazzam</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>43516.61297453703</v>
+        <v>43517.26913194444</v>
       </c>
       <c r="B908" t="n">
-        <v>1.098231470500413e+18</v>
+        <v>1.098469255241118e+18</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Sape nak jadi bae saya? Tapi perut tu extra kedepan sikit ah, takpe kan? Trend sekarang memang kena perut kedepan. Muah ciked haha #vsco #vscocam #vscomalaysia @ Universal Studio, Sentosa… https://t.co/wzbGgYhRIK</t>
+          <t>Minsan lang ang buhay 💙💙💙 https://t.co/ooQwO38zVd</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>alfeeeeeeeq__</t>
+          <t>NialaDobrev</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>43516.47537037037</v>
+        <v>43517.1825925926</v>
       </c>
       <c r="B909" t="n">
-        <v>1.09818160475161e+18</v>
+        <v>1.098437893805109e+18</v>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>I'm at Patbingsoo in Telok Blangah, Singapore https://t.co/Kfj8dwsQjw</t>
+          <t>Baru saja mengirim foto @ VivoCity Singapore https://t.co/7hA4IGOZMq</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>shu_en_wong</t>
+          <t>andi_hani</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
+        <v>43516.61297453703</v>
+      </c>
+      <c r="B910" t="n">
+        <v>1.098231470500413e+18</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Sape nak jadi bae saya? Tapi perut tu extra kedepan sikit ah, takpe kan? Trend sekarang memang kena perut kedepan. Muah ciked haha #vsco #vscocam #vscomalaysia @ Universal Studio, Sentosa… https://t.co/wzbGgYhRIK</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>alfeeeeeeeq__</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>43516.47537037037</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1.09818160475161e+18</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>I'm at Patbingsoo in Telok Blangah, Singapore https://t.co/Kfj8dwsQjw</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>shu_en_wong</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
         <v>43516.45409722222</v>
       </c>
-      <c r="B910" t="n">
+      <c r="B912" t="n">
         <v>1.098173897143251e+18</v>
       </c>
-      <c r="C910" t="inlineStr">
+      <c r="C912" t="inlineStr">
         <is>
           <t>#uss #siblingsshortvacayinsg 
 Mini love utk ho_ena (x sempat nak snap kat globe 😬) @ Universal Studio, Sentosa Beach Singapore https://t.co/14QD588veS</t>
         </is>
       </c>
-      <c r="D910" t="inlineStr">
+      <c r="D912" t="inlineStr">
         <is>
           <t>atienyana</t>
         </is>
       </c>
     </row>
-    <row r="911">
-      <c r="A911" s="2" t="n">
+    <row r="913">
+      <c r="A913" s="2" t="n">
         <v>43516.3950462963</v>
       </c>
-      <c r="B911" t="n">
+      <c r="B913" t="n">
         <v>1.098152496881529e+18</v>
       </c>
-      <c r="C911" t="inlineStr">
+      <c r="C913" t="inlineStr">
         <is>
           <t>Menurutku , 
 Orang yang benar-benar kuat adalah orang yang bisa menceritakan luka hatinya dengan tertawa . 😅 
@@ -17715,20 +17751,20 @@
 #girlstrong💪 @ Sentosa https://t.co/baHNbr5Q0N</t>
         </is>
       </c>
-      <c r="D911" t="inlineStr">
+      <c r="D913" t="inlineStr">
         <is>
           <t>pipitagustiin</t>
         </is>
       </c>
     </row>
-    <row r="912">
-      <c r="A912" s="2" t="n">
+    <row r="914">
+      <c r="A914" s="2" t="n">
         <v>43515.56728009259</v>
       </c>
-      <c r="B912" t="n">
+      <c r="B914" t="n">
         <v>1.097852525431087e+18</v>
       </c>
-      <c r="C912" t="inlineStr">
+      <c r="C914" t="inlineStr">
         <is>
           <t>Waktunya selalu tepat 
 Untuk memulai
@@ -17739,570 +17775,570 @@
 Untuk menerima apa yang harus kau… https://t.co/h01JT69Lqm</t>
         </is>
       </c>
-      <c r="D912" t="inlineStr">
+      <c r="D914" t="inlineStr">
         <is>
           <t>stefficrista</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" s="2" t="n">
-        <v>43515.39851851852</v>
-      </c>
-      <c r="B913" t="n">
-        <v>1.097791368150299e+18</v>
-      </c>
-      <c r="C913" t="inlineStr">
-        <is>
-          <t>Memantau😎 @ Universal Studio, Sentosa Beach Singapore https://t.co/dgL03ruPjV</t>
-        </is>
-      </c>
-      <c r="D913" t="inlineStr">
-        <is>
-          <t>pril_minggukie</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" s="2" t="n">
-        <v>43515.22646990741</v>
-      </c>
-      <c r="B914" t="n">
-        <v>1.097729020269974e+18</v>
-      </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ Port of Singapore https://t.co/mNsDl8xr3S</t>
-        </is>
-      </c>
-      <c r="D914" t="inlineStr">
-        <is>
-          <t>Friska_95</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
+        <v>43515.39851851852</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1.097791368150299e+18</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Memantau😎 @ Universal Studio, Sentosa Beach Singapore https://t.co/dgL03ruPjV</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>pril_minggukie</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>43515.22646990741</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1.097729020269974e+18</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Baru saja mengirim foto @ Port of Singapore https://t.co/mNsDl8xr3S</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Friska_95</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
         <v>43514.49896990741</v>
       </c>
-      <c r="B915" t="n">
+      <c r="B917" t="n">
         <v>1.097465383374574e+18</v>
       </c>
-      <c r="C915" t="inlineStr">
+      <c r="C917" t="inlineStr">
         <is>
           <t>Aku mengalah pada masalalu ,
 Tetapi aku tidak menyarah untuk masa depan 😃 @ HarbourFront Centre https://t.co/kgWrhkAzXt</t>
         </is>
       </c>
-      <c r="D915" t="inlineStr">
+      <c r="D917" t="inlineStr">
         <is>
           <t>pipitagustiin</t>
-        </is>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" s="2" t="n">
-        <v>43514.36803240741</v>
-      </c>
-      <c r="B916" t="n">
-        <v>1.097417931745415e+18</v>
-      </c>
-      <c r="C916" t="inlineStr">
-        <is>
-          <t>Yachting with Jyohana #yacht #privateyacht #keppelmarina @ Marina at Keppel Bay https://t.co/zxHaPdFe3b</t>
-        </is>
-      </c>
-      <c r="D916" t="inlineStr">
-        <is>
-          <t>andrewangsg</t>
-        </is>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" s="2" t="n">
-        <v>43514.34081018518</v>
-      </c>
-      <c r="B917" t="n">
-        <v>1.097408067069714e+18</v>
-      </c>
-      <c r="C917" t="inlineStr">
-        <is>
-          <t>I'm at Ichiban Boshi in Singapore https://t.co/CwjNszMFJ8</t>
-        </is>
-      </c>
-      <c r="D917" t="inlineStr">
-        <is>
-          <t>0000ksy</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
+        <v>43514.36803240741</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1.097417931745415e+18</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Yachting with Jyohana #yacht #privateyacht #keppelmarina @ Marina at Keppel Bay https://t.co/zxHaPdFe3b</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>andrewangsg</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>43514.34081018518</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1.097408067069714e+18</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>I'm at Ichiban Boshi in Singapore https://t.co/CwjNszMFJ8</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>0000ksy</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
         <v>43514.28959490741</v>
       </c>
-      <c r="B918" t="n">
+      <c r="B920" t="n">
         <v>1.097389506603344e+18</v>
       </c>
-      <c r="C918" t="inlineStr">
+      <c r="C920" t="inlineStr">
         <is>
           <t>Maaf , untuk urusan perasaan saya tidak bisa percaya pada siapapun sepenuhnya . 
 Semua orang berpotensi berubah dan menjadi asing , tiba - tiba . @ HarbourFront Centre https://t.co/R2yxASQ5PQ</t>
         </is>
       </c>
-      <c r="D918" t="inlineStr">
+      <c r="D920" t="inlineStr">
         <is>
           <t>pipitagustiin</t>
         </is>
       </c>
     </row>
-    <row r="919">
-      <c r="A919" s="2" t="n">
+    <row r="921">
+      <c r="A921" s="2" t="n">
         <v>43514.06561342593</v>
       </c>
-      <c r="B919" t="n">
+      <c r="B921" t="n">
         <v>1.097308339451634e+18</v>
       </c>
-      <c r="C919" t="inlineStr">
+      <c r="C921" t="inlineStr">
         <is>
           <t>Universal Studio Singapore 2019
 Nak repeat dengan geng sekolah menengah pulak lepasni! 🏰🇸🇬✨ @ Universal Studios Singapore https://t.co/2UuXSW0hjV</t>
         </is>
       </c>
-      <c r="D919" t="inlineStr">
+      <c r="D921" t="inlineStr">
         <is>
           <t>azlinramlee</t>
         </is>
       </c>
     </row>
-    <row r="920">
-      <c r="A920" s="2" t="n">
+    <row r="922">
+      <c r="A922" s="2" t="n">
         <v>43513.63439814815</v>
       </c>
-      <c r="B920" t="n">
+      <c r="B922" t="n">
         <v>1.097152071382356e+18</v>
       </c>
-      <c r="C920" t="inlineStr">
+      <c r="C922" t="inlineStr">
         <is>
           <t>4 tahun punya plan finally USS kami dh sampai ok NEXT @afizaahmad nk g mane? 
  #yayaholiday #yayavacation #yayabercuti #myvacation #myholiday #mycuti #myweekend #bilayayabercuti #Singapore… https://t.co/v3GcM3jcw4</t>
         </is>
       </c>
-      <c r="D920" t="inlineStr">
+      <c r="D922" t="inlineStr">
         <is>
           <t>yayazulkeffly</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" s="2" t="n">
-        <v>43513.56179398148</v>
-      </c>
-      <c r="B921" t="n">
-        <v>1.097125760693809e+18</v>
-      </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>Harapkan semangat ✊ Smoga terus cekal 🤲🏻 @ Marina at Keppel Bay https://t.co/FZVI4Y5386</t>
-        </is>
-      </c>
-      <c r="D921" t="inlineStr">
-        <is>
-          <t>MuhammadHfz_</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" s="2" t="n">
-        <v>43513.37524305555</v>
-      </c>
-      <c r="B922" t="n">
-        <v>1.097058158370005e+18</v>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/6aKEK8DjD8</t>
-        </is>
-      </c>
-      <c r="D922" t="inlineStr">
-        <is>
-          <t>YuTR0N</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
+        <v>43513.56179398148</v>
+      </c>
+      <c r="B923" t="n">
+        <v>1.097125760693809e+18</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Harapkan semangat ✊ Smoga terus cekal 🤲🏻 @ Marina at Keppel Bay https://t.co/FZVI4Y5386</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>MuhammadHfz_</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>43513.37524305555</v>
+      </c>
+      <c r="B924" t="n">
+        <v>1.097058158370005e+18</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/6aKEK8DjD8</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>YuTR0N</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
         <v>43513.20964120371</v>
       </c>
-      <c r="B923" t="n">
+      <c r="B925" t="n">
         <v>1.096998143575523e+18</v>
       </c>
-      <c r="C923" t="inlineStr">
+      <c r="C925" t="inlineStr">
         <is>
           <t>#ChooseYourFocus
 Harmony
 December 2016 @ Sentosa Island, Singapore https://t.co/lYeQVEHHpP</t>
         </is>
       </c>
-      <c r="D923" t="inlineStr">
+      <c r="D925" t="inlineStr">
         <is>
           <t>charrivas</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" s="2" t="n">
-        <v>43512.63472222222</v>
-      </c>
-      <c r="B924" t="n">
-        <v>1.096789801414447e+18</v>
-      </c>
-      <c r="C924" t="inlineStr">
-        <is>
-          <t>Sneak peek dulu 🤪 @ Universal Globe https://t.co/FI2wkDzU3p</t>
-        </is>
-      </c>
-      <c r="D924" t="inlineStr">
-        <is>
-          <t>farmirazakaria</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" s="2" t="n">
-        <v>43512.28646990741</v>
-      </c>
-      <c r="B925" t="n">
-        <v>1.096663596149273e+18</v>
-      </c>
-      <c r="C925" t="inlineStr">
-        <is>
-          <t>Hhahhahahaahhah “mamah””omg”hahahahahahaha https://t.co/dayrmXkYav</t>
-        </is>
-      </c>
-      <c r="D925" t="inlineStr">
-        <is>
-          <t>Ms_Korea_KJisoo</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>43511.63207175926</v>
+        <v>43512.63472222222</v>
       </c>
       <c r="B926" t="n">
-        <v>1.096426454215062e+18</v>
+        <v>1.096789801414447e+18</v>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Gak baik menyimpan dendam lama-lama. Untuk itu kita harus segera membalasnya 😂
-.
-.
-.
-.
-.
-#sentosa #singapore @ Sentosa Island, Singapore https://t.co/RY5IU0PSQE</t>
+          <t>Sneak peek dulu 🤪 @ Universal Globe https://t.co/FI2wkDzU3p</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>ronaldwilly9</t>
+          <t>farmirazakaria</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
+        <v>43512.28646990741</v>
+      </c>
+      <c r="B927" t="n">
+        <v>1.096663596149273e+18</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Hhahhahahaahhah “mamah””omg”hahahahahahaha https://t.co/dayrmXkYav</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>Ms_Korea_KJisoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>43511.63207175926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1.096426454215062e+18</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Gak baik menyimpan dendam lama-lama. Untuk itu kita harus segera membalasnya 😂
+.
+.
+.
+.
+.
+#sentosa #singapore @ Sentosa Island, Singapore https://t.co/RY5IU0PSQE</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>ronaldwilly9</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
         <v>43511.58679398148</v>
       </c>
-      <c r="B927" t="n">
+      <c r="B929" t="n">
         <v>1.096410043828695e+18</v>
       </c>
-      <c r="C927" t="inlineStr">
+      <c r="C929" t="inlineStr">
         <is>
           <t>Di bugis cuma makan, makannya juga sama kaya yg di changi cuma beda kuah aja pakai kuah kari 😂
 Langsung skip, lanjut vivo, main ke depan uss lanjut ke palawan beach niatnya catching sunset, tapi sun nya ketutup awan ._.
 Sekalian foto2 barang titipan 😂 https://t.co/XcUMQEmvjd</t>
         </is>
       </c>
-      <c r="D927" t="inlineStr">
+      <c r="D929" t="inlineStr">
         <is>
           <t>asyahlami</t>
         </is>
       </c>
     </row>
-    <row r="928">
-      <c r="A928" s="2" t="n">
+    <row r="930">
+      <c r="A930" s="2" t="n">
         <v>43510.45854166667</v>
       </c>
-      <c r="B928" t="n">
+      <c r="B930" t="n">
         <v>1.096001177983029e+18</v>
       </c>
-      <c r="C928" t="inlineStr">
+      <c r="C930" t="inlineStr">
         <is>
           <t>Ayam goreng pakai tepung grg pisang (@ Long John Silver's in Singapore) https://t.co/EdIcmDY0cq https://t.co/9vD74ZX8BL</t>
         </is>
       </c>
-      <c r="D928" t="inlineStr">
+      <c r="D930" t="inlineStr">
         <is>
           <t>TheNuarz</t>
         </is>
       </c>
     </row>
-    <row r="929">
-      <c r="A929" s="2" t="n">
+    <row r="931">
+      <c r="A931" s="2" t="n">
         <v>43510.3405787037</v>
       </c>
-      <c r="B929" t="n">
+      <c r="B931" t="n">
         <v>1.095958429930144e+18</v>
       </c>
-      <c r="C929" t="inlineStr">
+      <c r="C931" t="inlineStr">
         <is>
           <t>MasyaAllah, emejing guys..
 #latepost @ Sentosa Island, Singapore https://t.co/rllywE7Pku</t>
         </is>
       </c>
-      <c r="D929" t="inlineStr">
+      <c r="D931" t="inlineStr">
         <is>
           <t>alfianpriyos</t>
         </is>
       </c>
     </row>
-    <row r="930">
-      <c r="A930" s="2" t="n">
+    <row r="932">
+      <c r="A932" s="2" t="n">
         <v>43509.57508101852</v>
       </c>
-      <c r="B930" t="n">
+      <c r="B932" t="n">
         <v>1.095681022342005e+18</v>
       </c>
-      <c r="C930" t="inlineStr">
+      <c r="C932" t="inlineStr">
         <is>
           <t>Pa, Pa, Pa, Paaa, Pa, Pa, Pa, Pa, Paaa (Pam, Pam) Pa, Pa, Pa, Paaa, Pa, Pa, Pa, Pa, Paaa Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa, Pa Paaaaaaaaaaaaaaaaaaaaaaaaa a ak
  -The… https://t.co/lIxfBwwo8L</t>
         </is>
       </c>
-      <c r="D930" t="inlineStr">
+      <c r="D932" t="inlineStr">
         <is>
           <t>markfroicarbs</t>
         </is>
       </c>
     </row>
-    <row r="931">
-      <c r="A931" s="2" t="n">
+    <row r="933">
+      <c r="A933" s="2" t="n">
         <v>43508.18905092592</v>
       </c>
-      <c r="B931" t="n">
+      <c r="B933" t="n">
         <v>1.095178744640258e+18</v>
       </c>
-      <c r="C931" t="inlineStr">
+      <c r="C933" t="inlineStr">
         <is>
           <t>Alhamdulillah setidaknya pernah nyasar kesini 😅😅 @ Sentosa Island, Singapore https://t.co/JZmsMbGX5P</t>
         </is>
       </c>
-      <c r="D931" t="inlineStr">
+      <c r="D933" t="inlineStr">
         <is>
           <t>chininta_cinbil</t>
         </is>
       </c>
     </row>
-    <row r="932">
-      <c r="A932" s="2" t="n">
+    <row r="934">
+      <c r="A934" s="2" t="n">
         <v>43507.62549768519</v>
       </c>
-      <c r="B932" t="n">
+      <c r="B934" t="n">
         <v>1.094974520077636e+18</v>
       </c>
-      <c r="C932" t="inlineStr">
+      <c r="C934" t="inlineStr">
         <is>
           <t>Kalo sama gue itu kudu JUJUR diucapan harus sama dengan PERLAKUAN
 Jangan ngebaekin kalo akhirnya ngeanjingin dibelakang🤣 @ VivoCity Singapore https://t.co/K3bNfeXDsz</t>
         </is>
       </c>
-      <c r="D932" t="inlineStr">
+      <c r="D934" t="inlineStr">
         <is>
           <t>GraceAndreana06</t>
         </is>
       </c>
     </row>
-    <row r="933">
-      <c r="A933" s="2" t="n">
+    <row r="935">
+      <c r="A935" s="2" t="n">
         <v>43507.43615740741</v>
       </c>
-      <c r="B933" t="n">
+      <c r="B935" t="n">
         <v>1.094905904921698e+18</v>
       </c>
-      <c r="C933" t="inlineStr">
+      <c r="C935" t="inlineStr">
         <is>
           <t>Orang- orang hanya bisa mengerti namun tidak dengan memahami 😁 @ Palawan Beach Sentosa Island https://t.co/1116bcG2FJ</t>
         </is>
       </c>
-      <c r="D933" t="inlineStr">
+      <c r="D935" t="inlineStr">
         <is>
           <t>pipitagustiin</t>
         </is>
       </c>
     </row>
-    <row r="934">
-      <c r="A934" s="2" t="n">
+    <row r="936">
+      <c r="A936" s="2" t="n">
         <v>43507.37723379629</v>
       </c>
-      <c r="B934" t="n">
+      <c r="B936" t="n">
         <v>1.094884548712808e+18</v>
       </c>
-      <c r="C934" t="inlineStr">
+      <c r="C936" t="inlineStr">
         <is>
           <t>✍🏻 sendu... 
 perasaan yang sedih , bercampur dengan duka , 
 Biasanya dirasa ketika sendiri atau dilanda rindu .... @ Palawan Beach Sentosa Island https://t.co/YkKo8OiRAA</t>
         </is>
       </c>
-      <c r="D934" t="inlineStr">
+      <c r="D936" t="inlineStr">
         <is>
           <t>pipitagustiin</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" s="2" t="n">
-        <v>43507.36719907408</v>
-      </c>
-      <c r="B935" t="n">
-        <v>1.094880913698087e+18</v>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>Tersungkur yang membuatku bersyukur lebih baik ketimbang indah yang membuatku patah 😊 @ Palawan Beach Sentosa Island https://t.co/rTFFXdEhp3</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr">
-        <is>
-          <t>pipitagustiin</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" s="2" t="n">
-        <v>43507.06552083333</v>
-      </c>
-      <c r="B936" t="n">
-        <v>1.094771591383138e+18</v>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>Jgn lupa laik en sabskraib gais 😂 @ Universal Studios Singapore https://t.co/XQOhc7mP3o</t>
-        </is>
-      </c>
-      <c r="D936" t="inlineStr">
-        <is>
-          <t>mbbe_mbbi</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>43506.62231481481</v>
+        <v>43507.36719907408</v>
       </c>
       <c r="B937" t="n">
-        <v>1.094610977587266e+18</v>
+        <v>1.094880913698087e+18</v>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>dah la tergantung, high speed rollercoaster,tercabut jantung jap😪😪 @ Battlestar Galactica: Human vs. Cylon https://t.co/RHUaAjYJ2J</t>
+          <t>Tersungkur yang membuatku bersyukur lebih baik ketimbang indah yang membuatku patah 😊 @ Palawan Beach Sentosa Island https://t.co/rTFFXdEhp3</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>yazrin4y</t>
+          <t>pipitagustiin</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
+        <v>43507.06552083333</v>
+      </c>
+      <c r="B938" t="n">
+        <v>1.094771591383138e+18</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Jgn lupa laik en sabskraib gais 😂 @ Universal Studios Singapore https://t.co/XQOhc7mP3o</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>mbbe_mbbi</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>43506.62231481481</v>
+      </c>
+      <c r="B939" t="n">
+        <v>1.094610977587266e+18</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>dah la tergantung, high speed rollercoaster,tercabut jantung jap😪😪 @ Battlestar Galactica: Human vs. Cylon https://t.co/RHUaAjYJ2J</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>yazrin4y</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
         <v>43506.46372685185</v>
       </c>
-      <c r="B938" t="n">
+      <c r="B940" t="n">
         <v>1.094553508055986e+18</v>
       </c>
-      <c r="C938" t="inlineStr">
+      <c r="C940" t="inlineStr">
         <is>
           <t>Ctrl+c; Ctrl+v 🤯
 #meganjoseph @ VivoCity Singapore https://t.co/wZhv1qL47x</t>
         </is>
       </c>
-      <c r="D938" t="inlineStr">
+      <c r="D940" t="inlineStr">
         <is>
           <t>estherachel</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" s="2" t="n">
-        <v>43506.33981481481</v>
-      </c>
-      <c r="B939" t="n">
-        <v>1.094508602763559e+18</v>
-      </c>
-      <c r="C939" t="inlineStr">
-        <is>
-          <t>Bismillah. Semoga lancar selama perjalanan https://t.co/wgkqG8uafm</t>
-        </is>
-      </c>
-      <c r="D939" t="inlineStr">
-        <is>
-          <t>Dvafriansyah</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" s="2" t="n">
-        <v>43506.17048611111</v>
-      </c>
-      <c r="B940" t="n">
-        <v>1.09444724081347e+18</v>
-      </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>Jadilah BAIK jika ingin dibersamakan dengan yang BAIK. Apa-apa yang bersamamu itulah cerminan dirimu 😇
-.
-.
-.
-.
-.
-#singapore #instadaily #holiday #instatravel #loveyourself #instastyle… https://t.co/xwGOMoCA5G</t>
-        </is>
-      </c>
-      <c r="D940" t="inlineStr">
-        <is>
-          <t>fridaaurora</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
+        <v>43506.33981481481</v>
+      </c>
+      <c r="B941" t="n">
+        <v>1.094508602763559e+18</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Bismillah. Semoga lancar selama perjalanan https://t.co/wgkqG8uafm</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Dvafriansyah</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>43506.17048611111</v>
+      </c>
+      <c r="B942" t="n">
+        <v>1.09444724081347e+18</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Jadilah BAIK jika ingin dibersamakan dengan yang BAIK. Apa-apa yang bersamamu itulah cerminan dirimu 😇
+.
+.
+.
+.
+.
+#singapore #instadaily #holiday #instatravel #loveyourself #instastyle… https://t.co/xwGOMoCA5G</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>fridaaurora</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
         <v>43505.6583912037</v>
       </c>
-      <c r="B941" t="n">
+      <c r="B943" t="n">
         <v>1.09426166377832e+18</v>
       </c>
-      <c r="C941" t="inlineStr">
+      <c r="C943" t="inlineStr">
         <is>
           <t>Masih ada kata-kata yang terangkai menjadi rima;
 Masih ada tinta pena tak kenal lelah menulis hingga senja;
 Dan, masih ada nalar yang dapat kita ajak kerjasama dalam mencipta… https://t.co/HgpRL8pEoi</t>
         </is>
       </c>
-      <c r="D941" t="inlineStr">
+      <c r="D943" t="inlineStr">
         <is>
           <t>Jurnal_isme</t>
         </is>
       </c>
     </row>
-    <row r="942">
-      <c r="A942" s="2" t="n">
+    <row r="944">
+      <c r="A944" s="2" t="n">
         <v>43505.63289351852</v>
       </c>
-      <c r="B942" t="n">
+      <c r="B944" t="n">
         <v>1.094252424351621e+18</v>
       </c>
-      <c r="C942" t="inlineStr">
+      <c r="C944" t="inlineStr">
         <is>
           <t>Sepakbola dan ambisiku yang membawaku kesini 🇸🇬
 .
@@ -18321,296 +18357,296 @@
 #liburankecilkaumkusam… https://t.co/dLd6pV3Ahk</t>
         </is>
       </c>
-      <c r="D942" t="inlineStr">
+      <c r="D944" t="inlineStr">
         <is>
           <t>novalwilliam_</t>
         </is>
       </c>
     </row>
-    <row r="943">
-      <c r="A943" s="2" t="n">
+    <row r="945">
+      <c r="A945" s="2" t="n">
         <v>43504.5165162037</v>
       </c>
-      <c r="B943" t="n">
+      <c r="B945" t="n">
         <v>1.093847861203067e+18</v>
       </c>
-      <c r="C943" t="inlineStr">
+      <c r="C945" t="inlineStr">
         <is>
           <t>Mung iso nyawang wong Korea ayu" .</t>
         </is>
       </c>
-      <c r="D943" t="inlineStr">
+      <c r="D945" t="inlineStr">
         <is>
           <t>atantowiibrahim</t>
         </is>
       </c>
     </row>
-    <row r="944">
-      <c r="A944" s="2" t="n">
+    <row r="946">
+      <c r="A946" s="2" t="n">
         <v>43503.61381944444</v>
       </c>
-      <c r="B944" t="n">
+      <c r="B946" t="n">
         <v>1.093520735484723e+18</v>
       </c>
-      <c r="C944" t="inlineStr">
+      <c r="C946" t="inlineStr">
         <is>
           <t>Salah satu yang tertulis di dalam vision board yang Alhamdulillah terealisasi awal tahun ini.
 Kata mas  @valentfun21  dalam bukunya #DreamingBIG "Tulislah impianmu seketika kamu akan… https://t.co/p1QqARqJ9A</t>
         </is>
       </c>
-      <c r="D944" t="inlineStr">
+      <c r="D946" t="inlineStr">
         <is>
           <t>NandyaTiara</t>
         </is>
       </c>
     </row>
-    <row r="945">
-      <c r="A945" s="2" t="n">
+    <row r="947">
+      <c r="A947" s="2" t="n">
         <v>43503.24456018519</v>
       </c>
-      <c r="B945" t="n">
+      <c r="B947" t="n">
         <v>1.093386918140625e+18</v>
       </c>
-      <c r="C945" t="inlineStr">
+      <c r="C947" t="inlineStr">
         <is>
           <t>Moga dapat kuhadap tikaman dari belakang, lidah setajam pisau, ku tidak akan risau, dengan dugaan, cabaran, sepanjang perjalanan, ku pasrah, ku akur,… https://t.co/8qBJF5JDB5</t>
         </is>
       </c>
-      <c r="D945" t="inlineStr">
+      <c r="D947" t="inlineStr">
         <is>
           <t>hilmipuzi_</t>
         </is>
       </c>
     </row>
-    <row r="946">
-      <c r="A946" s="2" t="n">
+    <row r="948">
+      <c r="A948" s="2" t="n">
         <v>43502.45047453704</v>
       </c>
-      <c r="B946" t="n">
+      <c r="B948" t="n">
         <v>1.093099154664915e+18</v>
       </c>
-      <c r="C946" t="inlineStr">
+      <c r="C948" t="inlineStr">
         <is>
           <t>Di baga nga, apat dapat. 😜😂 Gong Xi Fa Cai, day 2! 🎉🐷 
 #ootd #selfies #uss #hollywood #holiday #cny2019 @ Universal Studios Singapore https://t.co/ZKIUWvLwBl</t>
         </is>
       </c>
-      <c r="D946" t="inlineStr">
+      <c r="D948" t="inlineStr">
         <is>
           <t>iambrenda13</t>
         </is>
       </c>
     </row>
-    <row r="947">
-      <c r="A947" s="2" t="n">
+    <row r="949">
+      <c r="A949" s="2" t="n">
         <v>43502.29878472222</v>
       </c>
-      <c r="B947" t="n">
+      <c r="B949" t="n">
         <v>1.093044181638005e+18</v>
       </c>
-      <c r="C947" t="inlineStr">
+      <c r="C949" t="inlineStr">
         <is>
           <t>Ngombe Es Teh Gelas Gede!!
 Memang terbaik.!!
 Bareng Mas-mas Ganteng panutanq!! @ VivoCity Singapore https://t.co/vMVYbJTXgr</t>
         </is>
       </c>
-      <c r="D947" t="inlineStr">
+      <c r="D949" t="inlineStr">
         <is>
           <t>Loh_Rudy</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" s="2" t="n">
-        <v>43501.55474537037</v>
-      </c>
-      <c r="B948" t="n">
-        <v>1.09277455048661e+18</v>
-      </c>
-      <c r="C948" t="inlineStr">
-        <is>
-          <t>Tempat sama - lain timing #qisshortbreak #cuticutiluarmalaysia @ Universal Studios Singapore https://t.co/QIM2XYd4TU</t>
-        </is>
-      </c>
-      <c r="D948" t="inlineStr">
-        <is>
-          <t>begplastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" s="2" t="n">
-        <v>43501.49303240741</v>
-      </c>
-      <c r="B949" t="n">
-        <v>1.09275218583269e+18</v>
-      </c>
-      <c r="C949" t="inlineStr">
-        <is>
-          <t>Aku tidak sengaja dibawa ke tempat ini oleh tour guide dan akhirnya aku mengerti mmg dunia casino baik di Singapore maupun di Malaysia adalah riil dan "dilegalkan" bahkan dlm bentul… https://t.co/qsOxA0tRDx</t>
-        </is>
-      </c>
-      <c r="D949" t="inlineStr">
-        <is>
-          <t>akhlisnur</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>43501.45164351852</v>
+        <v>43501.55474537037</v>
       </c>
       <c r="B950" t="n">
-        <v>1.092737189002207e+18</v>
+        <v>1.09277455048661e+18</v>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Liburan Imlek kamu kemana? Jika ingin merayakan di negara tetangga, Singapura, jangan sampai nggak mampir ke S.E.A. Aquarium. Nikmati atraksi menarik dari tarian naga bawah laut dan… https://t.co/sYVn1Xo8j5</t>
+          <t>Tempat sama - lain timing #qisshortbreak #cuticutiluarmalaysia @ Universal Studios Singapore https://t.co/QIM2XYd4TU</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>Nusantara_tours</t>
+          <t>begplastic</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>43501.36349537037</v>
+        <v>43501.49303240741</v>
       </c>
       <c r="B951" t="n">
-        <v>1.09270524337091e+18</v>
+        <v>1.09275218583269e+18</v>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Kau Akn trase Tua once tertanye2 y a lot ppl take photo att USS Globe.💁‍♂️🙄 https://t.co/5BvlpmnJs0</t>
+          <t>Aku tidak sengaja dibawa ke tempat ini oleh tour guide dan akhirnya aku mengerti mmg dunia casino baik di Singapore maupun di Malaysia adalah riil dan "dilegalkan" bahkan dlm bentul… https://t.co/qsOxA0tRDx</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>zul1584</t>
+          <t>akhlisnur</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>43501.25917824074</v>
+        <v>43501.45164351852</v>
       </c>
       <c r="B952" t="n">
-        <v>1.092667443288265e+18</v>
+        <v>1.092737189002207e+18</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>edisi part time jadi tukang es. :v #latepost @ Universal Studio, Sentosa Beach Singapore https://t.co/cfEcGbMjls</t>
+          <t>Liburan Imlek kamu kemana? Jika ingin merayakan di negara tetangga, Singapura, jangan sampai nggak mampir ke S.E.A. Aquarium. Nikmati atraksi menarik dari tarian naga bawah laut dan… https://t.co/sYVn1Xo8j5</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>harajukakei</t>
+          <t>Nusantara_tours</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
+        <v>43501.36349537037</v>
+      </c>
+      <c r="B953" t="n">
+        <v>1.09270524337091e+18</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Kau Akn trase Tua once tertanye2 y a lot ppl take photo att USS Globe.💁‍♂️🙄 https://t.co/5BvlpmnJs0</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>zul1584</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>43501.25917824074</v>
+      </c>
+      <c r="B954" t="n">
+        <v>1.092667443288265e+18</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>edisi part time jadi tukang es. :v #latepost @ Universal Studio, Sentosa Beach Singapore https://t.co/cfEcGbMjls</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>harajukakei</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
         <v>43500.57844907408</v>
       </c>
-      <c r="B953" t="n">
+      <c r="B955" t="n">
         <v>1.092420754556183e+18</v>
       </c>
-      <c r="C953" t="inlineStr">
+      <c r="C955" t="inlineStr">
         <is>
           <t>LIBRARY
 Jangan salah dalam kapal pesiar Voyager of the seas terdapat pula perpustakaan tak tanggung tanggung 2 lantai. Yang berisi berbagai buku berbagai bahasa serta layanan internet.… https://t.co/vzZmLtMp0L</t>
         </is>
       </c>
-      <c r="D953" t="inlineStr">
+      <c r="D955" t="inlineStr">
         <is>
           <t>besamyono</t>
         </is>
       </c>
     </row>
-    <row r="954">
-      <c r="A954" s="2" t="n">
+    <row r="956">
+      <c r="A956" s="2" t="n">
         <v>43500.2472337963</v>
       </c>
-      <c r="B954" t="n">
+      <c r="B956" t="n">
         <v>1.092300725886087e+18</v>
       </c>
-      <c r="C954" t="inlineStr">
+      <c r="C956" t="inlineStr">
         <is>
           <t>THE CAFE
 Selayaknya sebuah mall di dalam kapal pesiar Voyager of the seas bertebaran beberapa cafe dan restaurant tematik yang cukup nyaman dan unik. Kebanyakan cafe ini terletak di area… https://t.co/shXUIxJpHe</t>
         </is>
       </c>
-      <c r="D954" t="inlineStr">
+      <c r="D956" t="inlineStr">
         <is>
           <t>besamyono</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" s="2" t="n">
-        <v>43500.16270833334</v>
-      </c>
-      <c r="B955" t="n">
-        <v>1.092270093185229e+18</v>
-      </c>
-      <c r="C955" t="inlineStr">
-        <is>
-          <t>Kerja keras 👷🏼‍♂️ @ Universal Studio, Sentosa Beach Singapore https://t.co/7Wo4zcW2d5</t>
-        </is>
-      </c>
-      <c r="D955" t="inlineStr">
-        <is>
-          <t>AdiAlwaysHungry</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" s="2" t="n">
-        <v>43499.63670138889</v>
-      </c>
-      <c r="B956" t="n">
-        <v>1.092079476580659e+18</v>
-      </c>
-      <c r="C956" t="inlineStr">
-        <is>
-          <t>HAPPY 21st BIRTHDAY TO ME! Ngayon ko napatunayan na hindi rin pala talaga ganoon kasaya kahit nasa masayang lugar ka kung magisa ka parang ang lungkot pa rin hahaha lol thank you sa lahat ng bumati at babati pa lang tumatanggap pa rin po ako ng REGALO HAHAHAHA https://t.co/IU0cHqwb6V</t>
-        </is>
-      </c>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t>iamjamesteng</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>43499.49853009259</v>
+        <v>43500.16270833334</v>
       </c>
       <c r="B957" t="n">
-        <v>1.0920294042204e+18</v>
+        <v>1.092270093185229e+18</v>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Mi band hilang zzz. Pengakhiran yg falafak (@ Universal Studios Singapore - @rwsentosa in Sentosa Island, Singapore) https://t.co/HLsjHdi1B7</t>
+          <t>Kerja keras 👷🏼‍♂️ @ Universal Studio, Sentosa Beach Singapore https://t.co/7Wo4zcW2d5</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>akmal_luff</t>
+          <t>AdiAlwaysHungry</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
+        <v>43499.63670138889</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1.092079476580659e+18</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>HAPPY 21st BIRTHDAY TO ME! Ngayon ko napatunayan na hindi rin pala talaga ganoon kasaya kahit nasa masayang lugar ka kung magisa ka parang ang lungkot pa rin hahaha lol thank you sa lahat ng bumati at babati pa lang tumatanggap pa rin po ako ng REGALO HAHAHAHA https://t.co/IU0cHqwb6V</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>iamjamesteng</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>43499.49853009259</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1.0920294042204e+18</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Mi band hilang zzz. Pengakhiran yg falafak (@ Universal Studios Singapore - @rwsentosa in Sentosa Island, Singapore) https://t.co/HLsjHdi1B7</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>akmal_luff</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
         <v>43499.38939814815</v>
       </c>
-      <c r="B958" t="n">
+      <c r="B960" t="n">
         <v>1.091989857038e+18</v>
       </c>
-      <c r="C958" t="inlineStr">
+      <c r="C960" t="inlineStr">
         <is>
           <t>Jenk jenk ma krucils 
 #holiday 
@@ -18619,134 +18655,134 @@
 #harikejepitnasional @ Sentosa Island, Singapore https://t.co/VBxlpCdEou</t>
         </is>
       </c>
-      <c r="D958" t="inlineStr">
+      <c r="D960" t="inlineStr">
         <is>
           <t>khaula_K47</t>
-        </is>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" s="2" t="n">
-        <v>43498.46571759259</v>
-      </c>
-      <c r="B959" t="n">
-        <v>1.091655123733041e+18</v>
-      </c>
-      <c r="C959" t="inlineStr">
-        <is>
-          <t>Abang bawak dunia untuk awak (@ Sentosa Island in Singapore) https://t.co/bw6LeGd6AJ https://t.co/Inpl88kZ1H</t>
-        </is>
-      </c>
-      <c r="D959" t="inlineStr">
-        <is>
-          <t>muhammadhamir</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" s="2" t="n">
-        <v>43498.43040509259</v>
-      </c>
-      <c r="B960" t="n">
-        <v>1.091642328698237e+18</v>
-      </c>
-      <c r="C960" t="inlineStr">
-        <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/7hPJL6MOni</t>
-        </is>
-      </c>
-      <c r="D960" t="inlineStr">
-        <is>
-          <t>Firdaussora</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
+        <v>43498.46571759259</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1.091655123733041e+18</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Abang bawak dunia untuk awak (@ Sentosa Island in Singapore) https://t.co/bw6LeGd6AJ https://t.co/Inpl88kZ1H</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>muhammadhamir</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>43498.43040509259</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1.091642328698237e+18</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/7hPJL6MOni</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>Firdaussora</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
         <v>43498.41607638889</v>
       </c>
-      <c r="B961" t="n">
+      <c r="B963" t="n">
         <v>1.091637134392324e+18</v>
       </c>
-      <c r="C961" t="inlineStr">
+      <c r="C963" t="inlineStr">
         <is>
           <t>Kita keliling2 cari nasi ayam, lanjut makan ayam penyet. Mau tau aja.. penasaran soalnya. 
 Bener gk harga nasi ayam dan ayam penyet di sini lebih murah dari di Indonesia.
 Ehh setelah kita cek, ternyata tetep aja ah.. lebih murah di Indonesia. #OrangPintarMenangkanJokowi #PKPI https://t.co/AINJ4tzQlx</t>
         </is>
       </c>
-      <c r="D961" t="inlineStr">
+      <c r="D963" t="inlineStr">
         <is>
           <t>Singgih_Sahid</t>
         </is>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" s="2" t="n">
+    <row r="964">
+      <c r="A964" s="2" t="n">
         <v>43498.35107638889</v>
       </c>
-      <c r="B962" t="n">
+      <c r="B964" t="n">
         <v>1.091613581576192e+18</v>
       </c>
-      <c r="C962" t="inlineStr">
+      <c r="C964" t="inlineStr">
         <is>
           <t>Forum Edukasi Trip to Singapore... 
 Belajar banyak dari negara ini..
 Lingkungannya bersih, tertata, teratur, dan culture disiplinnya yg tingkat tinggi,… https://t.co/0YoXYxZhY3</t>
         </is>
       </c>
-      <c r="D962" t="inlineStr">
+      <c r="D964" t="inlineStr">
         <is>
           <t>Sabtiyunia</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" s="2" t="n">
-        <v>43497.9765162037</v>
-      </c>
-      <c r="B963" t="n">
-        <v>1.091477844956512e+18</v>
-      </c>
-      <c r="C963" t="inlineStr">
-        <is>
-          <t>terlajak lak dah (@ Universal Studios Singapore - @rwsentosa in Sentosa Island, Singapore) https://t.co/Qtks0rnCb3</t>
-        </is>
-      </c>
-      <c r="D963" t="inlineStr">
-        <is>
-          <t>Hazimthat</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" s="2" t="n">
-        <v>43497.70005787037</v>
-      </c>
-      <c r="B964" t="n">
-        <v>1.091377661312725e+18</v>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>NEW ADDICTION.
-.
-"Kalah bau cedarwood" kata suamiku. Eo ni Import dari seberang tambak. Kt Malaysia takde minyak ni😍 if you think you're less progressive,… https://t.co/0Rb0HwA2io</t>
-        </is>
-      </c>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>Amiraamea</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
+        <v>43497.9765162037</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1.091477844956512e+18</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>terlajak lak dah (@ Universal Studios Singapore - @rwsentosa in Sentosa Island, Singapore) https://t.co/Qtks0rnCb3</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>Hazimthat</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>43497.70005787037</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1.091377661312725e+18</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>NEW ADDICTION.
+.
+"Kalah bau cedarwood" kata suamiku. Eo ni Import dari seberang tambak. Kt Malaysia takde minyak ni😍 if you think you're less progressive,… https://t.co/0Rb0HwA2io</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>Amiraamea</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
         <v>43497.32165509259</v>
       </c>
-      <c r="B965" t="n">
+      <c r="B967" t="n">
         <v>1.091240530749477e+18</v>
       </c>
-      <c r="C965" t="inlineStr">
+      <c r="C967" t="inlineStr">
         <is>
           <t>Awalnya Coba-Coba, eh.. ternyata dikasih menang, ya lumayanlah buat beli mekdi😍😍😍
 12-01-19
@@ -18756,136 +18792,136 @@
 #latepost #casino #casinoroyale #casinonight #win #gambling #gambler #holiday #traveling… https://t.co/Aqc3B2iATt</t>
         </is>
       </c>
-      <c r="D965" t="inlineStr">
+      <c r="D967" t="inlineStr">
         <is>
           <t>YongLeeHan</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" s="2" t="n">
-        <v>43497.30429398148</v>
-      </c>
-      <c r="B966" t="n">
-        <v>1.091234238748414e+18</v>
-      </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>Nti sis sambung story dan pict lain. Sbb tu, hari pertama saja. Dlm galeri, ada byk sgt gmbr. IG ni, limit 10 je, so sis trpksa plh memilih. And bla check balik, ada x msuk. (Sis kena edit… https://t.co/viwP8DUphm</t>
-        </is>
-      </c>
-      <c r="D966" t="inlineStr">
-        <is>
-          <t>TienaNor</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" s="2" t="n">
-        <v>43497.28085648148</v>
-      </c>
-      <c r="B967" t="n">
-        <v>1.091225747073786e+18</v>
-      </c>
-      <c r="C967" t="inlineStr">
-        <is>
-          <t>Kemana Singanya?
-.
-Sekilas info, ternyata ada 5 Singa di negara Singapura.
-.
-Singa laut sih tepatnya aka Merlion. Ada lima patung resmi Merlions di Singapura. Dua di antaranya terletak di… https://t.co/evBcLon9zO</t>
-        </is>
-      </c>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>scoty_and</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
+        <v>43497.30429398148</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1.091234238748414e+18</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Nti sis sambung story dan pict lain. Sbb tu, hari pertama saja. Dlm galeri, ada byk sgt gmbr. IG ni, limit 10 je, so sis trpksa plh memilih. And bla check balik, ada x msuk. (Sis kena edit… https://t.co/viwP8DUphm</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>TienaNor</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>43497.28085648148</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1.091225747073786e+18</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Kemana Singanya?
+.
+Sekilas info, ternyata ada 5 Singa di negara Singapura.
+.
+Singa laut sih tepatnya aka Merlion. Ada lima patung resmi Merlions di Singapura. Dua di antaranya terletak di… https://t.co/evBcLon9zO</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>scoty_and</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
         <v>43497.25300925926</v>
       </c>
-      <c r="B968" t="n">
+      <c r="B970" t="n">
         <v>1.091215653825061e+18</v>
       </c>
-      <c r="C968" t="inlineStr">
+      <c r="C970" t="inlineStr">
         <is>
           <t>#tbt❤️ #swipeleft⬅️ #Part3 
 Btw, sis x pegi sorg tau. Sebenarnya, ada cerita dsebalik sume ni. Tp, uolls ready x ni nk baca? Hehehe... (sis suka bg karangan. Dlu, sis dpt A dlm karangan.… https://t.co/nwkku7MBak</t>
         </is>
       </c>
-      <c r="D968" t="inlineStr">
+      <c r="D970" t="inlineStr">
         <is>
           <t>TienaNor</t>
         </is>
       </c>
     </row>
-    <row r="969">
-      <c r="A969" s="2" t="n">
+    <row r="971">
+      <c r="A971" s="2" t="n">
         <v>43497.21895833333</v>
       </c>
-      <c r="B969" t="n">
+      <c r="B971" t="n">
         <v>1.091203315965354e+18</v>
       </c>
-      <c r="C969" t="inlineStr">
+      <c r="C971" t="inlineStr">
         <is>
           <t>#tbt❤️ #swipeleft⬅️ #Part2 
 Dlm store diorg pn comel2. Ok, ni pn ada yg frust la. Bkn pe, d USS dia ada store utk sesuatu character cartoon ni. Ada #SesameStreet #Minions dll. First jupe,… https://t.co/2OeXDFVD8e</t>
         </is>
       </c>
-      <c r="D969" t="inlineStr">
+      <c r="D971" t="inlineStr">
         <is>
           <t>TienaNor</t>
         </is>
       </c>
     </row>
-    <row r="970">
-      <c r="A970" s="2" t="n">
+    <row r="972">
+      <c r="A972" s="2" t="n">
         <v>43497.21626157407</v>
       </c>
-      <c r="B970" t="n">
+      <c r="B972" t="n">
         <v>1.091202337983656e+18</v>
       </c>
-      <c r="C970" t="inlineStr">
+      <c r="C972" t="inlineStr">
         <is>
           <t>#tbt❤️ #swipeleft⬅️ #Part2 
 Dlm store diorg pn comel2. Ok, ni pn ada yg frust la. Bkn pe, d USS dia ada store utk sesuatu character cartoon ni. Ada #SesameStreet #Minions dll. First jupe,… https://t.co/8kAVWXKANv</t>
         </is>
       </c>
-      <c r="D970" t="inlineStr">
+      <c r="D972" t="inlineStr">
         <is>
           <t>TienaNor</t>
         </is>
       </c>
     </row>
-    <row r="971">
-      <c r="A971" s="2" t="n">
+    <row r="973">
+      <c r="A973" s="2" t="n">
         <v>43497.19300925926</v>
       </c>
-      <c r="B971" t="n">
+      <c r="B973" t="n">
         <v>1.091193913002639e+18</v>
       </c>
-      <c r="C971" t="inlineStr">
+      <c r="C973" t="inlineStr">
         <is>
           <t>#tbt❤️ #swipeleft⬅️ #Part1 #gambarsorg
 Assalam, bru nk terobek percutian singkat sempena birthday ri tu. Jgn mara ha! Spam ur timeline jap. #alhamdulillah😇 syukur ke hadrat ilahi.. sampai… https://t.co/Qr48d7DyPG</t>
         </is>
       </c>
-      <c r="D971" t="inlineStr">
+      <c r="D973" t="inlineStr">
         <is>
           <t>TienaNor</t>
         </is>
       </c>
     </row>
-    <row r="972">
-      <c r="A972" s="2" t="n">
+    <row r="974">
+      <c r="A974" s="2" t="n">
         <v>43497.11907407407</v>
       </c>
-      <c r="B972" t="n">
+      <c r="B974" t="n">
         <v>1.09116711722181e+18</v>
       </c>
-      <c r="C972" t="inlineStr">
+      <c r="C974" t="inlineStr">
         <is>
           <t>Biasanya cuman liat foto-foto org disini, akhirnya bisa juga foto disini😅😅😅 
 11-01-19
@@ -18895,95 +18931,95 @@
 #latepost #universalstudios #singapore #holiday #livetotravel #universal #bigbadminton #chubby… https://t.co/FrelpE0IQV</t>
         </is>
       </c>
-      <c r="D972" t="inlineStr">
+      <c r="D974" t="inlineStr">
         <is>
           <t>YongLeeHan</t>
         </is>
       </c>
     </row>
-    <row r="973">
-      <c r="A973" s="2" t="n">
+    <row r="975">
+      <c r="A975" s="2" t="n">
         <v>43496.19762731482</v>
       </c>
-      <c r="B973" t="n">
+      <c r="B975" t="n">
         <v>1.090833195510235e+18</v>
       </c>
-      <c r="C973" t="inlineStr">
+      <c r="C975" t="inlineStr">
         <is>
           <t>Untung bukan Aqua.
 .
 Iya untung bukan air mineral yg satu ini. Selama liburan di #singapore kemarin, air mineral merupakan termasuk penyumbang uang keluar selama melakukan aktifitas… https://t.co/Z4wP8DjTdZ</t>
         </is>
       </c>
-      <c r="D973" t="inlineStr">
+      <c r="D975" t="inlineStr">
         <is>
           <t>scoty_and</t>
         </is>
       </c>
     </row>
-    <row r="974">
-      <c r="A974" s="2" t="n">
+    <row r="976">
+      <c r="A976" s="2" t="n">
         <v>43494.56015046296</v>
       </c>
-      <c r="B974" t="n">
+      <c r="B976" t="n">
         <v>1.090239793710035e+18</v>
       </c>
-      <c r="C974" t="inlineStr">
+      <c r="C976" t="inlineStr">
         <is>
           <t>And....cuttt!! Selesai sudah pengambilan gambar untuk program baru di kanal Youtube @InfoGeospasial. 
 Yang belum subscribe, buruan subscribe dan jangan lupa juga untuk klik tanda… https://t.co/r3qBj0OPZj</t>
         </is>
       </c>
-      <c r="D974" t="inlineStr">
+      <c r="D976" t="inlineStr">
         <is>
           <t>AkbarHiznuM</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" s="2" t="n">
-        <v>43494.11329861111</v>
-      </c>
-      <c r="B975" t="n">
-        <v>1.090077861078131e+18</v>
-      </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>Cekrek² sikit @ HarbourFront Centre https://t.co/xglv3ceEtw</t>
-        </is>
-      </c>
-      <c r="D975" t="inlineStr">
-        <is>
-          <t>te6uh_</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" s="2" t="n">
-        <v>43493.53358796296</v>
-      </c>
-      <c r="B976" t="n">
-        <v>1.089867781284065e+18</v>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>nakita ko na rin sa wakas ang merlion ng Singapore 😊 https://t.co/WsesNIRkxc</t>
-        </is>
-      </c>
-      <c r="D976" t="inlineStr">
-        <is>
-          <t>ZZzena_minyeon</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
+        <v>43494.11329861111</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1.090077861078131e+18</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Cekrek² sikit @ HarbourFront Centre https://t.co/xglv3ceEtw</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>te6uh_</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>43493.53358796296</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1.089867781284065e+18</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>nakita ko na rin sa wakas ang merlion ng Singapore 😊 https://t.co/WsesNIRkxc</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>ZZzena_minyeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
         <v>43491.53013888889</v>
       </c>
-      <c r="B977" t="n">
+      <c r="B979" t="n">
         <v>1.089141756564853e+18</v>
       </c>
-      <c r="C977" t="inlineStr">
+      <c r="C979" t="inlineStr">
         <is>
           <t>#Repost drainbow.tourtravel (get_repost)
 ・・・
@@ -18991,464 +19027,464 @@
 D'Rainbow Tour &amp;amp; Travel "make your… https://t.co/9SzbnKMnd2</t>
         </is>
       </c>
-      <c r="D977" t="inlineStr">
+      <c r="D979" t="inlineStr">
         <is>
           <t>bagus_vanjalu</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" s="2" t="n">
-        <v>43491.5108912037</v>
-      </c>
-      <c r="B978" t="n">
-        <v>1.08913477936932e+18</v>
-      </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>i'm back bij ! #PiskeniJenjalan @ Universal Studio, Sentosa Beach Singapore https://t.co/WLWMFNzXEs</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr">
-        <is>
-          <t>hafizkenny</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" s="2" t="n">
-        <v>43491.50158564815</v>
-      </c>
-      <c r="B979" t="n">
-        <v>1.089131408516362e+18</v>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>Setelah gagal dari lima taun yg lalu kesampean maen sepuasnya ampe ujan gerimis mengundang. 👌👌👌 https://t.co/ogPBQsa8tA</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr">
-        <is>
-          <t>rizkimahardika</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>43491.48738425926</v>
+        <v>43491.5108912037</v>
       </c>
       <c r="B980" t="n">
-        <v>1.089126261983773e+18</v>
+        <v>1.08913477936932e+18</v>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/lhrV7Pizkw</t>
+          <t>i'm back bij ! #PiskeniJenjalan @ Universal Studio, Sentosa Beach Singapore https://t.co/WLWMFNzXEs</t>
         </is>
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>pirsquareff</t>
+          <t>hafizkenny</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>43491.4728587963</v>
+        <v>43491.50158564815</v>
       </c>
       <c r="B981" t="n">
-        <v>1.089120999289876e+18</v>
+        <v>1.089131408516362e+18</v>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Masih disini. Byk tak ride lagi (@ The Lost World | Jurassic Park in Sentosa Island, Singapore) https://t.co/1JHAA7LiCK</t>
+          <t>Setelah gagal dari lima taun yg lalu kesampean maen sepuasnya ampe ujan gerimis mengundang. 👌👌👌 https://t.co/ogPBQsa8tA</t>
         </is>
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>anemazmey</t>
+          <t>rizkimahardika</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>43491.28082175926</v>
+        <v>43491.48738425926</v>
       </c>
       <c r="B982" t="n">
-        <v>1.089051404306706e+18</v>
+        <v>1.089126261983773e+18</v>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>Little escape from reality
-.
-.
-.
-Kalo film ada crazy rich, kita mah apa atuh cuma crazy sengklek atau crazy nekat, dimana kalo mau melakukan sesuatu tanpa berpikir panjang yang penting… https://t.co/E3YbewlFq1</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/lhrV7Pizkw</t>
         </is>
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>faaardib</t>
+          <t>pirsquareff</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>43491.26643518519</v>
+        <v>43491.4728587963</v>
       </c>
       <c r="B983" t="n">
-        <v>1.089046193294975e+18</v>
+        <v>1.089120999289876e+18</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>I'm at Encik Tan in Telok Blangah, Singapore https://t.co/Cf8O3b8Wzd</t>
+          <t>Masih disini. Byk tak ride lagi (@ The Lost World | Jurassic Park in Sentosa Island, Singapore) https://t.co/1JHAA7LiCK</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>hafizkenny</t>
+          <t>anemazmey</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>43491.13681712963</v>
+        <v>43491.28082175926</v>
       </c>
       <c r="B984" t="n">
-        <v>1.088999219875197e+18</v>
+        <v>1.089051404306706e+18</v>
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Sejam lebih beratur (@ Transformers The Ride: The Ultimate 3D Battle - @rwsentosa in Sentosa Island) https://t.co/9FGlt8nPPF</t>
+          <t>Little escape from reality
+.
+.
+.
+Kalo film ada crazy rich, kita mah apa atuh cuma crazy sengklek atau crazy nekat, dimana kalo mau melakukan sesuatu tanpa berpikir panjang yang penting… https://t.co/E3YbewlFq1</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
         <is>
-          <t>anemazmey</t>
+          <t>faaardib</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
+        <v>43491.26643518519</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1.089046193294975e+18</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>I'm at Encik Tan in Telok Blangah, Singapore https://t.co/Cf8O3b8Wzd</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>hafizkenny</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>43491.13681712963</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1.088999219875197e+18</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Sejam lebih beratur (@ Transformers The Ride: The Ultimate 3D Battle - @rwsentosa in Sentosa Island) https://t.co/9FGlt8nPPF</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>anemazmey</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
         <v>43490.83416666667</v>
       </c>
-      <c r="B985" t="n">
+      <c r="B987" t="n">
         <v>1.088889544013795e+18</v>
       </c>
-      <c r="C985" t="inlineStr">
+      <c r="C987" t="inlineStr">
         <is>
           <t>Alhamdulillah ..... Journey Begin
 #SatuPersatuImpianTerwujud😇 @ Universal Studio, Sentosa Beach Singapore https://t.co/wCSdfL3ce1</t>
         </is>
       </c>
-      <c r="D985" t="inlineStr">
+      <c r="D987" t="inlineStr">
         <is>
           <t>devyefff</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" s="2" t="n">
-        <v>43490.18784722222</v>
-      </c>
-      <c r="B986" t="n">
-        <v>1.088655325815861e+18</v>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Yang bosan lihat saya, jangan swipe 😬🙈 @ Universal Studios Singapore https://t.co/Zjre51k5QP</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr">
-        <is>
-          <t>AnyaPudihang</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" s="2" t="n">
-        <v>43489.69892361111</v>
-      </c>
-      <c r="B987" t="n">
-        <v>1.088478146205147e+18</v>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Ada mesin waktu yang menyenangkan,  ada pula yang tidak. Sekarang ini, aku suka tapi sedikit tidak. Kenapa rasa2 nya masih sama setiap balik kesini ya 😐</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr">
-        <is>
-          <t>megaharijanuar</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>43489.50988425926</v>
+        <v>43490.18784722222</v>
       </c>
       <c r="B988" t="n">
-        <v>1.088409642038977e+18</v>
+        <v>1.088655325815861e+18</v>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Memandang jauh kesana namun jodoh belum juga nampak. @ Sentosa Island, Singapore https://t.co/I9dNZ2GwfZ</t>
+          <t>Yang bosan lihat saya, jangan swipe 😬🙈 @ Universal Studios Singapore https://t.co/Zjre51k5QP</t>
         </is>
       </c>
       <c r="D988" t="inlineStr">
         <is>
-          <t>raden_ubay_H3</t>
+          <t>AnyaPudihang</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>43489.42851851852</v>
+        <v>43489.69892361111</v>
       </c>
       <c r="B989" t="n">
-        <v>1.08838015219773e+18</v>
+        <v>1.088478146205147e+18</v>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>Nampaknya jodohku masih jauh🐥 @ Genting Dream Cruise 云顶梦号 https://t.co/TWMUdsOtnx</t>
+          <t>Ada mesin waktu yang menyenangkan,  ada pula yang tidak. Sekarang ini, aku suka tapi sedikit tidak. Kenapa rasa2 nya masih sama setiap balik kesini ya 😐</t>
         </is>
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>ifcy61</t>
+          <t>megaharijanuar</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
+        <v>43489.50988425926</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1.088409642038977e+18</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Memandang jauh kesana namun jodoh belum juga nampak. @ Sentosa Island, Singapore https://t.co/I9dNZ2GwfZ</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>raden_ubay_H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>43489.42851851852</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1.08838015219773e+18</v>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Nampaknya jodohku masih jauh🐥 @ Genting Dream Cruise 云顶梦号 https://t.co/TWMUdsOtnx</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>ifcy61</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
         <v>43489.40680555555</v>
       </c>
-      <c r="B990" t="n">
+      <c r="B992" t="n">
         <v>1.088372284442571e+18</v>
       </c>
-      <c r="C990" t="inlineStr">
+      <c r="C992" t="inlineStr">
         <is>
           <t>ThankYou, Next?
 Jalan dengan yaya best. Sampai mengucap kawan atas flying canopy😂 https://t.co/nLH0ccDHfU</t>
         </is>
       </c>
-      <c r="D990" t="inlineStr">
+      <c r="D992" t="inlineStr">
         <is>
           <t>Lianhua97</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" s="2" t="n">
-        <v>43489.25108796296</v>
-      </c>
-      <c r="B991" t="n">
-        <v>1.088315853743972e+18</v>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>o hai! kerja ke tu? @ Universal Studio, Sentosa Beach Singapore https://t.co/usQY0jO0ry</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr">
-        <is>
-          <t>shahidassss</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" s="2" t="n">
-        <v>43489.11484953704</v>
-      </c>
-      <c r="B992" t="n">
-        <v>1.088266484072227e+18</v>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Congrats dayat semua roller coaster khatam but then muntah lah tapi 😂 @ Universal Studios Singapore https://t.co/6kJCXeQNkB</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr">
-        <is>
-          <t>aamorphouss</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
+        <v>43489.25108796296</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1.088315853743972e+18</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>o hai! kerja ke tu? @ Universal Studio, Sentosa Beach Singapore https://t.co/usQY0jO0ry</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>shahidassss</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>43489.11484953704</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1.088266484072227e+18</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Congrats dayat semua roller coaster khatam but then muntah lah tapi 😂 @ Universal Studios Singapore https://t.co/6kJCXeQNkB</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>aamorphouss</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
         <v>43488.47341435185</v>
       </c>
-      <c r="B993" t="n">
+      <c r="B995" t="n">
         <v>1.088034034997817e+18</v>
       </c>
-      <c r="C993" t="inlineStr">
+      <c r="C995" t="inlineStr">
         <is>
           <t>Ngapain kita sis.. 😂😂 
 #HappyHoliday #Singapore #Palawanbeach @ Palawan Beach Sentosa Island https://t.co/YEgsEdgYL8</t>
         </is>
       </c>
-      <c r="D993" t="inlineStr">
+      <c r="D995" t="inlineStr">
         <is>
           <t>Yoon_ay92</t>
         </is>
       </c>
     </row>
-    <row r="994">
-      <c r="A994" s="2" t="n">
+    <row r="996">
+      <c r="A996" s="2" t="n">
         <v>43488.37702546296</v>
       </c>
-      <c r="B994" t="n">
+      <c r="B996" t="n">
         <v>1.087999105551487e+18</v>
       </c>
-      <c r="C994" t="inlineStr">
+      <c r="C996" t="inlineStr">
         <is>
           <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/qkReNCDcoS</t>
         </is>
       </c>
-      <c r="D994" t="inlineStr">
+      <c r="D996" t="inlineStr">
         <is>
           <t>ifcy61</t>
         </is>
       </c>
     </row>
-    <row r="995">
-      <c r="A995" s="2" t="n">
+    <row r="997">
+      <c r="A997" s="2" t="n">
         <v>43488.36337962963</v>
       </c>
-      <c r="B995" t="n">
+      <c r="B997" t="n">
         <v>1.087994161209491e+18</v>
       </c>
-      <c r="C995" t="inlineStr">
+      <c r="C997" t="inlineStr">
         <is>
           <t>Singapore sudah di depan mata
 #merapat @ Genting Dream Cruise 云顶梦号 https://t.co/obALTYZyNu</t>
         </is>
       </c>
-      <c r="D995" t="inlineStr">
+      <c r="D997" t="inlineStr">
         <is>
           <t>joe_lee_antho</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" s="2" t="n">
-        <v>43488.31846064814</v>
-      </c>
-      <c r="B996" t="n">
-        <v>1.087977881186329e+18</v>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/fVenOQiqM5</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr">
-        <is>
-          <t>aufarahim_</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" s="2" t="n">
-        <v>43488.26384259259</v>
-      </c>
-      <c r="B997" t="n">
-        <v>1.087958089591124e+18</v>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>ibu pejabat 😂 @sagaami https://t.co/6DUyPvPDqw</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr">
-        <is>
-          <t>awywdh</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>43488.21737268518</v>
+        <v>43488.31846064814</v>
       </c>
       <c r="B998" t="n">
-        <v>1.087941251306004e+18</v>
+        <v>1.087977881186329e+18</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Menuju Sentosa Resort World (@ Sentosa Station in Singapore) https://t.co/wid9imoMxv</t>
+          <t>I'm at Sentosa Merlion in Sentosa Island, Singapore https://t.co/fVenOQiqM5</t>
         </is>
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>HarmonisasiUniv</t>
+          <t>aufarahim_</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>43488.05943287037</v>
+        <v>43488.26384259259</v>
       </c>
       <c r="B999" t="n">
-        <v>1.087884013723804e+18</v>
+        <v>1.087958089591124e+18</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>SAL UN https://t.co/N85ICwXZRh</t>
+          <t>ibu pejabat 😂 @sagaami https://t.co/6DUyPvPDqw</t>
         </is>
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>suu_e_chann</t>
+          <t>awywdh</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>43487.62873842593</v>
+        <v>43488.21737268518</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.08772793665912e+18</v>
+        <v>1.087941251306004e+18</v>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>Kat sini korg tayah berangan lah nak melawo pakai kasut ape, cari yg plastik aje sbb confirm akan basah punya, plus licin gila kalau time hujan. Tayah review lah sbb korg gi sendiri korg… https://t.co/x7OdHSEsht</t>
+          <t>Menuju Sentosa Resort World (@ Sentosa Station in Singapore) https://t.co/wid9imoMxv</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>DuuMir</t>
+          <t>HarmonisasiUniv</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>43487.60581018519</v>
+        <v>43488.05943287037</v>
       </c>
       <c r="B1001" t="n">
-        <v>1.087719626505503e+18</v>
+        <v>1.087884013723804e+18</v>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Tetap percaya bahwa selalu ada jalan untuk kebaikan 😇
-.
-.
-.
-#style #instaphotos #me #instablooms #throwback #instakicks #beautifuldestinations #instaart #statue #instadaily #hijabers… https://t.co/OHTeqqEAdc</t>
+          <t>SAL UN https://t.co/N85ICwXZRh</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>fridaaurora</t>
+          <t>suu_e_chann</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
+        <v>43487.62873842593</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1.08772793665912e+18</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Kat sini korg tayah berangan lah nak melawo pakai kasut ape, cari yg plastik aje sbb confirm akan basah punya, plus licin gila kalau time hujan. Tayah review lah sbb korg gi sendiri korg… https://t.co/x7OdHSEsht</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>DuuMir</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>43487.60581018519</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1.087719626505503e+18</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Tetap percaya bahwa selalu ada jalan untuk kebaikan 😇
+.
+.
+.
+#style #instaphotos #me #instablooms #throwback #instakicks #beautifuldestinations #instaart #statue #instadaily #hijabers… https://t.co/OHTeqqEAdc</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>fridaaurora</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
         <v>43487.59210648148</v>
       </c>
-      <c r="B1002" t="n">
+      <c r="B1004" t="n">
         <v>1.087714660877566e+18</v>
       </c>
-      <c r="C1002" t="inlineStr">
+      <c r="C1004" t="inlineStr">
         <is>
           <t>Tercapai jua akhirnya 😊
 #peninglalat 
@@ -19456,201 +19492,201 @@
 #firsttrip2019 @ Universal Studios Singapore https://t.co/PlNr6EfXRL</t>
         </is>
       </c>
-      <c r="D1002" t="inlineStr">
+      <c r="D1004" t="inlineStr">
         <is>
           <t>Qmarul_</t>
         </is>
       </c>
     </row>
-    <row r="1003">
-      <c r="A1003" s="2" t="n">
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
         <v>43487.38019675926</v>
       </c>
-      <c r="B1003" t="n">
+      <c r="B1005" t="n">
         <v>1.087637867155935e+18</v>
       </c>
-      <c r="C1003" t="inlineStr">
+      <c r="C1005" t="inlineStr">
         <is>
           <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/tvYiQ53YPo</t>
         </is>
       </c>
-      <c r="D1003" t="inlineStr">
+      <c r="D1005" t="inlineStr">
         <is>
           <t>ifcy61</t>
         </is>
       </c>
     </row>
-    <row r="1004">
-      <c r="A1004" s="2" t="n">
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
         <v>43487.36247685185</v>
       </c>
-      <c r="B1004" t="n">
+      <c r="B1006" t="n">
         <v>1.08763144363801e+18</v>
       </c>
-      <c r="C1004" t="inlineStr">
+      <c r="C1006" t="inlineStr">
         <is>
           <t>Susah juga menguap sambil senyum 🙄
 #singapore #travelling #holiday #yi4k @ Universal Studios Singapore https://t.co/s7qkaLS79V</t>
         </is>
       </c>
-      <c r="D1004" t="inlineStr">
+      <c r="D1006" t="inlineStr">
         <is>
           <t>naziel__</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="2" t="n">
-        <v>43486.64174768519</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>1.087370260376945e+18</v>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ S.E.A. Aquarium, Marine Life Park https://t.co/58d0TGq4km</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr">
-        <is>
-          <t>faridfighters</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="2" t="n">
-        <v>43486.32903935185</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>1.087256941666144e+18</v>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ S.E.A. Aquarium https://t.co/sWdH49dtlc</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr">
-        <is>
-          <t>faridfighters</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>43486.14608796296</v>
+        <v>43486.64174768519</v>
       </c>
       <c r="B1007" t="n">
-        <v>1.087190642252546e+18</v>
+        <v>1.087370260376945e+18</v>
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>Nyasar dimari... @ Universal Studios Singapore Fans https://t.co/t4d82qIiwA</t>
+          <t>Baru saja mengirim foto @ S.E.A. Aquarium, Marine Life Park https://t.co/58d0TGq4km</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>bogiemonster78</t>
+          <t>faridfighters</t>
         </is>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>43485.60563657407</v>
+        <v>43486.32903935185</v>
       </c>
       <c r="B1008" t="n">
-        <v>1.086994786081522e+18</v>
+        <v>1.087256941666144e+18</v>
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>#shangrilarasasentosa #dinner @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/L3hx8yfFji</t>
+          <t>Baru saja mengirim foto @ S.E.A. Aquarium https://t.co/sWdH49dtlc</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>Urbanrayz</t>
+          <t>faridfighters</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>43485.53803240741</v>
+        <v>43486.14608796296</v>
       </c>
       <c r="B1009" t="n">
-        <v>1.086970290159026e+18</v>
+        <v>1.087190642252546e+18</v>
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Dik, kau nak cuba tiru pose aku ke? Haha 😂 https://t.co/Z1gGIazFrA</t>
+          <t>Nyasar dimari... @ Universal Studios Singapore Fans https://t.co/t4d82qIiwA</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>ImaanCg</t>
+          <t>bogiemonster78</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>43485.43827546296</v>
+        <v>43485.60563657407</v>
       </c>
       <c r="B1010" t="n">
-        <v>1.086934137490018e+18</v>
+        <v>1.086994786081522e+18</v>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>Bubuk dulu, odette capek. @ Genting Dream Cruise 云顶梦号 https://t.co/oYBg5qD72n</t>
+          <t>#shangrilarasasentosa #dinner @ Shangri-La's Rasa Sentosa Resort &amp;amp; Spa https://t.co/L3hx8yfFji</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>ifcy61</t>
+          <t>Urbanrayz</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>43485.41616898148</v>
+        <v>43485.53803240741</v>
       </c>
       <c r="B1011" t="n">
-        <v>1.086926126545424e+18</v>
+        <v>1.086970290159026e+18</v>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>Persembahan untuk beberapa temen twitter yang lagi berbunga-bunga, semoga mekar bersama kumbangnya ya 🙂🌷 (2) https://t.co/6e1jIHg5nL</t>
+          <t>Dik, kau nak cuba tiru pose aku ke? Haha 😂 https://t.co/Z1gGIazFrA</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>trimasgetir_</t>
+          <t>ImaanCg</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>43485.41608796296</v>
+        <v>43485.43827546296</v>
       </c>
       <c r="B1012" t="n">
-        <v>1.086926096438723e+18</v>
+        <v>1.086934137490018e+18</v>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>Persembahan untuk beberapa temen twitter yang lagi berbunga-bunga, semoga mekar bersama kumbangnya ya 🙂🌷 https://t.co/0A3fWsSLYx</t>
+          <t>Bubuk dulu, odette capek. @ Genting Dream Cruise 云顶梦号 https://t.co/oYBg5qD72n</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>trimasgetir_</t>
+          <t>ifcy61</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
+        <v>43485.41616898148</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>1.086926126545424e+18</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Persembahan untuk beberapa temen twitter yang lagi berbunga-bunga, semoga mekar bersama kumbangnya ya 🙂🌷 (2) https://t.co/6e1jIHg5nL</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>trimasgetir_</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>43485.41608796296</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1.086926096438723e+18</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Persembahan untuk beberapa temen twitter yang lagi berbunga-bunga, semoga mekar bersama kumbangnya ya 🙂🌷 https://t.co/0A3fWsSLYx</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>trimasgetir_</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
         <v>43485.34567129629</v>
       </c>
-      <c r="B1013" t="n">
+      <c r="B1015" t="n">
         <v>1.086900579710886e+18</v>
       </c>
-      <c r="C1013" t="inlineStr">
+      <c r="C1015" t="inlineStr">
         <is>
           <t>Jangan sombong 
 Belum tentu yang kaya tetap kaya dan yang miskin tetap miskin. 
@@ -19658,188 +19694,188 @@
 Kita tidak tahu apa akan terjadi esok nanti. @… https://t.co/FkwGhUid53</t>
         </is>
       </c>
-      <c r="D1013" t="inlineStr">
+      <c r="D1015" t="inlineStr">
         <is>
           <t>Aizadiradino</t>
         </is>
       </c>
     </row>
-    <row r="1014">
-      <c r="A1014" s="2" t="n">
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
         <v>43485.29420138889</v>
       </c>
-      <c r="B1014" t="n">
+      <c r="B1016" t="n">
         <v>1.086881928895185e+18</v>
       </c>
-      <c r="C1014" t="inlineStr">
+      <c r="C1016" t="inlineStr">
         <is>
           <t>Yang ni baru nampak real sket..eh pernah tengok yg real ke bang?
 #JurassicPark #USS #DayyanHarith @ Universal Studios Singapore https://t.co/fNOtteh7Ep</t>
         </is>
       </c>
-      <c r="D1014" t="inlineStr">
+      <c r="D1016" t="inlineStr">
         <is>
           <t>JMR_BHR</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="2" t="n">
-        <v>43485.20835648148</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>1.086850818496651e+18</v>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Day 2
-.
-.
-Seharian naik mrt tah kemana aja nyampe ke Universal Studio, foto disini wkwk trs sorenya ngeberaniin diri sendirian ke Merlion Park naik grab (ga murah, kena erp lagi padahal… https://t.co/q0t17S5tLf</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr">
-        <is>
-          <t>cintyaayuputri</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="2" t="n">
-        <v>43484.35591435185</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>1.086541904374841e+18</v>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/XPOktQ3bIR</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>ifcy61</t>
         </is>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
+        <v>43485.20835648148</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1.086850818496651e+18</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Day 2
+.
+.
+Seharian naik mrt tah kemana aja nyampe ke Universal Studio, foto disini wkwk trs sorenya ngeberaniin diri sendirian ke Merlion Park naik grab (ga murah, kena erp lagi padahal… https://t.co/q0t17S5tLf</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>cintyaayuputri</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>43484.35591435185</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>1.086541904374841e+18</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/XPOktQ3bIR</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>ifcy61</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
         <v>43484.29435185185</v>
       </c>
-      <c r="B1017" t="n">
+      <c r="B1019" t="n">
         <v>1.086519595530416e+18</v>
       </c>
-      <c r="C1017" t="inlineStr">
+      <c r="C1019" t="inlineStr">
         <is>
           <t>&amp;lt; Sabtuku &amp;gt;⁣
 ⁣
 Sejak Rabu, abah sudah menjanjikan membawaku ke satu-satunya monorel di sini, Sentosa Express. Setiap hari aku terus menanyakan hari apa ini agar tidak terlewat hari Sabtu… https://t.co/EAWElQlSV8</t>
         </is>
       </c>
-      <c r="D1017" t="inlineStr">
+      <c r="D1019" t="inlineStr">
         <is>
           <t>rishaziza</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="2" t="n">
-        <v>43484.19362268518</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>1.086483092301365e+18</v>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>I'm at Masjid Temenggong Daeng Ibrahim (Mosque) in Singapore https://t.co/1clrKs7P8a</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr">
-        <is>
-          <t>jnnahesa</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="2" t="n">
-        <v>43484.14054398148</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>1.086463855251898e+18</v>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>Ramai nya org 🙄 (@ Enchanted Airways - @rwsentosa in Sentosa Island, Singapore) https://t.co/kdFwF3Bq71 https://t.co/V3q7m6Brn1</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr">
-        <is>
-          <t>akoryzal</t>
         </is>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>43483.50314814815</v>
+        <v>43484.19362268518</v>
       </c>
       <c r="B1020" t="n">
-        <v>1.086232872695054e+18</v>
+        <v>1.086483092301365e+18</v>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>I'm at Tajimaya Japanese Charcoal Grill Yakiniku in Singapore https://t.co/7sBBCDpmTl</t>
+          <t>I'm at Masjid Temenggong Daeng Ibrahim (Mosque) in Singapore https://t.co/1clrKs7P8a</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>JJTanJiaJun</t>
+          <t>jnnahesa</t>
         </is>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>43483.45563657407</v>
+        <v>43484.14054398148</v>
       </c>
       <c r="B1021" t="n">
-        <v>1.086215652677808e+18</v>
+        <v>1.086463855251898e+18</v>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>Setelah berjalan non-stop dari pagi, butuh tempat pemberhentian dulu. Secangkir #cappuccino dan #tiramisu #cake pasti akan mencharge full semangat ku lagi buat perjalanan besok bersama… https://t.co/WK0QytPmdR</t>
+          <t>Ramai nya org 🙄 (@ Enchanted Airways - @rwsentosa in Sentosa Island, Singapore) https://t.co/kdFwF3Bq71 https://t.co/V3q7m6Brn1</t>
         </is>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>eddimak</t>
+          <t>akoryzal</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>43483.44028935185</v>
+        <v>43483.50314814815</v>
       </c>
       <c r="B1022" t="n">
-        <v>1.086210094453404e+18</v>
+        <v>1.086232872695054e+18</v>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>Untung dapet yg cakep EZLINK card nya.. Terkadang kurang kece gambarnya 🤣 @ Ferry Departure @ HarbourFront Centre https://t.co/MwkMN6kig2</t>
+          <t>I'm at Tajimaya Japanese Charcoal Grill Yakiniku in Singapore https://t.co/7sBBCDpmTl</t>
         </is>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>adriz__</t>
+          <t>JJTanJiaJun</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
+        <v>43483.45563657407</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1.086215652677808e+18</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Setelah berjalan non-stop dari pagi, butuh tempat pemberhentian dulu. Secangkir #cappuccino dan #tiramisu #cake pasti akan mencharge full semangat ku lagi buat perjalanan besok bersama… https://t.co/WK0QytPmdR</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>eddimak</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>43483.44028935185</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1.086210094453404e+18</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Untung dapet yg cakep EZLINK card nya.. Terkadang kurang kece gambarnya 🤣 @ Ferry Departure @ HarbourFront Centre https://t.co/MwkMN6kig2</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>adriz__</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
         <v>43483.43420138889</v>
       </c>
-      <c r="B1023" t="n">
+      <c r="B1025" t="n">
         <v>1.086207885577642e+18</v>
       </c>
-      <c r="C1023" t="inlineStr">
+      <c r="C1025" t="inlineStr">
         <is>
           <t>Dengan Bangga Memperkenalkan
 Tour Leader Freelance Kami
@@ -19851,405 +19887,405 @@
 Demi Piknik Ada Lebih… https://t.co/c2rhOGnF0C</t>
         </is>
       </c>
-      <c r="D1023" t="inlineStr">
+      <c r="D1025" t="inlineStr">
         <is>
           <t>tubagus_nugraha</t>
-        </is>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="2" t="n">
-        <v>43483.39943287037</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>1.086195288434528e+18</v>
-      </c>
-      <c r="C1024" t="inlineStr">
-        <is>
-          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/IpkpTFAMNl</t>
-        </is>
-      </c>
-      <c r="D1024" t="inlineStr">
-        <is>
-          <t>ifcy61</t>
-        </is>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="2" t="n">
-        <v>43483.19518518518</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>1.086121268397494e+18</v>
-      </c>
-      <c r="C1025" t="inlineStr">
-        <is>
-          <t>Kasut basah ape ade hal. https://t.co/RG9gK5FCbf</t>
-        </is>
-      </c>
-      <c r="D1025" t="inlineStr">
-        <is>
-          <t>DuuMir</t>
         </is>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
+        <v>43483.39943287037</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1.086195288434528e+18</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Baru saja mengirim foto @ Genting Dream Cruise 云顶梦号 https://t.co/IpkpTFAMNl</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>ifcy61</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>43483.19518518518</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1.086121268397494e+18</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Kasut basah ape ade hal. https://t.co/RG9gK5FCbf</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>DuuMir</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
         <v>43481.10412037037</v>
       </c>
-      <c r="B1026" t="n">
+      <c r="B1028" t="n">
         <v>1.085363495208669e+18</v>
       </c>
-      <c r="C1026" t="inlineStr">
+      <c r="C1028" t="inlineStr">
         <is>
           <t>Saya mah apa atuh..!!
 #10yearchallenge #10yearschallenge @ Universal Studios Singapore Fans https://t.co/rHBDYBecuo</t>
         </is>
       </c>
-      <c r="D1026" t="inlineStr">
+      <c r="D1028" t="inlineStr">
         <is>
           <t>_yud86</t>
         </is>
       </c>
     </row>
-    <row r="1027">
-      <c r="A1027" s="2" t="n">
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
         <v>43480.10045138889</v>
       </c>
-      <c r="B1027" t="n">
+      <c r="B1029" t="n">
         <v>1.084999774695318e+18</v>
       </c>
-      <c r="C1027" t="inlineStr">
+      <c r="C1029" t="inlineStr">
         <is>
           <t>Mimpi itu gratis, ucapkan dan lakukan. Lupakan  orang - orang yang merecehkan mimpimu 🍭🍬🍭
 #batam #batamhits #batamtravel #kepri  #indonesia #loveindonesia #travelerindonesia #traveling… https://t.co/CYb4hjLA2D</t>
         </is>
       </c>
-      <c r="D1027" t="inlineStr">
+      <c r="D1029" t="inlineStr">
         <is>
           <t>sri_basarianna</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="2" t="n">
-        <v>43479.35591435185</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>1.084729963092365e+18</v>
-      </c>
-      <c r="C1028" t="inlineStr">
-        <is>
-          <t>Carilah Kebahagiaanmu Dimana Saja 😉🙂👍🤗😎🇸🇬 @ Brewerkz Sentosa Boardwalk https://t.co/0yx490lPOK</t>
-        </is>
-      </c>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>RulyPramanaPtra</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="2" t="n">
-        <v>43478.55366898148</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>1.084439241600442e+18</v>
-      </c>
-      <c r="C1029" t="inlineStr">
-        <is>
-          <t>Tidak hanya ke Roma, ke Singapura juga banyak “jalan menuju-nya”. 
-.
-Dari sekian kalinya ke sini, saya pernah terbang dari Makassar dengan menempuh 3 jam perjalanan pesawat mendarat di… https://t.co/NbcZ71XZsm</t>
-        </is>
-      </c>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>baracoedaz</t>
         </is>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>43477.21475694444</v>
+        <v>43479.35591435185</v>
       </c>
       <c r="B1030" t="n">
-        <v>1.083954036301316e+18</v>
+        <v>1.084729963092365e+18</v>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>Matilah aku jika rindu itu pelanggaran ⛔️ @ Universal Studio, Sentosa Beach Singapore https://t.co/hQd4OnmXwW</t>
+          <t>Carilah Kebahagiaanmu Dimana Saja 😉🙂👍🤗😎🇸🇬 @ Brewerkz Sentosa Boardwalk https://t.co/0yx490lPOK</t>
         </is>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>vharent_ggrt</t>
+          <t>RulyPramanaPtra</t>
         </is>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>43476.56804398148</v>
+        <v>43478.55366898148</v>
       </c>
       <c r="B1031" t="n">
-        <v>1.083719673600831e+18</v>
+        <v>1.084439241600442e+18</v>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>Gue sungguh mini kalo di samping adek gue HAHAHAHA https://t.co/hSBDYj7BkO</t>
+          <t>Tidak hanya ke Roma, ke Singapura juga banyak “jalan menuju-nya”. 
+.
+Dari sekian kalinya ke sini, saya pernah terbang dari Makassar dengan menempuh 3 jam perjalanan pesawat mendarat di… https://t.co/NbcZ71XZsm</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>dearbabysky</t>
+          <t>baracoedaz</t>
         </is>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>43476.33951388889</v>
+        <v>43477.21475694444</v>
       </c>
       <c r="B1032" t="n">
-        <v>1.083636856762307e+18</v>
+        <v>1.083954036301316e+18</v>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>Pengalaman kedua main ke Universal Studio Singapore, kali ini bareng keluarga, walaupun malamnya habis di opname sebentar di salah satu Rumah Sakit di Singapore, terus kepala masih pusing… https://t.co/9pRICd4ubG</t>
+          <t>Matilah aku jika rindu itu pelanggaran ⛔️ @ Universal Studio, Sentosa Beach Singapore https://t.co/hQd4OnmXwW</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>doddy_dzia</t>
+          <t>vharent_ggrt</t>
         </is>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
+        <v>43476.56804398148</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1.083719673600831e+18</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Gue sungguh mini kalo di samping adek gue HAHAHAHA https://t.co/hSBDYj7BkO</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>dearbabysky</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>43476.33951388889</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1.083636856762307e+18</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Pengalaman kedua main ke Universal Studio Singapore, kali ini bareng keluarga, walaupun malamnya habis di opname sebentar di salah satu Rumah Sakit di Singapore, terus kepala masih pusing… https://t.co/9pRICd4ubG</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>doddy_dzia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
         <v>43476.28059027778</v>
       </c>
-      <c r="B1033" t="n">
+      <c r="B1035" t="n">
         <v>1.083615504168669e+18</v>
       </c>
-      <c r="C1033" t="inlineStr">
+      <c r="C1035" t="inlineStr">
         <is>
           <t>Keppel bay! ❤️ 
 #Singapore #KeppelBay #Prive #Sentosa #KeppelIsland #LostInSG #OOTD #StacyFashion #iPhoneXSmax #Travel #Holiday #Vacation  #StacyBiano #BeautyQueen #TransgenderModel… https://t.co/r8iEdM0kLR</t>
         </is>
       </c>
-      <c r="D1033" t="inlineStr">
+      <c r="D1035" t="inlineStr">
         <is>
           <t>christmondbiano</t>
-        </is>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="2" t="n">
-        <v>43475.5762962963</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>1.083360277738017e+18</v>
-      </c>
-      <c r="C1034" t="inlineStr">
-        <is>
-          <t>Cuma melihatmu, bukan dia atau mereka 🗿 @ Ancient Egypt https://t.co/LmoXrrXV3U</t>
-        </is>
-      </c>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>abdulharisCR7</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="2" t="n">
-        <v>43475.53197916667</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>1.083344218070925e+18</v>
-      </c>
-      <c r="C1035" t="inlineStr">
-        <is>
-          <t>Supreme Cheese Strawberry 🍓 (@ Nayuki in Telok Blangah, Singapore) https://t.co/CrxJhKGPnE https://t.co/Jfubgw7aHM</t>
-        </is>
-      </c>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>justlimla90</t>
         </is>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>43475.49350694445</v>
+        <v>43475.5762962963</v>
       </c>
       <c r="B1036" t="n">
-        <v>1.083330276938469e+18</v>
+        <v>1.083360277738017e+18</v>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>Jika biasanya travelling dan difotoin atau hanya selfie menggunakan kamera ponsel. Semoga tahun 2019 ini, resolusinya menjadi kenyataan agar dokumentasi tidak gagal lagi dengan foto… https://t.co/8OPjz5rmxV</t>
+          <t>Cuma melihatmu, bukan dia atau mereka 🗿 @ Ancient Egypt https://t.co/LmoXrrXV3U</t>
         </is>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>FDRamadhan</t>
+          <t>abdulharisCR7</t>
         </is>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>43474.11033564815</v>
+        <v>43475.53197916667</v>
       </c>
       <c r="B1037" t="n">
-        <v>1.082829032184525e+18</v>
+        <v>1.083344218070925e+18</v>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>Terjebak suda sentosa walking trail (@ Sentosa Merlion in Sentosa Island, Singapore) https://t.co/MIuZ0OijhP</t>
+          <t>Supreme Cheese Strawberry 🍓 (@ Nayuki in Telok Blangah, Singapore) https://t.co/CrxJhKGPnE https://t.co/Jfubgw7aHM</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>HafizSim</t>
+          <t>justlimla90</t>
         </is>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>43474.02252314815</v>
+        <v>43475.49350694445</v>
       </c>
       <c r="B1038" t="n">
-        <v>1.082797208951579e+18</v>
+        <v>1.083330276938469e+18</v>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>Keseruan tadi Malam bersama @Cynthiasonny Nonton Slash &amp;amp; Miles Kennedy And The Conspirators 🤘#sontracks #sonnycynthia #slash #mileskennedy #bandwagon #singapore #xiaomi #pocophone @ The… https://t.co/80Q4dhMlHc</t>
+          <t>Jika biasanya travelling dan difotoin atau hanya selfie menggunakan kamera ponsel. Semoga tahun 2019 ini, resolusinya menjadi kenyataan agar dokumentasi tidak gagal lagi dengan foto… https://t.co/8OPjz5rmxV</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>SonnyJWong</t>
+          <t>FDRamadhan</t>
         </is>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>43473.70503472222</v>
+        <v>43474.11033564815</v>
       </c>
       <c r="B1039" t="n">
-        <v>1.08268215299779e+18</v>
+        <v>1.082829032184525e+18</v>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>Aku gak jahat kok 😅 @ Universal Studios Singapore https://t.co/V6eZkeEuAQ</t>
+          <t>Terjebak suda sentosa walking trail (@ Sentosa Merlion in Sentosa Island, Singapore) https://t.co/MIuZ0OijhP</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>skmpdd</t>
+          <t>HafizSim</t>
         </is>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
+        <v>43474.02252314815</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>1.082797208951579e+18</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Keseruan tadi Malam bersama @Cynthiasonny Nonton Slash &amp;amp; Miles Kennedy And The Conspirators 🤘#sontracks #sonnycynthia #slash #mileskennedy #bandwagon #singapore #xiaomi #pocophone @ The… https://t.co/80Q4dhMlHc</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>SonnyJWong</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>43473.70503472222</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>1.08268215299779e+18</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Aku gak jahat kok 😅 @ Universal Studios Singapore https://t.co/V6eZkeEuAQ</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>skmpdd</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
         <v>43473.4881712963</v>
       </c>
-      <c r="B1040" t="n">
+      <c r="B1042" t="n">
         <v>1.082603567679267e+18</v>
       </c>
-      <c r="C1040" t="inlineStr">
+      <c r="C1042" t="inlineStr">
         <is>
           <t>Kuya 🥰🥰
 #xianandxam #sentosaisland #singapore2018 #familyvacay @ Sentosa Merlion Plaza Artisans' Bazaar https://t.co/XyHYAOPF62</t>
         </is>
       </c>
-      <c r="D1040" t="inlineStr">
+      <c r="D1042" t="inlineStr">
         <is>
           <t>zakryft</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="2" t="n">
-        <v>43473.44210648148</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>1.082586872365416e+18</v>
-      </c>
-      <c r="C1041" t="inlineStr">
-        <is>
-          <t>I'm at Qiji in Telok Blangah, Singapore https://t.co/0IdEFgfXa6</t>
-        </is>
-      </c>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>Angryjie</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="2" t="n">
-        <v>43473.38826388889</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>1.082567358386921e+18</v>
-      </c>
-      <c r="C1042" t="inlineStr">
-        <is>
-          <t>PENAT LA SIA https://t.co/QDpFlYrZg8</t>
-        </is>
-      </c>
-      <c r="D1042" t="inlineStr">
-        <is>
-          <t>h1r4wr</t>
         </is>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
+        <v>43473.44210648148</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>1.082586872365416e+18</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>I'm at Qiji in Telok Blangah, Singapore https://t.co/0IdEFgfXa6</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Angryjie</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>43473.38826388889</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>1.082567358386921e+18</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>PENAT LA SIA https://t.co/QDpFlYrZg8</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>h1r4wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
         <v>43472.90559027778</v>
       </c>
-      <c r="B1043" t="n">
+      <c r="B1045" t="n">
         <v>1.082392443461558e+18</v>
       </c>
-      <c r="C1043" t="inlineStr">
+      <c r="C1045" t="inlineStr">
         <is>
           <t>Tidak perlu takut. Tunjukan saja warna-warnimu yang sesungguhnya. Bahkan lukisan terbaik sedunia pun mempunyai pembenci dan pengkritik.
 -garis waktu- @ Universal Studios Singapore https://t.co/FMrMi3em0D</t>
         </is>
       </c>
-      <c r="D1043" t="inlineStr">
+      <c r="D1045" t="inlineStr">
         <is>
           <t>nuki0910</t>
         </is>
       </c>
     </row>
-    <row r="1044">
-      <c r="A1044" s="2" t="n">
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
         <v>43472.65030092592</v>
       </c>
-      <c r="B1044" t="n">
+      <c r="B1046" t="n">
         <v>1.082299930256073e+18</v>
       </c>
-      <c r="C1044" t="inlineStr">
+      <c r="C1046" t="inlineStr">
         <is>
           <t>Saat terjatuh ,kita boleh menangis, kita boleh bersedih, tapi kita tak boleh patah semangat untuk berdiri kembali dan melangkah meninggalkan semuanya~ @ Sentosa… https://t.co/VEMN7wv84m</t>
         </is>
       </c>
-      <c r="D1044" t="inlineStr">
+      <c r="D1046" t="inlineStr">
         <is>
           <t>ima_maim</t>
         </is>
       </c>
     </row>
-    <row r="1045">
-      <c r="A1045" s="2" t="n">
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
         <v>43472.4819212963</v>
       </c>
-      <c r="B1045" t="n">
+      <c r="B1047" t="n">
         <v>1.082238914520408e+18</v>
       </c>
-      <c r="C1045" t="inlineStr">
+      <c r="C1047" t="inlineStr">
         <is>
           <t>[070119]
 CTRL + Z ke masa itu
@@ -20270,207 +20306,207 @@
 . @ Universal Studios Singapore https://t.co/vlJDE9ERvc</t>
         </is>
       </c>
-      <c r="D1045" t="inlineStr">
+      <c r="D1047" t="inlineStr">
         <is>
           <t>oppabuluq</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="2" t="n">
-        <v>43472.37721064815</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>1.082200967838401e+18</v>
-      </c>
-      <c r="C1046" t="inlineStr">
-        <is>
-          <t>Manners maketh man @ Sofitel Singapore Sentosa Resort &amp;amp; Spa https://t.co/OV4v7GHhWi</t>
-        </is>
-      </c>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>Farrelsayshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" s="2" t="n">
-        <v>43471.55061342593</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>1.081901416602575e+18</v>
-      </c>
-      <c r="C1047" t="inlineStr">
-        <is>
-          <t>Jika biasanya travelling dan difotoin atau hanya selfie menggunakan kamera ponsel. Semoga tahun 2019 ini, resolusinya menjadi kenyataan agar dokumentasi tidak gagal lagi dengan foto… https://t.co/pyxMyYHpbX</t>
-        </is>
-      </c>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>FDRamadhan</t>
         </is>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>43471.37109953703</v>
+        <v>43472.37721064815</v>
       </c>
       <c r="B1048" t="n">
-        <v>1.081836364495315e+18</v>
+        <v>1.082200967838401e+18</v>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>Selfie pertama 2019 😛😅 #work @ VivoCity Singapore https://t.co/DhU5tzvG2s</t>
+          <t>Manners maketh man @ Sofitel Singapore Sentosa Resort &amp;amp; Spa https://t.co/OV4v7GHhWi</t>
         </is>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>Snadzhifbrqbh</t>
+          <t>Farrelsayshi</t>
         </is>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>43471.26230324074</v>
+        <v>43471.55061342593</v>
       </c>
       <c r="B1049" t="n">
-        <v>1.081796939325166e+18</v>
+        <v>1.081901416602575e+18</v>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>Segini aja cukup, nambah lagi bangkrut!
-.
-.
-.
-#FOODCOMA #foodies #foodie #foodporn #foodgasm #instafood #foodstagram #sharefood #instaeat #foodphotography #foodoftheday #nomnom… https://t.co/o9a2P9AcyT</t>
+          <t>Jika biasanya travelling dan difotoin atau hanya selfie menggunakan kamera ponsel. Semoga tahun 2019 ini, resolusinya menjadi kenyataan agar dokumentasi tidak gagal lagi dengan foto… https://t.co/pyxMyYHpbX</t>
         </is>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>gunadihamsyah</t>
+          <t>FDRamadhan</t>
         </is>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>43471.10202546296</v>
+        <v>43471.37109953703</v>
       </c>
       <c r="B1050" t="n">
-        <v>1.081738856054092e+18</v>
+        <v>1.081836364495315e+18</v>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Jiwa lama bersengketa,sedang hakikatnya kita sama² redha..
-.
-Hati hamba dah sedia..☝🏽 #Hakikat @ Genting Highland Malaysia https://t.co/eGUcAq7F0R</t>
+          <t>Selfie pertama 2019 😛😅 #work @ VivoCity Singapore https://t.co/DhU5tzvG2s</t>
         </is>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>rontmohammed</t>
+          <t>Snadzhifbrqbh</t>
         </is>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>43470.27270833333</v>
+        <v>43471.26230324074</v>
       </c>
       <c r="B1051" t="n">
-        <v>1.081438319911887e+18</v>
+        <v>1.081796939325166e+18</v>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Baru saja mengirim foto @ VivoCity Singapore https://t.co/Ogkf6wiO5Z</t>
+          <t>Segini aja cukup, nambah lagi bangkrut!
+.
+.
+.
+#FOODCOMA #foodies #foodie #foodporn #foodgasm #instafood #foodstagram #sharefood #instaeat #foodphotography #foodoftheday #nomnom… https://t.co/o9a2P9AcyT</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>IpankAF</t>
+          <t>gunadihamsyah</t>
         </is>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>43468.96511574074</v>
+        <v>43471.10202546296</v>
       </c>
       <c r="B1052" t="n">
-        <v>1.080964465573679e+18</v>
+        <v>1.081738856054092e+18</v>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>70% done. (@ PSA Brani Terminal in Singapore) https://t.co/JMJBLhjOxM</t>
+          <t>Jiwa lama bersengketa,sedang hakikatnya kita sama² redha..
+.
+Hati hamba dah sedia..☝🏽 #Hakikat @ Genting Highland Malaysia https://t.co/eGUcAq7F0R</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>michxelqjl</t>
+          <t>rontmohammed</t>
         </is>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
+        <v>43470.27270833333</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>1.081438319911887e+18</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Baru saja mengirim foto @ VivoCity Singapore https://t.co/Ogkf6wiO5Z</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>IpankAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>43468.96511574074</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>1.080964465573679e+18</v>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>70% done. (@ PSA Brani Terminal in Singapore) https://t.co/JMJBLhjOxM</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>michxelqjl</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
         <v>43468.13645833333</v>
       </c>
-      <c r="B1053" t="n">
+      <c r="B1055" t="n">
         <v>1.080664168565375e+18</v>
       </c>
-      <c r="C1053" t="inlineStr">
+      <c r="C1055" t="inlineStr">
         <is>
           <t>SIGNATURE STAIR
 Salah satu tempat iconic untuk berphoto di dalam kapar pesiar voyageroftheseas adalah di tangga yang menghubungkan deck promenade di lantai 5 dan La Scala dan sappire… https://t.co/u5vXF7iIwT</t>
         </is>
       </c>
-      <c r="D1053" t="inlineStr">
+      <c r="D1055" t="inlineStr">
         <is>
           <t>besamyono</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" s="2" t="n">
-        <v>43467.33616898148</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>1.080374154447081e+18</v>
-      </c>
-      <c r="C1054" t="inlineStr">
-        <is>
-          <t>@susipudjiastuti salam bu</t>
-        </is>
-      </c>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>Yudi70117508</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" s="2" t="n">
-        <v>43466.45930555555</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>1.080056390855676e+18</v>
-      </c>
-      <c r="C1055" t="inlineStr">
-        <is>
-          <t>Coba liat-liat peluang mana tahu ada lokasi bisa buka cabang Nasi Kuning Pertanian Raya di tahun 2019 ini, hehehehe. @ Universal Studio, Sentosa Beach Singapore https://t.co/eO1so3WeqF</t>
-        </is>
-      </c>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>Zulkifli_H</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
+        <v>43467.33616898148</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>1.080374154447081e+18</v>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>@susipudjiastuti salam bu</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>Yudi70117508</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>43466.45930555555</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>1.080056390855676e+18</v>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Coba liat-liat peluang mana tahu ada lokasi bisa buka cabang Nasi Kuning Pertanian Raya di tahun 2019 ini, hehehehe. @ Universal Studio, Sentosa Beach Singapore https://t.co/eO1so3WeqF</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>Zulkifli_H</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
         <v>43466.31319444445</v>
       </c>
-      <c r="B1056" t="n">
+      <c r="B1058" t="n">
         <v>1.080003440510554e+18</v>
       </c>
-      <c r="C1056" t="inlineStr">
+      <c r="C1058" t="inlineStr">
         <is>
           <t>Big Merlion.
 #merlion 
@@ -20478,38 +20514,38 @@
 #singapore 場所: Sentosa Merlion https://t.co/6zCt6Wm9JR</t>
         </is>
       </c>
-      <c r="D1056" t="inlineStr">
+      <c r="D1058" t="inlineStr">
         <is>
           <t>AKKEY52147106</t>
         </is>
       </c>
     </row>
-    <row r="1057">
-      <c r="A1057" s="2" t="n">
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
         <v>43466.28975694445</v>
       </c>
-      <c r="B1057" t="n">
+      <c r="B1059" t="n">
         <v>1.079994946990625e+18</v>
       </c>
-      <c r="C1057" t="inlineStr">
+      <c r="C1059" t="inlineStr">
         <is>
           <t>🤘🤙🏽  🇸🇬  #singapore  01.01.19 ph zlateshka 😉🤙🏽 @ Sofitel Singapore Sentosa Resort &amp;amp; Spa https://t.co/dleYu5qXFK</t>
         </is>
       </c>
-      <c r="D1057" t="inlineStr">
+      <c r="D1059" t="inlineStr">
         <is>
           <t>Lex_Kors1n</t>
         </is>
       </c>
     </row>
-    <row r="1058">
-      <c r="A1058" s="2" t="n">
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
         <v>43466.13508101852</v>
       </c>
-      <c r="B1058" t="n">
+      <c r="B1060" t="n">
         <v>1.079938896291602e+18</v>
       </c>
-      <c r="C1058" t="inlineStr">
+      <c r="C1060" t="inlineStr">
         <is>
           <t>Mimpiku besar 
 dan aku harap aku bisa mewujudkannya 😁
@@ -20518,7 +20554,7 @@
 #holidayexpired #happynewyear2019… https://t.co/dILBjh958V</t>
         </is>
       </c>
-      <c r="D1058" t="inlineStr">
+      <c r="D1060" t="inlineStr">
         <is>
           <t>rosiFJP</t>
         </is>
